--- a/Resources/30434.xlsx
+++ b/Resources/30434.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23580" windowHeight="11295" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23580" windowHeight="11295"/>
   </bookViews>
   <sheets>
     <sheet name="attendance" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="58">
   <si>
     <t>Nr.</t>
   </si>
@@ -766,15 +766,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B2:B29"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.5703125" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
-    <col min="3" max="16" width="4" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="16" width="4" customWidth="1"/>
     <col min="17" max="17" width="11.42578125" customWidth="1"/>
     <col min="18" max="18" width="11.140625" customWidth="1"/>
     <col min="19" max="19" width="18.85546875" customWidth="1"/>
@@ -965,7 +966,9 @@
       <c r="B5" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -981,7 +984,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="3"/>
@@ -1372,7 +1375,9 @@
       <c r="B16" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="9"/>
+      <c r="C16" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
       <c r="F16" s="4"/>
@@ -1388,7 +1393,7 @@
       <c r="P16" s="4"/>
       <c r="Q16" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="4"/>
       <c r="S16" s="8"/>
@@ -1409,7 +1414,9 @@
       <c r="B17" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="7"/>
+      <c r="C17" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="1"/>
@@ -1425,7 +1432,7 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" s="1"/>
       <c r="S17" s="8"/>
@@ -1446,7 +1453,9 @@
       <c r="B18" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="9"/>
+      <c r="C18" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="4"/>
@@ -1462,7 +1471,7 @@
       <c r="P18" s="4"/>
       <c r="Q18" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="4"/>
       <c r="S18" s="8"/>
@@ -1483,7 +1492,9 @@
       <c r="B19" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="7"/>
+      <c r="C19" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="1"/>
@@ -1499,7 +1510,7 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" s="1"/>
       <c r="S19" s="8"/>
@@ -1520,7 +1531,9 @@
       <c r="B20" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="4"/>
+      <c r="C20" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -1536,7 +1549,7 @@
       <c r="P20" s="4"/>
       <c r="Q20" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" s="4"/>
       <c r="S20" s="3"/>
@@ -1557,7 +1570,9 @@
       <c r="B21" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="7"/>
+      <c r="C21" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="D21" s="7"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1573,7 +1588,7 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" s="1"/>
       <c r="S21" s="8"/>
@@ -1594,7 +1609,9 @@
       <c r="B22" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="9"/>
+      <c r="C22" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="4"/>
@@ -1610,7 +1627,7 @@
       <c r="P22" s="4"/>
       <c r="Q22" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" s="4"/>
       <c r="S22" s="8"/>
@@ -1631,7 +1648,9 @@
       <c r="B23" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="7"/>
+      <c r="C23" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="1"/>
@@ -1647,7 +1666,7 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" s="1"/>
       <c r="S23" s="8"/>
@@ -1668,7 +1687,9 @@
       <c r="B24" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="9"/>
+      <c r="C24" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="4"/>
@@ -1684,7 +1705,7 @@
       <c r="P24" s="4"/>
       <c r="Q24" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" s="4"/>
       <c r="S24" s="8"/>
@@ -1705,7 +1726,9 @@
       <c r="B25" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="7"/>
+      <c r="C25" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="1"/>
@@ -1721,7 +1744,7 @@
       <c r="P25" s="1"/>
       <c r="Q25" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" s="1"/>
       <c r="S25" s="8"/>
@@ -1742,7 +1765,9 @@
       <c r="B26" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="9"/>
+      <c r="C26" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="4"/>
@@ -1758,7 +1783,7 @@
       <c r="P26" s="4"/>
       <c r="Q26" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" s="4"/>
       <c r="S26" s="8"/>
@@ -1816,7 +1841,9 @@
       <c r="B28" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="9"/>
+      <c r="C28" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
       <c r="F28" s="4"/>
@@ -1832,7 +1859,7 @@
       <c r="P28" s="4"/>
       <c r="Q28" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28" s="4"/>
       <c r="S28" s="8"/>
@@ -1853,7 +1880,9 @@
       <c r="B29" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="11"/>
+      <c r="C29" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="6"/>
@@ -1869,7 +1898,7 @@
       <c r="P29" s="6"/>
       <c r="Q29" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29" s="6"/>
       <c r="S29" s="8"/>
@@ -56456,8 +56485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C2:D29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>

--- a/Resources/30434.xlsx
+++ b/Resources/30434.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="59">
   <si>
     <t>Nr.</t>
   </si>
@@ -195,6 +195,9 @@
   </si>
   <si>
     <t>Vulpe C. Valentin Gabriel</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -766,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
@@ -929,7 +932,9 @@
       <c r="B4" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="9"/>
+      <c r="C4" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="4"/>
@@ -945,7 +950,7 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="4"/>
       <c r="S4" s="8"/>
@@ -1005,7 +1010,9 @@
       <c r="B6" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="9"/>
+      <c r="C6" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="4"/>
@@ -1021,7 +1028,7 @@
       <c r="P6" s="4"/>
       <c r="Q6" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="4"/>
       <c r="S6" s="8"/>
@@ -1042,7 +1049,9 @@
       <c r="B7" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="7"/>
+      <c r="C7" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="1"/>
@@ -1058,7 +1067,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" s="1"/>
       <c r="S7" s="8"/>
@@ -1079,7 +1088,9 @@
       <c r="B8" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="9"/>
+      <c r="C8" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="4"/>
@@ -1095,7 +1106,7 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="4"/>
       <c r="S8" s="8"/>
@@ -1116,7 +1127,9 @@
       <c r="B9" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="7"/>
+      <c r="C9" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="1"/>
@@ -1132,7 +1145,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" s="1"/>
       <c r="S9" s="8"/>
@@ -1153,7 +1166,9 @@
       <c r="B10" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="9"/>
+      <c r="C10" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="4"/>
@@ -1190,7 +1205,9 @@
       <c r="B11" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="7"/>
+      <c r="C11" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="1"/>
@@ -1206,7 +1223,7 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" s="1"/>
       <c r="S11" s="8"/>
@@ -1227,7 +1244,9 @@
       <c r="B12" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="9"/>
+      <c r="C12" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="D12" s="9"/>
       <c r="E12" s="10"/>
       <c r="F12" s="4"/>
@@ -1243,7 +1262,7 @@
       <c r="P12" s="4"/>
       <c r="Q12" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="4"/>
       <c r="S12" s="8"/>
@@ -1264,7 +1283,9 @@
       <c r="B13" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="7"/>
+      <c r="C13" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="1"/>
@@ -1280,7 +1301,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" s="1"/>
       <c r="S13" s="8"/>
@@ -1301,7 +1322,9 @@
       <c r="B14" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="9"/>
+      <c r="C14" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="4"/>
@@ -1338,7 +1361,9 @@
       <c r="B15" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="7"/>
+      <c r="C15" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="1"/>

--- a/Resources/30434.xlsx
+++ b/Resources/30434.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="67">
   <si>
     <t>Nr.</t>
   </si>
@@ -198,6 +198,30 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Tarce Diana</t>
+  </si>
+  <si>
+    <t>Vulcan Theodor</t>
+  </si>
+  <si>
+    <t>Satmarean Paul</t>
+  </si>
+  <si>
+    <t>Grigoras Mihai</t>
+  </si>
+  <si>
+    <t>Fejer Alpar</t>
+  </si>
+  <si>
+    <t>Nitu Doru</t>
+  </si>
+  <si>
+    <t>Lerm Andreas</t>
+  </si>
+  <si>
+    <t>Vlad Rusu</t>
   </si>
 </sst>
 </file>
@@ -769,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
@@ -895,8 +919,12 @@
       <c r="B3" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+      <c r="C3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="E3" s="7"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -911,7 +939,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="8"/>
@@ -935,7 +963,9 @@
       <c r="C4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="9"/>
+      <c r="D4" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="E4" s="9"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -950,7 +980,7 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="4">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R4" s="4"/>
       <c r="S4" s="8"/>
@@ -974,7 +1004,9 @@
       <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -989,7 +1021,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="3"/>
@@ -1013,7 +1045,9 @@
       <c r="C6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="9"/>
+      <c r="D6" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="E6" s="9"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -1028,7 +1062,7 @@
       <c r="P6" s="4"/>
       <c r="Q6" s="4">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R6" s="4"/>
       <c r="S6" s="8"/>
@@ -1052,7 +1086,9 @@
       <c r="C7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="E7" s="7"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -1067,7 +1103,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R7" s="1"/>
       <c r="S7" s="8"/>
@@ -1091,7 +1127,9 @@
       <c r="C8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="9"/>
+      <c r="D8" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="E8" s="9"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -1106,7 +1144,7 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="4">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R8" s="4"/>
       <c r="S8" s="8"/>
@@ -1130,7 +1168,9 @@
       <c r="C9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="E9" s="7"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -1145,7 +1185,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R9" s="1"/>
       <c r="S9" s="8"/>
@@ -1169,7 +1209,9 @@
       <c r="C10" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="9"/>
+      <c r="D10" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="E10" s="9"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -1208,7 +1250,9 @@
       <c r="C11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="7"/>
+      <c r="D11" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="E11" s="7"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -1223,7 +1267,7 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R11" s="1"/>
       <c r="S11" s="8"/>
@@ -1247,7 +1291,9 @@
       <c r="C12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="9"/>
+      <c r="D12" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="E12" s="10"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -1262,7 +1308,7 @@
       <c r="P12" s="4"/>
       <c r="Q12" s="4">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R12" s="4"/>
       <c r="S12" s="8"/>
@@ -1286,7 +1332,9 @@
       <c r="C13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="E13" s="7"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -1301,7 +1349,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R13" s="1"/>
       <c r="S13" s="8"/>
@@ -1325,7 +1373,9 @@
       <c r="C14" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="9"/>
+      <c r="D14" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="E14" s="9"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -1364,7 +1414,9 @@
       <c r="C15" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="E15" s="7"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -1403,7 +1455,9 @@
       <c r="C16" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="9"/>
+      <c r="D16" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="E16" s="9"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -1418,7 +1472,7 @@
       <c r="P16" s="4"/>
       <c r="Q16" s="4">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R16" s="4"/>
       <c r="S16" s="8"/>
@@ -1442,7 +1496,9 @@
       <c r="C17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="7"/>
+      <c r="D17" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="E17" s="7"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -1457,7 +1513,7 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R17" s="1"/>
       <c r="S17" s="8"/>
@@ -1481,7 +1537,9 @@
       <c r="C18" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="9"/>
+      <c r="D18" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="E18" s="9"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -1496,7 +1554,7 @@
       <c r="P18" s="4"/>
       <c r="Q18" s="4">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R18" s="4"/>
       <c r="S18" s="8"/>
@@ -1520,7 +1578,9 @@
       <c r="C19" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="7"/>
+      <c r="D19" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="E19" s="7"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -1535,7 +1595,7 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R19" s="1"/>
       <c r="S19" s="8"/>
@@ -1559,7 +1619,9 @@
       <c r="C20" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="4"/>
+      <c r="D20" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -1574,7 +1636,7 @@
       <c r="P20" s="4"/>
       <c r="Q20" s="4">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R20" s="4"/>
       <c r="S20" s="3"/>
@@ -1598,7 +1660,9 @@
       <c r="C21" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="7"/>
+      <c r="D21" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -1613,7 +1677,7 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R21" s="1"/>
       <c r="S21" s="8"/>
@@ -1637,7 +1701,9 @@
       <c r="C22" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="9"/>
+      <c r="D22" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="E22" s="9"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -1652,7 +1718,7 @@
       <c r="P22" s="4"/>
       <c r="Q22" s="4">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R22" s="4"/>
       <c r="S22" s="8"/>
@@ -1676,7 +1742,9 @@
       <c r="C23" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="7"/>
+      <c r="D23" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="E23" s="7"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -1691,7 +1759,7 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R23" s="1"/>
       <c r="S23" s="8"/>
@@ -1715,7 +1783,9 @@
       <c r="C24" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="9"/>
+      <c r="D24" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="E24" s="9"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -1730,7 +1800,7 @@
       <c r="P24" s="4"/>
       <c r="Q24" s="4">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R24" s="4"/>
       <c r="S24" s="8"/>
@@ -1754,7 +1824,9 @@
       <c r="C25" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="7"/>
+      <c r="D25" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="E25" s="7"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -1769,7 +1841,7 @@
       <c r="P25" s="1"/>
       <c r="Q25" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R25" s="1"/>
       <c r="S25" s="8"/>
@@ -1793,7 +1865,9 @@
       <c r="C26" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="9"/>
+      <c r="D26" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="E26" s="9"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -1808,7 +1882,7 @@
       <c r="P26" s="4"/>
       <c r="Q26" s="4">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R26" s="4"/>
       <c r="S26" s="8"/>
@@ -1869,7 +1943,9 @@
       <c r="C28" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="9"/>
+      <c r="D28" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="E28" s="9"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -1884,7 +1960,7 @@
       <c r="P28" s="4"/>
       <c r="Q28" s="4">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R28" s="4"/>
       <c r="S28" s="8"/>
@@ -1899,7 +1975,7 @@
     </row>
     <row r="29" spans="1:27" ht="15.75" customHeight="1" thickBot="1">
       <c r="A29" s="12">
-        <f t="shared" ref="A29:A35" si="2">ROW()-1</f>
+        <f t="shared" ref="A29:A37" si="2">ROW()-1</f>
         <v>28</v>
       </c>
       <c r="B29" s="27" t="s">
@@ -1908,7 +1984,9 @@
       <c r="C29" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="11"/>
+      <c r="D29" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="E29" s="11"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
@@ -1923,7 +2001,7 @@
       <c r="P29" s="6"/>
       <c r="Q29" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R29" s="6"/>
       <c r="S29" s="8"/>
@@ -1941,9 +2019,13 @@
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="B30" s="15"/>
+      <c r="B30" s="15" t="s">
+        <v>59</v>
+      </c>
       <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
+      <c r="D30" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="E30" s="9"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
@@ -1958,7 +2040,7 @@
       <c r="P30" s="4"/>
       <c r="Q30" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30" s="4"/>
       <c r="S30" s="3"/>
@@ -1976,9 +2058,13 @@
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="B31" s="13"/>
+      <c r="B31" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
+      <c r="D31" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="E31" s="11"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
@@ -1993,7 +2079,7 @@
       <c r="P31" s="6"/>
       <c r="Q31" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31" s="6"/>
       <c r="S31" s="8"/>
@@ -2011,9 +2097,15 @@
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
+      <c r="B32" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
@@ -2028,7 +2120,7 @@
       <c r="P32" s="4"/>
       <c r="Q32" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R32" s="4"/>
       <c r="S32" s="8"/>
@@ -2046,9 +2138,13 @@
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="B33" s="13"/>
+      <c r="B33" s="13" t="s">
+        <v>62</v>
+      </c>
       <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
+      <c r="D33" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="E33" s="11"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
@@ -2063,7 +2159,7 @@
       <c r="P33" s="6"/>
       <c r="Q33" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33" s="6"/>
       <c r="S33" s="3"/>
@@ -2081,9 +2177,13 @@
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="B34" s="23"/>
+      <c r="B34" s="23" t="s">
+        <v>63</v>
+      </c>
       <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
+      <c r="D34" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -2098,7 +2198,7 @@
       <c r="P34" s="4"/>
       <c r="Q34" s="4">
         <f t="shared" ref="Q34:Q35" si="3">COUNTIF(C34:P34, "p")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34" s="4"/>
       <c r="S34" s="3"/>
@@ -2116,9 +2216,13 @@
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="B35" s="22"/>
+      <c r="B35" s="22" t="s">
+        <v>64</v>
+      </c>
       <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
+      <c r="D35" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="E35" s="11"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
@@ -2133,7 +2237,7 @@
       <c r="P35" s="6"/>
       <c r="Q35" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35" s="6"/>
       <c r="S35" s="3"/>
@@ -2147,24 +2251,36 @@
       <c r="AA35" s="3"/>
     </row>
     <row r="36" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
+      <c r="A36" s="14">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4">
+        <f t="shared" ref="Q36:Q37" si="4">COUNTIF(C36:P36, "p")</f>
+        <v>2</v>
+      </c>
+      <c r="R36" s="4"/>
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
@@ -2176,24 +2292,34 @@
       <c r="AA36" s="3"/>
     </row>
     <row r="37" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
+      <c r="A37" s="12">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="11"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R37" s="6"/>
       <c r="S37" s="3"/>
       <c r="T37" s="3"/>
       <c r="U37" s="3"/>

--- a/Resources/30434.xlsx
+++ b/Resources/30434.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23580" windowHeight="11295"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7680"/>
   </bookViews>
   <sheets>
     <sheet name="attendance" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="67">
   <si>
     <t>Nr.</t>
   </si>
@@ -793,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
@@ -926,7 +926,9 @@
         <v>18</v>
       </c>
       <c r="E3" s="7"/>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -939,7 +941,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="8"/>
@@ -967,7 +969,9 @@
         <v>18</v>
       </c>
       <c r="E4" s="9"/>
-      <c r="F4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -980,7 +984,7 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="4">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R4" s="4"/>
       <c r="S4" s="8"/>
@@ -1008,7 +1012,9 @@
         <v>18</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -1021,7 +1027,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="3"/>
@@ -1049,7 +1055,9 @@
         <v>18</v>
       </c>
       <c r="E6" s="9"/>
-      <c r="F6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -1062,7 +1070,7 @@
       <c r="P6" s="4"/>
       <c r="Q6" s="4">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R6" s="4"/>
       <c r="S6" s="8"/>
@@ -1090,7 +1098,9 @@
         <v>18</v>
       </c>
       <c r="E7" s="7"/>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -1103,7 +1113,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R7" s="1"/>
       <c r="S7" s="8"/>
@@ -1131,7 +1141,9 @@
         <v>18</v>
       </c>
       <c r="E8" s="9"/>
-      <c r="F8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -1144,7 +1156,7 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="4">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R8" s="4"/>
       <c r="S8" s="8"/>
@@ -1172,7 +1184,9 @@
         <v>18</v>
       </c>
       <c r="E9" s="7"/>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -1185,7 +1199,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R9" s="1"/>
       <c r="S9" s="8"/>
@@ -1213,7 +1227,9 @@
         <v>58</v>
       </c>
       <c r="E10" s="9"/>
-      <c r="F10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -1254,7 +1270,9 @@
         <v>18</v>
       </c>
       <c r="E11" s="7"/>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1267,7 +1285,7 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R11" s="1"/>
       <c r="S11" s="8"/>
@@ -1336,7 +1354,9 @@
         <v>18</v>
       </c>
       <c r="E13" s="7"/>
-      <c r="F13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1349,7 +1369,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R13" s="1"/>
       <c r="S13" s="8"/>
@@ -1377,7 +1397,9 @@
         <v>58</v>
       </c>
       <c r="E14" s="9"/>
-      <c r="F14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -1418,7 +1440,9 @@
         <v>58</v>
       </c>
       <c r="E15" s="7"/>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -1431,7 +1455,7 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="1"/>
       <c r="S15" s="8"/>
@@ -1459,7 +1483,9 @@
         <v>18</v>
       </c>
       <c r="E16" s="9"/>
-      <c r="F16" s="4"/>
+      <c r="F16" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -1472,7 +1498,7 @@
       <c r="P16" s="4"/>
       <c r="Q16" s="4">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R16" s="4"/>
       <c r="S16" s="8"/>
@@ -1500,7 +1526,9 @@
         <v>18</v>
       </c>
       <c r="E17" s="7"/>
-      <c r="F17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1513,7 +1541,7 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R17" s="1"/>
       <c r="S17" s="8"/>
@@ -1541,7 +1569,9 @@
         <v>18</v>
       </c>
       <c r="E18" s="9"/>
-      <c r="F18" s="4"/>
+      <c r="F18" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -1554,7 +1584,7 @@
       <c r="P18" s="4"/>
       <c r="Q18" s="4">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R18" s="4"/>
       <c r="S18" s="8"/>
@@ -1582,7 +1612,9 @@
         <v>18</v>
       </c>
       <c r="E19" s="7"/>
-      <c r="F19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -1595,7 +1627,7 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R19" s="1"/>
       <c r="S19" s="8"/>
@@ -1623,7 +1655,9 @@
         <v>18</v>
       </c>
       <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="F20" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
@@ -1636,7 +1670,7 @@
       <c r="P20" s="4"/>
       <c r="Q20" s="4">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R20" s="4"/>
       <c r="S20" s="3"/>
@@ -1664,7 +1698,9 @@
         <v>18</v>
       </c>
       <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="F21" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -1677,7 +1713,7 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R21" s="1"/>
       <c r="S21" s="8"/>
@@ -1705,7 +1741,9 @@
         <v>18</v>
       </c>
       <c r="E22" s="9"/>
-      <c r="F22" s="4"/>
+      <c r="F22" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
@@ -1718,7 +1756,7 @@
       <c r="P22" s="4"/>
       <c r="Q22" s="4">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R22" s="4"/>
       <c r="S22" s="8"/>
@@ -1746,7 +1784,9 @@
         <v>18</v>
       </c>
       <c r="E23" s="7"/>
-      <c r="F23" s="1"/>
+      <c r="F23" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -1759,7 +1799,7 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R23" s="1"/>
       <c r="S23" s="8"/>
@@ -1787,7 +1827,9 @@
         <v>18</v>
       </c>
       <c r="E24" s="9"/>
-      <c r="F24" s="4"/>
+      <c r="F24" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
@@ -1800,7 +1842,7 @@
       <c r="P24" s="4"/>
       <c r="Q24" s="4">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R24" s="4"/>
       <c r="S24" s="8"/>
@@ -1828,7 +1870,9 @@
         <v>18</v>
       </c>
       <c r="E25" s="7"/>
-      <c r="F25" s="1"/>
+      <c r="F25" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -1841,7 +1885,7 @@
       <c r="P25" s="1"/>
       <c r="Q25" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R25" s="1"/>
       <c r="S25" s="8"/>
@@ -1869,7 +1913,9 @@
         <v>18</v>
       </c>
       <c r="E26" s="9"/>
-      <c r="F26" s="4"/>
+      <c r="F26" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
@@ -1882,7 +1928,7 @@
       <c r="P26" s="4"/>
       <c r="Q26" s="4">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R26" s="4"/>
       <c r="S26" s="8"/>
@@ -1947,7 +1993,9 @@
         <v>18</v>
       </c>
       <c r="E28" s="9"/>
-      <c r="F28" s="4"/>
+      <c r="F28" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
@@ -1960,7 +2008,7 @@
       <c r="P28" s="4"/>
       <c r="Q28" s="4">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R28" s="4"/>
       <c r="S28" s="8"/>
@@ -1988,7 +2036,9 @@
         <v>18</v>
       </c>
       <c r="E29" s="11"/>
-      <c r="F29" s="6"/>
+      <c r="F29" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
@@ -2001,7 +2051,7 @@
       <c r="P29" s="6"/>
       <c r="Q29" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R29" s="6"/>
       <c r="S29" s="8"/>
@@ -2027,7 +2077,9 @@
         <v>18</v>
       </c>
       <c r="E30" s="9"/>
-      <c r="F30" s="4"/>
+      <c r="F30" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
@@ -2040,7 +2092,7 @@
       <c r="P30" s="4"/>
       <c r="Q30" s="4">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R30" s="4"/>
       <c r="S30" s="3"/>
@@ -2066,7 +2118,9 @@
         <v>18</v>
       </c>
       <c r="E31" s="11"/>
-      <c r="F31" s="6"/>
+      <c r="F31" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
@@ -2079,7 +2133,7 @@
       <c r="P31" s="6"/>
       <c r="Q31" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R31" s="6"/>
       <c r="S31" s="8"/>
@@ -2107,7 +2161,9 @@
         <v>18</v>
       </c>
       <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
+      <c r="F32" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
@@ -2120,7 +2176,7 @@
       <c r="P32" s="4"/>
       <c r="Q32" s="4">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R32" s="4"/>
       <c r="S32" s="8"/>
@@ -2146,7 +2202,9 @@
         <v>18</v>
       </c>
       <c r="E33" s="11"/>
-      <c r="F33" s="6"/>
+      <c r="F33" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
@@ -2159,7 +2217,7 @@
       <c r="P33" s="6"/>
       <c r="Q33" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R33" s="6"/>
       <c r="S33" s="3"/>
@@ -2224,7 +2282,9 @@
         <v>18</v>
       </c>
       <c r="E35" s="11"/>
-      <c r="F35" s="6"/>
+      <c r="F35" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
@@ -2237,7 +2297,7 @@
       <c r="P35" s="6"/>
       <c r="Q35" s="6">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R35" s="6"/>
       <c r="S35" s="3"/>
@@ -2265,7 +2325,9 @@
         <v>18</v>
       </c>
       <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
+      <c r="F36" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
@@ -2278,7 +2340,7 @@
       <c r="P36" s="4"/>
       <c r="Q36" s="4">
         <f t="shared" ref="Q36:Q37" si="4">COUNTIF(C36:P36, "p")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R36" s="4"/>
       <c r="S36" s="3"/>
@@ -2304,7 +2366,9 @@
         <v>18</v>
       </c>
       <c r="E37" s="11"/>
-      <c r="F37" s="6"/>
+      <c r="F37" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
@@ -2317,7 +2381,7 @@
       <c r="P37" s="6"/>
       <c r="Q37" s="6">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R37" s="6"/>
       <c r="S37" s="3"/>

--- a/Resources/30434.xlsx
+++ b/Resources/30434.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="67">
   <si>
     <t>Nr.</t>
   </si>
@@ -292,7 +292,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -358,12 +358,77 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -424,6 +489,23 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -793,8 +875,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
@@ -1015,7 +1098,9 @@
       <c r="F5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -1027,7 +1112,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="6">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="3"/>
@@ -1443,7 +1528,9 @@
       <c r="F15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1455,7 +1542,7 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R15" s="1"/>
       <c r="S15" s="8"/>
@@ -1486,7 +1573,9 @@
       <c r="F16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="4"/>
+      <c r="G16" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -1498,7 +1587,7 @@
       <c r="P16" s="4"/>
       <c r="Q16" s="4">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R16" s="4"/>
       <c r="S16" s="8"/>
@@ -1529,7 +1618,9 @@
       <c r="F17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -1541,7 +1632,7 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="6">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R17" s="1"/>
       <c r="S17" s="8"/>
@@ -1572,7 +1663,9 @@
       <c r="F18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="4"/>
+      <c r="G18" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -1584,7 +1677,7 @@
       <c r="P18" s="4"/>
       <c r="Q18" s="4">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R18" s="4"/>
       <c r="S18" s="8"/>
@@ -1615,7 +1708,9 @@
       <c r="F19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -1627,7 +1722,7 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="6">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R19" s="1"/>
       <c r="S19" s="8"/>
@@ -1658,7 +1753,9 @@
       <c r="F20" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G20" s="4"/>
+      <c r="G20" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -1670,7 +1767,7 @@
       <c r="P20" s="4"/>
       <c r="Q20" s="4">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R20" s="4"/>
       <c r="S20" s="3"/>
@@ -1701,7 +1798,9 @@
       <c r="F21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -1713,7 +1812,7 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="6">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R21" s="1"/>
       <c r="S21" s="8"/>
@@ -1744,7 +1843,9 @@
       <c r="F22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="4"/>
+      <c r="G22" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
@@ -1756,7 +1857,7 @@
       <c r="P22" s="4"/>
       <c r="Q22" s="4">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R22" s="4"/>
       <c r="S22" s="8"/>
@@ -1787,7 +1888,9 @@
       <c r="F23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -1799,7 +1902,7 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="6">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R23" s="1"/>
       <c r="S23" s="8"/>
@@ -1830,7 +1933,9 @@
       <c r="F24" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G24" s="4"/>
+      <c r="G24" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -1842,7 +1947,7 @@
       <c r="P24" s="4"/>
       <c r="Q24" s="4">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R24" s="4"/>
       <c r="S24" s="8"/>
@@ -1873,7 +1978,9 @@
       <c r="F25" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -1885,7 +1992,7 @@
       <c r="P25" s="1"/>
       <c r="Q25" s="6">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R25" s="1"/>
       <c r="S25" s="8"/>
@@ -1916,7 +2023,9 @@
       <c r="F26" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G26" s="4"/>
+      <c r="G26" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
@@ -1928,7 +2037,7 @@
       <c r="P26" s="4"/>
       <c r="Q26" s="4">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R26" s="4"/>
       <c r="S26" s="8"/>
@@ -2021,12 +2130,12 @@
       <c r="Z28" s="3"/>
       <c r="AA28" s="3"/>
     </row>
-    <row r="29" spans="1:27" ht="15.75" customHeight="1" thickBot="1">
+    <row r="29" spans="1:27" ht="15.75" customHeight="1">
       <c r="A29" s="12">
         <f t="shared" ref="A29:A37" si="2">ROW()-1</f>
         <v>28</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="34" t="s">
         <v>57</v>
       </c>
       <c r="C29" s="11" t="s">
@@ -2065,14 +2174,14 @@
       <c r="AA29" s="3"/>
     </row>
     <row r="30" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A30" s="14">
+      <c r="A30" s="30">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="9"/>
+      <c r="C30" s="32"/>
       <c r="D30" s="9" t="s">
         <v>18</v>
       </c>
@@ -2080,7 +2189,9 @@
       <c r="F30" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G30" s="4"/>
+      <c r="G30" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="9"/>
@@ -2092,7 +2203,7 @@
       <c r="P30" s="4"/>
       <c r="Q30" s="4">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R30" s="4"/>
       <c r="S30" s="3"/>
@@ -2106,14 +2217,14 @@
       <c r="AA30" s="3"/>
     </row>
     <row r="31" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A31" s="12">
+      <c r="A31" s="31">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="11"/>
+      <c r="C31" s="33"/>
       <c r="D31" s="11" t="s">
         <v>18</v>
       </c>
@@ -2121,7 +2232,9 @@
       <c r="F31" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G31" s="6"/>
+      <c r="G31" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
@@ -2133,7 +2246,7 @@
       <c r="P31" s="6"/>
       <c r="Q31" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R31" s="6"/>
       <c r="S31" s="8"/>
@@ -2147,14 +2260,14 @@
       <c r="AA31" s="3"/>
     </row>
     <row r="32" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A32" s="14">
+      <c r="A32" s="30">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="32" t="s">
         <v>18</v>
       </c>
       <c r="D32" s="9" t="s">
@@ -2164,7 +2277,9 @@
       <c r="F32" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G32" s="4"/>
+      <c r="G32" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="9"/>
@@ -2176,7 +2291,7 @@
       <c r="P32" s="4"/>
       <c r="Q32" s="4">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R32" s="4"/>
       <c r="S32" s="8"/>
@@ -2190,14 +2305,14 @@
       <c r="AA32" s="3"/>
     </row>
     <row r="33" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A33" s="12">
+      <c r="A33" s="31">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="11"/>
+      <c r="C33" s="33"/>
       <c r="D33" s="11" t="s">
         <v>18</v>
       </c>
@@ -2205,7 +2320,9 @@
       <c r="F33" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G33" s="6"/>
+      <c r="G33" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
@@ -2217,7 +2334,7 @@
       <c r="P33" s="6"/>
       <c r="Q33" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R33" s="6"/>
       <c r="S33" s="3"/>
@@ -2231,14 +2348,14 @@
       <c r="AA33" s="3"/>
     </row>
     <row r="34" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A34" s="14">
+      <c r="A34" s="30">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="9"/>
+      <c r="C34" s="32"/>
       <c r="D34" s="9" t="s">
         <v>18</v>
       </c>
@@ -2270,14 +2387,14 @@
       <c r="AA34" s="3"/>
     </row>
     <row r="35" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A35" s="12">
+      <c r="A35" s="31">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="11"/>
+      <c r="C35" s="33"/>
       <c r="D35" s="11" t="s">
         <v>18</v>
       </c>
@@ -2311,14 +2428,14 @@
       <c r="AA35" s="3"/>
     </row>
     <row r="36" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A36" s="14">
+      <c r="A36" s="30">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="32" t="s">
         <v>18</v>
       </c>
       <c r="D36" s="9" t="s">
@@ -2354,14 +2471,14 @@
       <c r="AA36" s="3"/>
     </row>
     <row r="37" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A37" s="12">
+      <c r="A37" s="31">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="11"/>
+      <c r="C37" s="33"/>
       <c r="D37" s="11" t="s">
         <v>18</v>
       </c>

--- a/Resources/30434.xlsx
+++ b/Resources/30434.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="67">
   <si>
     <t>Nr.</t>
   </si>
@@ -292,7 +292,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -408,27 +408,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -488,7 +473,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -500,12 +484,10 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -875,9 +857,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
+      <selection pane="bottomLeft" activeCell="AC8" sqref="AC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
@@ -959,7 +941,7 @@
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1" thickBot="1">
       <c r="A2" s="4">
-        <f t="shared" ref="A2:A28" si="0">ROW()-1</f>
+        <f t="shared" ref="A2:B28" si="0">ROW()-1</f>
         <v>1</v>
       </c>
       <c r="B2" s="26" t="s">
@@ -1012,8 +994,12 @@
       <c r="F3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -1024,7 +1010,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="6">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="8"/>
@@ -1055,8 +1041,12 @@
       <c r="F4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -1067,7 +1057,7 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="4">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R4" s="4"/>
       <c r="S4" s="8"/>
@@ -1101,7 +1091,9 @@
       <c r="G5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -1112,7 +1104,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="3"/>
@@ -1143,8 +1135,12 @@
       <c r="F6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -1155,7 +1151,7 @@
       <c r="P6" s="4"/>
       <c r="Q6" s="4">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R6" s="4"/>
       <c r="S6" s="8"/>
@@ -1186,8 +1182,12 @@
       <c r="F7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -1198,7 +1198,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="6">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R7" s="1"/>
       <c r="S7" s="8"/>
@@ -1229,8 +1229,12 @@
       <c r="F8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -1241,7 +1245,7 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="4">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R8" s="4"/>
       <c r="S8" s="8"/>
@@ -1272,8 +1276,12 @@
       <c r="F9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1284,7 +1292,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="6">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R9" s="1"/>
       <c r="S9" s="8"/>
@@ -1358,8 +1366,12 @@
       <c r="F11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -1370,7 +1382,7 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="6">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R11" s="1"/>
       <c r="S11" s="8"/>
@@ -1399,7 +1411,9 @@
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -1411,7 +1425,7 @@
       <c r="P12" s="4"/>
       <c r="Q12" s="4">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R12" s="4"/>
       <c r="S12" s="8"/>
@@ -1442,8 +1456,12 @@
       <c r="F13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -1454,7 +1472,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="6">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R13" s="1"/>
       <c r="S13" s="8"/>
@@ -1531,7 +1549,9 @@
       <c r="G15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1542,7 +1562,7 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R15" s="1"/>
       <c r="S15" s="8"/>
@@ -1621,7 +1641,9 @@
       <c r="G17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -1632,7 +1654,7 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R17" s="1"/>
       <c r="S17" s="8"/>
@@ -1666,7 +1688,9 @@
       <c r="G18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="4"/>
+      <c r="H18" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
@@ -1677,7 +1701,7 @@
       <c r="P18" s="4"/>
       <c r="Q18" s="4">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R18" s="4"/>
       <c r="S18" s="8"/>
@@ -1711,7 +1735,9 @@
       <c r="G19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -1722,7 +1748,7 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R19" s="1"/>
       <c r="S19" s="8"/>
@@ -1756,7 +1782,9 @@
       <c r="G20" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="4"/>
+      <c r="H20" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
@@ -1767,7 +1795,7 @@
       <c r="P20" s="4"/>
       <c r="Q20" s="4">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R20" s="4"/>
       <c r="S20" s="3"/>
@@ -1801,7 +1829,9 @@
       <c r="G21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="1"/>
+      <c r="H21" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -1812,7 +1842,7 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R21" s="1"/>
       <c r="S21" s="8"/>
@@ -1846,7 +1876,9 @@
       <c r="G22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="4"/>
+      <c r="H22" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
@@ -1857,7 +1889,7 @@
       <c r="P22" s="4"/>
       <c r="Q22" s="4">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R22" s="4"/>
       <c r="S22" s="8"/>
@@ -1891,7 +1923,9 @@
       <c r="G23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="1"/>
+      <c r="H23" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -1902,7 +1936,7 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R23" s="1"/>
       <c r="S23" s="8"/>
@@ -1936,7 +1970,9 @@
       <c r="G24" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="4"/>
+      <c r="H24" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
@@ -1947,7 +1983,7 @@
       <c r="P24" s="4"/>
       <c r="Q24" s="4">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R24" s="4"/>
       <c r="S24" s="8"/>
@@ -1981,7 +2017,9 @@
       <c r="G25" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H25" s="1"/>
+      <c r="H25" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -1992,7 +2030,7 @@
       <c r="P25" s="1"/>
       <c r="Q25" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R25" s="1"/>
       <c r="S25" s="8"/>
@@ -2026,7 +2064,9 @@
       <c r="G26" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H26" s="4"/>
+      <c r="H26" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
@@ -2037,7 +2077,7 @@
       <c r="P26" s="4"/>
       <c r="Q26" s="4">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R26" s="4"/>
       <c r="S26" s="8"/>
@@ -2106,7 +2146,9 @@
         <v>18</v>
       </c>
       <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
+      <c r="H28" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
@@ -2117,7 +2159,7 @@
       <c r="P28" s="4"/>
       <c r="Q28" s="4">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R28" s="4"/>
       <c r="S28" s="8"/>
@@ -2130,12 +2172,12 @@
       <c r="Z28" s="3"/>
       <c r="AA28" s="3"/>
     </row>
-    <row r="29" spans="1:27" ht="15.75" customHeight="1">
+    <row r="29" spans="1:27" ht="15.75" customHeight="1" thickBot="1">
       <c r="A29" s="12">
         <f t="shared" ref="A29:A37" si="2">ROW()-1</f>
         <v>28</v>
       </c>
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="33" t="s">
         <v>57</v>
       </c>
       <c r="C29" s="11" t="s">
@@ -2149,7 +2191,9 @@
         <v>18</v>
       </c>
       <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
+      <c r="H29" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
@@ -2160,7 +2204,7 @@
       <c r="P29" s="6"/>
       <c r="Q29" s="6">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R29" s="6"/>
       <c r="S29" s="8"/>
@@ -2173,15 +2217,15 @@
       <c r="Z29" s="3"/>
       <c r="AA29" s="3"/>
     </row>
-    <row r="30" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A30" s="30">
+    <row r="30" spans="1:27" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A30" s="29">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="32"/>
+      <c r="C30" s="31"/>
       <c r="D30" s="9" t="s">
         <v>18</v>
       </c>
@@ -2192,7 +2236,9 @@
       <c r="G30" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H30" s="4"/>
+      <c r="H30" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="I30" s="4"/>
       <c r="J30" s="9"/>
       <c r="K30" s="4"/>
@@ -2203,7 +2249,7 @@
       <c r="P30" s="4"/>
       <c r="Q30" s="4">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R30" s="4"/>
       <c r="S30" s="3"/>
@@ -2216,15 +2262,15 @@
       <c r="Z30" s="3"/>
       <c r="AA30" s="3"/>
     </row>
-    <row r="31" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A31" s="31">
+    <row r="31" spans="1:27" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A31" s="30">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="33"/>
+      <c r="C31" s="32"/>
       <c r="D31" s="11" t="s">
         <v>18</v>
       </c>
@@ -2235,7 +2281,9 @@
       <c r="G31" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H31" s="6"/>
+      <c r="H31" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
@@ -2246,7 +2294,7 @@
       <c r="P31" s="6"/>
       <c r="Q31" s="6">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R31" s="6"/>
       <c r="S31" s="8"/>
@@ -2259,15 +2307,15 @@
       <c r="Z31" s="3"/>
       <c r="AA31" s="3"/>
     </row>
-    <row r="32" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A32" s="30">
+    <row r="32" spans="1:27" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A32" s="29">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="32" t="s">
+      <c r="C32" s="31" t="s">
         <v>18</v>
       </c>
       <c r="D32" s="9" t="s">
@@ -2280,7 +2328,9 @@
       <c r="G32" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H32" s="4"/>
+      <c r="H32" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="I32" s="4"/>
       <c r="J32" s="9"/>
       <c r="K32" s="4"/>
@@ -2291,7 +2341,7 @@
       <c r="P32" s="4"/>
       <c r="Q32" s="4">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R32" s="4"/>
       <c r="S32" s="8"/>
@@ -2304,15 +2354,15 @@
       <c r="Z32" s="3"/>
       <c r="AA32" s="3"/>
     </row>
-    <row r="33" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A33" s="31">
+    <row r="33" spans="1:27" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A33" s="30">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="33"/>
+      <c r="C33" s="32"/>
       <c r="D33" s="11" t="s">
         <v>18</v>
       </c>
@@ -2347,22 +2397,26 @@
       <c r="Z33" s="3"/>
       <c r="AA33" s="3"/>
     </row>
-    <row r="34" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A34" s="30">
+    <row r="34" spans="1:27" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A34" s="29">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="B34" s="35" t="s">
+      <c r="B34" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="32"/>
+      <c r="C34" s="31"/>
       <c r="D34" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
+      <c r="G34" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="I34" s="4"/>
       <c r="J34" s="9"/>
       <c r="K34" s="4"/>
@@ -2373,7 +2427,7 @@
       <c r="P34" s="4"/>
       <c r="Q34" s="4">
         <f t="shared" ref="Q34:Q35" si="3">COUNTIF(C34:P34, "p")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R34" s="4"/>
       <c r="S34" s="3"/>
@@ -2386,15 +2440,15 @@
       <c r="Z34" s="3"/>
       <c r="AA34" s="3"/>
     </row>
-    <row r="35" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A35" s="31">
+    <row r="35" spans="1:27" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A35" s="30">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="B35" s="36" t="s">
+      <c r="B35" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="33"/>
+      <c r="C35" s="32"/>
       <c r="D35" s="11" t="s">
         <v>18</v>
       </c>
@@ -2427,15 +2481,15 @@
       <c r="Z35" s="3"/>
       <c r="AA35" s="3"/>
     </row>
-    <row r="36" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A36" s="30">
+    <row r="36" spans="1:27" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A36" s="29">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="B36" s="35" t="s">
+      <c r="B36" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="32" t="s">
+      <c r="C36" s="31" t="s">
         <v>18</v>
       </c>
       <c r="D36" s="9" t="s">
@@ -2445,8 +2499,12 @@
       <c r="F36" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
+      <c r="G36" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="I36" s="4"/>
       <c r="J36" s="9"/>
       <c r="K36" s="4"/>
@@ -2457,7 +2515,7 @@
       <c r="P36" s="4"/>
       <c r="Q36" s="4">
         <f t="shared" ref="Q36:Q37" si="4">COUNTIF(C36:P36, "p")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R36" s="4"/>
       <c r="S36" s="3"/>
@@ -2470,15 +2528,15 @@
       <c r="Z36" s="3"/>
       <c r="AA36" s="3"/>
     </row>
-    <row r="37" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A37" s="31">
+    <row r="37" spans="1:27" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A37" s="30">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="B37" s="36" t="s">
+      <c r="B37" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="33"/>
+      <c r="C37" s="32"/>
       <c r="D37" s="11" t="s">
         <v>18</v>
       </c>
@@ -2486,8 +2544,12 @@
       <c r="F37" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
+      <c r="G37" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
@@ -2498,7 +2560,7 @@
       <c r="P37" s="6"/>
       <c r="Q37" s="6">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R37" s="6"/>
       <c r="S37" s="3"/>
@@ -30449,7 +30511,7 @@
   <dimension ref="A1:X1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
@@ -30465,7 +30527,7 @@
     <col min="9" max="9" width="6" customWidth="1"/>
     <col min="10" max="10" width="5.7109375" customWidth="1"/>
     <col min="11" max="11" width="6" customWidth="1"/>
-    <col min="12" max="12" width="18.85546875" customWidth="1"/>
+    <col min="12" max="12" width="20.85546875" customWidth="1"/>
     <col min="13" max="13" width="13.85546875" customWidth="1"/>
     <col min="14" max="14" width="12.28515625" customWidth="1"/>
     <col min="15" max="24" width="6.5703125" customWidth="1"/>
@@ -30528,7 +30590,7 @@
     </row>
     <row r="2" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="A2" s="4">
-        <f t="shared" ref="A2:A29" si="0">ROW()-1</f>
+        <f t="shared" ref="A2:A37" si="0">ROW()-1</f>
         <v>1</v>
       </c>
       <c r="B2" s="26" t="s">
@@ -30573,7 +30635,9 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1">
+        <v>10</v>
+      </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -30582,7 +30646,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="M3" s="6">
         <f t="shared" si="2"/>
@@ -30610,7 +30674,9 @@
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4">
+        <v>10</v>
+      </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -30619,7 +30685,7 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="M4" s="4">
         <f t="shared" si="2"/>
@@ -30684,7 +30750,9 @@
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="E6" s="4">
+        <v>10</v>
+      </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -30693,7 +30761,7 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="M6" s="4">
         <f t="shared" si="2"/>
@@ -30758,7 +30826,9 @@
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="E8" s="4">
+        <v>10</v>
+      </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -30767,7 +30837,7 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="M8" s="4">
         <f t="shared" si="2"/>
@@ -30795,7 +30865,9 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1">
+        <v>10</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -30804,7 +30876,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="M9" s="6">
         <f t="shared" si="2"/>
@@ -30869,7 +30941,9 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1">
+        <v>10</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -30878,7 +30952,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="M11" s="6">
         <f t="shared" si="2"/>
@@ -30943,7 +31017,9 @@
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1">
+        <v>10</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -30952,7 +31028,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="M13" s="6">
         <f t="shared" si="2"/>
@@ -31165,7 +31241,9 @@
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="E19" s="1">
+        <v>10</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -31174,7 +31252,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="M19" s="6">
         <f t="shared" si="2"/>
@@ -31239,7 +31317,9 @@
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="E21" s="1">
+        <v>10</v>
+      </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -31248,7 +31328,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="M21" s="6">
         <f t="shared" si="2"/>
@@ -31387,7 +31467,9 @@
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="E25" s="1">
+        <v>10</v>
+      </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -31396,7 +31478,7 @@
       <c r="K25" s="1"/>
       <c r="L25" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="M25" s="6">
         <f t="shared" si="2"/>
@@ -31424,7 +31506,9 @@
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
+      <c r="E26" s="4">
+        <v>10</v>
+      </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -31433,7 +31517,7 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="M26" s="4">
         <f t="shared" si="2"/>
@@ -31493,7 +31577,7 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="26" t="s">
         <v>56</v>
       </c>
       <c r="C28" s="4"/>
@@ -31525,15 +31609,15 @@
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
     </row>
-    <row r="29" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A29" s="6">
+    <row r="29" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A29" s="34">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="6"/>
+      <c r="C29" s="36"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
@@ -31543,11 +31627,11 @@
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6">
-        <f t="shared" ref="L29" si="3">(C29/10 +D29/10 + E29 + F29 + G29)/3</f>
+        <f t="shared" ref="L29:L30" si="3">(C29/10 +D29/10 + E29 + F29 + G29)/3</f>
         <v>0</v>
       </c>
       <c r="M29" s="6">
-        <f t="shared" ref="M29" si="4">(H29/10 +I29/10 + J29/10 + K29*7/10)</f>
+        <f t="shared" ref="M29:M30" si="4">(H29/10 +I29/10 + J29/10 + K29*7/10)</f>
         <v>0</v>
       </c>
       <c r="N29" s="6"/>
@@ -31562,21 +31646,32 @@
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
     </row>
-    <row r="30" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
+    <row r="30" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A30" s="35">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="37"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="4"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
@@ -31588,21 +31683,32 @@
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
     </row>
-    <row r="31" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
+    <row r="31" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A31" s="34">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="36"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6">
+        <f t="shared" ref="L31:L37" si="5">(C31/10 +D31/10 + E31 + F31 + G31)/3</f>
+        <v>0</v>
+      </c>
+      <c r="M31" s="6">
+        <f t="shared" ref="M31:M37" si="6">(H31/10 +I31/10 + J31/10 + K31*7/10)</f>
+        <v>0</v>
+      </c>
+      <c r="N31" s="6"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
@@ -31614,21 +31720,32 @@
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
     </row>
-    <row r="32" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
+    <row r="32" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A32" s="35">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="37"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="4"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
@@ -31640,21 +31757,32 @@
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
     </row>
-    <row r="33" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
+    <row r="33" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A33" s="34">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="36"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N33" s="6"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
@@ -31666,21 +31794,32 @@
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
     </row>
-    <row r="34" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
+    <row r="34" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A34" s="35">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="37"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="4"/>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
@@ -31692,21 +31831,32 @@
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
     </row>
-    <row r="35" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
+    <row r="35" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A35" s="34">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="36"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N35" s="6"/>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
@@ -31718,21 +31868,34 @@
       <c r="W35" s="3"/>
       <c r="X35" s="3"/>
     </row>
-    <row r="36" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
+    <row r="36" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A36" s="35">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="37"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4">
+        <v>10</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4">
+        <f t="shared" si="5"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="M36" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N36" s="4"/>
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
@@ -31744,21 +31907,34 @@
       <c r="W36" s="3"/>
       <c r="X36" s="3"/>
     </row>
-    <row r="37" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
+    <row r="37" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A37" s="34">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="36"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6">
+        <v>8</v>
+      </c>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6">
+        <f t="shared" si="5"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="M37" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N37" s="6"/>
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>

--- a/Resources/30434.xlsx
+++ b/Resources/30434.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Predare\2017-2018 - sem 2\SoftwareDesign2017\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{81143EE6-620E-4D30-8235-3766E2DFEF4A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7680" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attendance" sheetId="1" r:id="rId1"/>
@@ -230,7 +231,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -521,7 +522,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -857,7 +858,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
@@ -30510,11 +30511,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -30644,15 +30645,19 @@
       <c r="E3" s="1">
         <v>10</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="F3" s="1">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1">
+        <v>10</v>
+      </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="6">
         <f t="shared" si="1"/>
-        <v>3.3333333333333335</v>
+        <v>10.666666666666666</v>
       </c>
       <c r="M3" s="6">
         <f t="shared" si="2"/>
@@ -30683,15 +30688,19 @@
       <c r="E4" s="4">
         <v>10</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="F4" s="4">
+        <v>14</v>
+      </c>
+      <c r="G4" s="4">
+        <v>10</v>
+      </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4">
         <f t="shared" si="1"/>
-        <v>3.3333333333333335</v>
+        <v>11.333333333333334</v>
       </c>
       <c r="M4" s="4">
         <f t="shared" si="2"/>
@@ -30761,15 +30770,19 @@
       <c r="E6" s="4">
         <v>10</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="F6" s="4">
+        <v>14</v>
+      </c>
+      <c r="G6" s="4">
+        <v>10</v>
+      </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4">
         <f t="shared" si="1"/>
-        <v>3.3333333333333335</v>
+        <v>11.333333333333334</v>
       </c>
       <c r="M6" s="4">
         <f t="shared" si="2"/>
@@ -30798,9 +30811,11 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1">
-        <v>4</v>
-      </c>
-      <c r="F7" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="F7" s="1">
+        <v>12</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -30808,7 +30823,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="6">
         <f t="shared" si="1"/>
-        <v>1.3333333333333333</v>
+        <v>7</v>
       </c>
       <c r="M7" s="6">
         <f t="shared" si="2"/>
@@ -30839,15 +30854,19 @@
       <c r="E8" s="4">
         <v>10</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="F8" s="4">
+        <v>12</v>
+      </c>
+      <c r="G8" s="4">
+        <v>10</v>
+      </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4">
         <f t="shared" si="1"/>
-        <v>3.3333333333333335</v>
+        <v>10.666666666666666</v>
       </c>
       <c r="M8" s="4">
         <f t="shared" si="2"/>
@@ -30878,15 +30897,19 @@
       <c r="E9" s="1">
         <v>10</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="F9" s="1">
+        <v>12</v>
+      </c>
+      <c r="G9" s="1">
+        <v>10</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="6">
         <f t="shared" si="1"/>
-        <v>3.3333333333333335</v>
+        <v>10.666666666666666</v>
       </c>
       <c r="M9" s="6">
         <f t="shared" si="2"/>
@@ -30956,15 +30979,19 @@
       <c r="E11" s="1">
         <v>10</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="F11" s="1">
+        <v>12</v>
+      </c>
+      <c r="G11" s="1">
+        <v>10</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="6">
         <f t="shared" si="1"/>
-        <v>3.3333333333333335</v>
+        <v>10.666666666666666</v>
       </c>
       <c r="M11" s="6">
         <f t="shared" si="2"/>
@@ -30995,7 +31022,9 @@
       <c r="E12" s="17">
         <v>5</v>
       </c>
-      <c r="F12" s="4"/>
+      <c r="F12" s="4">
+        <v>9</v>
+      </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -31003,7 +31032,7 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4">
         <f t="shared" si="1"/>
-        <v>1.6666666666666667</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="M12" s="4">
         <f t="shared" si="2"/>
@@ -31034,15 +31063,19 @@
       <c r="E13" s="1">
         <v>10</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="F13" s="1">
+        <v>12</v>
+      </c>
+      <c r="G13" s="1">
+        <v>10</v>
+      </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="6">
         <f t="shared" si="1"/>
-        <v>3.3333333333333335</v>
+        <v>10.666666666666666</v>
       </c>
       <c r="M13" s="6">
         <f t="shared" si="2"/>
@@ -31188,17 +31221,21 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="F17" s="1">
+        <v>14</v>
+      </c>
+      <c r="G17" s="1">
+        <v>10</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="6">
         <f t="shared" si="1"/>
-        <v>2.1666666666666665</v>
+        <v>11</v>
       </c>
       <c r="M17" s="6">
         <f t="shared" si="2"/>
@@ -31229,15 +31266,19 @@
       <c r="E18" s="4">
         <v>9</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="F18" s="4">
+        <v>11</v>
+      </c>
+      <c r="G18" s="4">
+        <v>10</v>
+      </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M18" s="4">
         <f t="shared" si="2"/>
@@ -31270,15 +31311,19 @@
       <c r="E19" s="1">
         <v>10</v>
       </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="F19" s="1">
+        <v>14</v>
+      </c>
+      <c r="G19" s="1">
+        <v>10</v>
+      </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="6">
         <f t="shared" si="1"/>
-        <v>3.3333333333333335</v>
+        <v>11.333333333333334</v>
       </c>
       <c r="M19" s="6">
         <f t="shared" si="2"/>
@@ -31309,15 +31354,19 @@
       <c r="E20" s="4">
         <v>9</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+      <c r="F20" s="4">
+        <v>14</v>
+      </c>
+      <c r="G20" s="4">
+        <v>10</v>
+      </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="M20" s="4">
         <f t="shared" si="2"/>
@@ -31348,15 +31397,19 @@
       <c r="E21" s="1">
         <v>10</v>
       </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="F21" s="1">
+        <v>12</v>
+      </c>
+      <c r="G21" s="1">
+        <v>10</v>
+      </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="6">
         <f t="shared" si="1"/>
-        <v>3.3333333333333335</v>
+        <v>10.666666666666666</v>
       </c>
       <c r="M21" s="6">
         <f t="shared" si="2"/>
@@ -31385,17 +31438,19 @@
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
+      <c r="G22" s="4">
+        <v>10</v>
+      </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4">
         <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
+        <v>5</v>
       </c>
       <c r="M22" s="4">
         <f t="shared" si="2"/>
@@ -31426,15 +31481,19 @@
       <c r="E23" s="1">
         <v>9</v>
       </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="F23" s="1">
+        <v>14</v>
+      </c>
+      <c r="G23" s="1">
+        <v>10</v>
+      </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="6">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="M23" s="6">
         <f t="shared" si="2"/>
@@ -31467,15 +31526,19 @@
       <c r="E24" s="4">
         <v>9</v>
       </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
+      <c r="F24" s="4">
+        <v>12</v>
+      </c>
+      <c r="G24" s="4">
+        <v>10</v>
+      </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>10.333333333333334</v>
       </c>
       <c r="M24" s="4">
         <f t="shared" si="2"/>
@@ -31506,15 +31569,19 @@
       <c r="E25" s="1">
         <v>10</v>
       </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="F25" s="1">
+        <v>14</v>
+      </c>
+      <c r="G25" s="1">
+        <v>10</v>
+      </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="6">
         <f t="shared" si="1"/>
-        <v>3.3333333333333335</v>
+        <v>11.333333333333334</v>
       </c>
       <c r="M25" s="6">
         <f t="shared" si="2"/>
@@ -31545,15 +31612,19 @@
       <c r="E26" s="4">
         <v>10</v>
       </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
+      <c r="F26" s="4">
+        <v>14</v>
+      </c>
+      <c r="G26" s="4">
+        <v>10</v>
+      </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4">
         <f t="shared" si="1"/>
-        <v>3.3333333333333335</v>
+        <v>11.333333333333334</v>
       </c>
       <c r="M26" s="4">
         <f t="shared" si="2"/>
@@ -31701,7 +31772,9 @@
       <c r="E30" s="4">
         <v>1</v>
       </c>
-      <c r="F30" s="4"/>
+      <c r="F30" s="4">
+        <v>11</v>
+      </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
@@ -31709,7 +31782,7 @@
       <c r="K30" s="4"/>
       <c r="L30" s="4">
         <f t="shared" si="3"/>
-        <v>0.33333333333333331</v>
+        <v>4</v>
       </c>
       <c r="M30" s="4">
         <f t="shared" si="4"/>
@@ -31931,15 +32004,19 @@
       <c r="E36" s="4">
         <v>10</v>
       </c>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
+      <c r="F36" s="4">
+        <v>12</v>
+      </c>
+      <c r="G36" s="4">
+        <v>10</v>
+      </c>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4">
         <f t="shared" si="5"/>
-        <v>3.3333333333333335</v>
+        <v>10.666666666666666</v>
       </c>
       <c r="M36" s="4">
         <f t="shared" si="6"/>
@@ -31970,7 +32047,9 @@
       <c r="E37" s="6">
         <v>8</v>
       </c>
-      <c r="F37" s="6"/>
+      <c r="F37" s="6">
+        <v>5</v>
+      </c>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
@@ -31978,7 +32057,7 @@
       <c r="K37" s="6"/>
       <c r="L37" s="6">
         <f t="shared" si="5"/>
-        <v>2.6666666666666665</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="M37" s="6">
         <f t="shared" si="6"/>
@@ -57040,7 +57119,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R35"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Resources/30434.xlsx
+++ b/Resources/30434.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Predare\2017-2018 - sem 2\SoftwareDesign2017\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{81143EE6-620E-4D30-8235-3766E2DFEF4A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D051746D-A3EC-480A-8E53-CDD1BBAA6165}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="67">
   <si>
     <t>Nr.</t>
   </si>
@@ -223,9 +223,6 @@
   </si>
   <si>
     <t>Vlad Rusu</t>
-  </si>
-  <si>
-    <t>talk @ lab</t>
   </si>
 </sst>
 </file>
@@ -497,7 +494,37 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -523,8 +550,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="4"/>
+      <tableStyleElement type="headerRow" dxfId="3"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -861,9 +888,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1004,17 +1031,33 @@
       <c r="H3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="Q3" s="6">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="8"/>
@@ -1051,17 +1094,33 @@
       <c r="H4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
+      <c r="I4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="Q4" s="4">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="R4" s="4"/>
       <c r="S4" s="8"/>
@@ -1098,17 +1157,33 @@
       <c r="H5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="Q5" s="6">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="3"/>
@@ -1145,17 +1220,33 @@
       <c r="H6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
+      <c r="I6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="Q6" s="4">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="R6" s="4"/>
       <c r="S6" s="8"/>
@@ -1192,17 +1283,33 @@
       <c r="H7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="Q7" s="6">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="R7" s="1"/>
       <c r="S7" s="8"/>
@@ -1239,17 +1346,33 @@
       <c r="H8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
+      <c r="I8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="Q8" s="4">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="R8" s="4"/>
       <c r="S8" s="8"/>
@@ -1286,17 +1409,33 @@
       <c r="H9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="Q9" s="6">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="R9" s="1"/>
       <c r="S9" s="8"/>
@@ -1376,17 +1515,33 @@
       <c r="H11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
+      <c r="I11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="Q11" s="6">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="R11" s="1"/>
       <c r="S11" s="8"/>
@@ -1414,22 +1569,42 @@
         <v>18</v>
       </c>
       <c r="E12" s="10"/>
-      <c r="F12" s="4"/>
+      <c r="F12" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="G12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
+      <c r="H12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="Q12" s="4">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="R12" s="4"/>
       <c r="S12" s="8"/>
@@ -1466,17 +1641,33 @@
       <c r="H13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
+      <c r="I13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="Q13" s="6">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="R13" s="1"/>
       <c r="S13" s="8"/>
@@ -1648,17 +1839,33 @@
       <c r="H17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
+      <c r="I17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="Q17" s="6">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="R17" s="1"/>
       <c r="S17" s="8"/>
@@ -1695,17 +1902,33 @@
       <c r="H18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
+      <c r="I18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="Q18" s="4">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="R18" s="4"/>
       <c r="S18" s="8"/>
@@ -1742,17 +1965,33 @@
       <c r="H19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
+      <c r="I19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="Q19" s="6">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="R19" s="1"/>
       <c r="S19" s="8"/>
@@ -1789,17 +2028,33 @@
       <c r="H20" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
+      <c r="I20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="Q20" s="4">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="R20" s="4"/>
       <c r="S20" s="3"/>
@@ -1836,17 +2091,33 @@
       <c r="H21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
+      <c r="I21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="Q21" s="6">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="R21" s="1"/>
       <c r="S21" s="8"/>
@@ -1883,17 +2154,33 @@
       <c r="H22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
+      <c r="I22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="Q22" s="4">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="R22" s="4"/>
       <c r="S22" s="8"/>
@@ -1930,17 +2217,33 @@
       <c r="H23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
+      <c r="I23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="Q23" s="6">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="R23" s="1"/>
       <c r="S23" s="8"/>
@@ -1977,17 +2280,33 @@
       <c r="H24" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
+      <c r="I24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="Q24" s="4">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="R24" s="4"/>
       <c r="S24" s="8"/>
@@ -2024,17 +2343,33 @@
       <c r="H25" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
+      <c r="I25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="Q25" s="6">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="R25" s="1"/>
       <c r="S25" s="8"/>
@@ -2071,17 +2406,33 @@
       <c r="H26" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
+      <c r="I26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="Q26" s="4">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="R26" s="4"/>
       <c r="S26" s="8"/>
@@ -2229,7 +2580,9 @@
       <c r="B30" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="31"/>
+      <c r="C30" s="31" t="s">
+        <v>18</v>
+      </c>
       <c r="D30" s="9" t="s">
         <v>18</v>
       </c>
@@ -2243,17 +2596,33 @@
       <c r="H30" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I30" s="4"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
+      <c r="I30" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P30" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="Q30" s="4">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="R30" s="4"/>
       <c r="S30" s="3"/>
@@ -2335,17 +2704,33 @@
       <c r="H32" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I32" s="4"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
+      <c r="I32" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O32" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P32" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="Q32" s="4">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="R32" s="4"/>
       <c r="S32" s="8"/>
@@ -2509,17 +2894,33 @@
       <c r="H36" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I36" s="4"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
+      <c r="I36" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O36" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P36" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="Q36" s="4">
         <f t="shared" ref="Q36:Q37" si="4">COUNTIF(C36:P36, "p")</f>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="R36" s="4"/>
       <c r="S36" s="3"/>
@@ -2540,7 +2941,9 @@
       <c r="B37" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="32"/>
+      <c r="C37" s="32" t="s">
+        <v>18</v>
+      </c>
       <c r="D37" s="11" t="s">
         <v>18</v>
       </c>
@@ -2554,17 +2957,33 @@
       <c r="H37" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
+      <c r="I37" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M37" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N37" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O37" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="P37" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="Q37" s="6">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="R37" s="6"/>
       <c r="S37" s="3"/>
@@ -30514,14 +30933,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="2" width="33" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" customWidth="1"/>
     <col min="3" max="3" width="6.5703125" customWidth="1"/>
     <col min="4" max="4" width="6.28515625" customWidth="1"/>
     <col min="5" max="5" width="6.42578125" customWidth="1"/>
@@ -30620,7 +31039,10 @@
         <f t="shared" ref="M2:M28" si="2">(H2/10 +I2/10 + J2/10 + K2*7/10)</f>
         <v>0</v>
       </c>
-      <c r="N2" s="4"/>
+      <c r="N2" s="4" t="str">
+        <f>IF(AND(M2 &gt;= 5,E2&gt;=5, F2&gt;=5,G2&gt;=5), "Passed","Failed")</f>
+        <v>Failed</v>
+      </c>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
@@ -30646,7 +31068,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G3" s="1">
         <v>10</v>
@@ -30657,13 +31079,15 @@
       <c r="K3" s="1"/>
       <c r="L3" s="6">
         <f t="shared" si="1"/>
-        <v>10.666666666666666</v>
+        <v>10</v>
       </c>
       <c r="M3" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N3" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="N3" s="4" t="str">
+        <f t="shared" ref="N3:N37" si="3">IF(AND(M3 &gt;= 5,E3&gt;=5, F3&gt;=5,G3&gt;=5), "Passed","Failed")</f>
+        <v>Passed</v>
+      </c>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
@@ -30689,7 +31113,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="4">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G4" s="4">
         <v>10</v>
@@ -30700,13 +31124,15 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4">
         <f t="shared" si="1"/>
-        <v>11.333333333333334</v>
+        <v>10</v>
       </c>
       <c r="M4" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N4" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="N4" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Passed</v>
+      </c>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
@@ -30732,20 +31158,24 @@
         <v>1</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1">
+        <v>5</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="6">
         <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
+        <v>2</v>
       </c>
       <c r="M5" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N5" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="N5" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Failed</v>
+      </c>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
@@ -30771,7 +31201,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="4">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G6" s="4">
         <v>10</v>
@@ -30782,13 +31212,15 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4">
         <f t="shared" si="1"/>
-        <v>11.333333333333334</v>
+        <v>10</v>
       </c>
       <c r="M6" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N6" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="N6" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Passed</v>
+      </c>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
@@ -30814,22 +31246,26 @@
         <v>9</v>
       </c>
       <c r="F7" s="1">
-        <v>12</v>
-      </c>
-      <c r="G7" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="G7" s="1">
+        <v>9</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="6">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>9.3333333333333339</v>
       </c>
       <c r="M7" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N7" s="1"/>
+        <v>9.5</v>
+      </c>
+      <c r="N7" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Passed</v>
+      </c>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
@@ -30855,7 +31291,7 @@
         <v>10</v>
       </c>
       <c r="F8" s="4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G8" s="4">
         <v>10</v>
@@ -30866,13 +31302,16 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4">
         <f t="shared" si="1"/>
-        <v>10.666666666666666</v>
+        <v>10</v>
       </c>
       <c r="M8" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N8" s="4"/>
+      <c r="N8" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Failed</v>
+      </c>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
@@ -30898,7 +31337,7 @@
         <v>10</v>
       </c>
       <c r="F9" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G9" s="1">
         <v>10</v>
@@ -30909,13 +31348,15 @@
       <c r="K9" s="1"/>
       <c r="L9" s="6">
         <f t="shared" si="1"/>
-        <v>10.666666666666666</v>
+        <v>10</v>
       </c>
       <c r="M9" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N9" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="N9" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Passed</v>
+      </c>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
@@ -30954,7 +31395,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N10" s="4"/>
+      <c r="N10" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Failed</v>
+      </c>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
@@ -30980,7 +31424,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G11" s="1">
         <v>10</v>
@@ -30991,13 +31435,15 @@
       <c r="K11" s="1"/>
       <c r="L11" s="6">
         <f t="shared" si="1"/>
-        <v>10.666666666666666</v>
+        <v>10</v>
       </c>
       <c r="M11" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N11" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="N11" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Passed</v>
+      </c>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
@@ -31025,20 +31471,24 @@
       <c r="F12" s="4">
         <v>9</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="G12" s="4">
+        <v>5</v>
+      </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4">
         <f t="shared" si="1"/>
-        <v>4.666666666666667</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="M12" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N12" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="N12" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Passed</v>
+      </c>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
@@ -31064,7 +31514,7 @@
         <v>10</v>
       </c>
       <c r="F13" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G13" s="1">
         <v>10</v>
@@ -31075,13 +31525,15 @@
       <c r="K13" s="1"/>
       <c r="L13" s="6">
         <f t="shared" si="1"/>
-        <v>10.666666666666666</v>
+        <v>10</v>
       </c>
       <c r="M13" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N13" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="N13" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Passed</v>
+      </c>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
@@ -31120,7 +31572,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N14" s="4"/>
+      <c r="N14" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Failed</v>
+      </c>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
@@ -31159,7 +31614,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N15" s="1"/>
+      <c r="N15" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Failed</v>
+      </c>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
@@ -31198,7 +31656,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N16" s="4"/>
+      <c r="N16" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Failed</v>
+      </c>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
@@ -31221,10 +31682,10 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F17" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G17" s="1">
         <v>10</v>
@@ -31235,13 +31696,15 @@
       <c r="K17" s="1"/>
       <c r="L17" s="6">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M17" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N17" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="N17" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Passed</v>
+      </c>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
@@ -31264,10 +31727,10 @@
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G18" s="4">
         <v>10</v>
@@ -31281,13 +31744,13 @@
         <v>10</v>
       </c>
       <c r="M18" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N18" s="4"/>
-      <c r="O18" s="3" t="s">
-        <v>67</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="N18" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Passed</v>
+      </c>
+      <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
@@ -31326,10 +31789,12 @@
         <v>11.333333333333334</v>
       </c>
       <c r="M19" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N19" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="N19" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Passed</v>
+      </c>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
@@ -31352,10 +31817,10 @@
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F20" s="4">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G20" s="4">
         <v>10</v>
@@ -31366,13 +31831,15 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M20" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N20" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="N20" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Passed</v>
+      </c>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
@@ -31398,7 +31865,7 @@
         <v>10</v>
       </c>
       <c r="F21" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G21" s="1">
         <v>10</v>
@@ -31409,13 +31876,15 @@
       <c r="K21" s="1"/>
       <c r="L21" s="6">
         <f t="shared" si="1"/>
-        <v>10.666666666666666</v>
+        <v>10</v>
       </c>
       <c r="M21" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N21" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="N21" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Passed</v>
+      </c>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
@@ -31440,7 +31909,9 @@
       <c r="E22" s="4">
         <v>5</v>
       </c>
-      <c r="F22" s="4"/>
+      <c r="F22" s="4">
+        <v>10</v>
+      </c>
       <c r="G22" s="4">
         <v>10</v>
       </c>
@@ -31450,13 +31921,15 @@
       <c r="K22" s="4"/>
       <c r="L22" s="4">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="M22" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N22" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="N22" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Passed</v>
+      </c>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
@@ -31479,10 +31952,10 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F23" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G23" s="1">
         <v>10</v>
@@ -31493,16 +31966,16 @@
       <c r="K23" s="1"/>
       <c r="L23" s="6">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M23" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N23" s="1"/>
-      <c r="O23" s="3" t="s">
-        <v>67</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="N23" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Passed</v>
+      </c>
+      <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
@@ -31524,10 +31997,10 @@
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F24" s="4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G24" s="4">
         <v>10</v>
@@ -31538,13 +32011,15 @@
       <c r="K24" s="4"/>
       <c r="L24" s="4">
         <f t="shared" si="1"/>
-        <v>10.333333333333334</v>
+        <v>10</v>
       </c>
       <c r="M24" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N24" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="N24" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Passed</v>
+      </c>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
@@ -31570,7 +32045,7 @@
         <v>10</v>
       </c>
       <c r="F25" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G25" s="1">
         <v>10</v>
@@ -31581,13 +32056,15 @@
       <c r="K25" s="1"/>
       <c r="L25" s="6">
         <f t="shared" si="1"/>
-        <v>11.333333333333334</v>
+        <v>10</v>
       </c>
       <c r="M25" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N25" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="N25" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Passed</v>
+      </c>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
@@ -31613,7 +32090,7 @@
         <v>10</v>
       </c>
       <c r="F26" s="4">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G26" s="4">
         <v>10</v>
@@ -31624,13 +32101,15 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4">
         <f t="shared" si="1"/>
-        <v>11.333333333333334</v>
+        <v>10</v>
       </c>
       <c r="M26" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N26" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="N26" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Passed</v>
+      </c>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
@@ -31669,7 +32148,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N27" s="6"/>
+      <c r="N27" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Failed</v>
+      </c>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
@@ -31708,7 +32190,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N28" s="4"/>
+      <c r="N28" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Failed</v>
+      </c>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
@@ -31740,14 +32225,17 @@
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6">
-        <f t="shared" ref="L29:L30" si="3">(C29/10 +D29/10 + E29 + F29 + G29)/3</f>
+        <f t="shared" ref="L29:L30" si="4">(C29/10 +D29/10 + E29 + F29 + G29)/3</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="M29" s="6">
-        <f t="shared" ref="M29:M30" si="4">(H29/10 +I29/10 + J29/10 + K29*7/10)</f>
+        <f t="shared" ref="M29" si="5">(H29/10 +I29/10 + J29/10 + K29*7/10)</f>
         <v>0</v>
       </c>
-      <c r="N29" s="6"/>
+      <c r="N29" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Failed</v>
+      </c>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
@@ -31770,25 +32258,29 @@
       <c r="C30" s="37"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F30" s="4">
-        <v>11</v>
-      </c>
-      <c r="G30" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="G30" s="4">
+        <v>5</v>
+      </c>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="M30" s="4">
+        <v>5</v>
+      </c>
+      <c r="N30" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="M30" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N30" s="4"/>
+        <v>Passed</v>
+      </c>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
@@ -31818,14 +32310,17 @@
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
       <c r="L31" s="6">
-        <f t="shared" ref="L31:L37" si="5">(C31/10 +D31/10 + E31 + F31 + G31)/3</f>
+        <f t="shared" ref="L31:L37" si="6">(C31/10 +D31/10 + E31 + F31 + G31)/3</f>
         <v>0</v>
       </c>
       <c r="M31" s="6">
-        <f t="shared" ref="M31:M37" si="6">(H31/10 +I31/10 + J31/10 + K31*7/10)</f>
+        <f t="shared" ref="M31:M35" si="7">(H31/10 +I31/10 + J31/10 + K31*7/10)</f>
         <v>0</v>
       </c>
-      <c r="N31" s="6"/>
+      <c r="N31" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Failed</v>
+      </c>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
@@ -31847,22 +32342,30 @@
       </c>
       <c r="C32" s="37"/>
       <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
+      <c r="E32" s="4">
+        <v>5</v>
+      </c>
+      <c r="F32" s="4">
+        <v>5</v>
+      </c>
+      <c r="G32" s="4">
+        <v>5</v>
+      </c>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
       <c r="M32" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N32" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="N32" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Passed</v>
+      </c>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
@@ -31894,14 +32397,17 @@
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
       <c r="L33" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="M33" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N33" s="6"/>
+      <c r="N33" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Failed</v>
+      </c>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
@@ -31933,14 +32439,17 @@
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="M34" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N34" s="4"/>
+      <c r="N34" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Failed</v>
+      </c>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
@@ -31972,14 +32481,17 @@
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
       <c r="L35" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="M35" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N35" s="6"/>
+      <c r="N35" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Failed</v>
+      </c>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
@@ -32005,7 +32517,7 @@
         <v>10</v>
       </c>
       <c r="F36" s="4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G36" s="4">
         <v>10</v>
@@ -32015,14 +32527,16 @@
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4">
-        <f t="shared" si="5"/>
-        <v>10.666666666666666</v>
+        <f t="shared" si="6"/>
+        <v>10</v>
       </c>
       <c r="M36" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N36" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="N36" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Passed</v>
+      </c>
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
@@ -32050,20 +32564,24 @@
       <c r="F37" s="6">
         <v>5</v>
       </c>
-      <c r="G37" s="6"/>
+      <c r="G37" s="6">
+        <v>5</v>
+      </c>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
       <c r="L37" s="6">
-        <f t="shared" si="5"/>
-        <v>4.333333333333333</v>
+        <f t="shared" si="6"/>
+        <v>6</v>
       </c>
       <c r="M37" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N37" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="N37" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>Passed</v>
+      </c>
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
@@ -57114,6 +57632,14 @@
       <c r="X1000" s="3"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="N2:N37">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Resources/30434.xlsx
+++ b/Resources/30434.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Predare\2017-2018 - sem 2\SoftwareDesign2017\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D051746D-A3EC-480A-8E53-CDD1BBAA6165}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8E2FBA8D-2757-448C-B08E-53C97795126A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -494,17 +494,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -550,8 +540,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="4"/>
-      <tableStyleElement type="headerRow" dxfId="3"/>
+      <tableStyleElement type="wholeTable" dxfId="3"/>
+      <tableStyleElement type="headerRow" dxfId="2"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -30933,8 +30923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -31468,9 +31458,7 @@
       <c r="E12" s="17">
         <v>5</v>
       </c>
-      <c r="F12" s="4">
-        <v>9</v>
-      </c>
+      <c r="F12" s="4"/>
       <c r="G12" s="4">
         <v>5</v>
       </c>
@@ -31480,14 +31468,14 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4">
         <f t="shared" si="1"/>
-        <v>6.333333333333333</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="M12" s="4">
         <v>8</v>
       </c>
       <c r="N12" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>Passed</v>
+        <v>Failed</v>
       </c>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
@@ -57633,10 +57621,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="N2:N37">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Resources/30434.xlsx
+++ b/Resources/30434.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Predare\SoftwareDesignUTCN\Resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC07DF4-B799-4254-80B8-125B6B69AD9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Report1" sheetId="1" r:id="rId4"/>
+    <sheet name="Report1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Facultatea -</t>
   </si>
@@ -176,33 +185,41 @@
   </si>
   <si>
     <t>Vaida Gabriel Darius</t>
+  </si>
+  <si>
+    <t>no tests, unused things at least at first stage</t>
+  </si>
+  <si>
+    <t>super generic, nice! Dar incomplet</t>
+  </si>
+  <si>
+    <t>no tests at all</t>
+  </si>
+  <si>
+    <t>nothing really works</t>
+  </si>
+  <si>
+    <t>wtf PR</t>
+  </si>
+  <si>
+    <t>NOK from a software design perspective</t>
+  </si>
+  <si>
+    <t>late raport</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
@@ -507,121 +524,85 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="41">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="37">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -631,26 +612,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffd3d3d3"/>
-      <rgbColor rgb="ffffe4b5"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFD3D3D3"/>
+      <rgbColor rgb="FFFFE4B5"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -776,7 +816,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -785,7 +825,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -794,7 +834,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -868,7 +908,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -876,7 +916,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -894,7 +934,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -923,7 +963,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -948,7 +988,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -973,7 +1013,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -998,7 +1038,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1023,7 +1063,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1048,7 +1088,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1073,7 +1113,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1098,7 +1138,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1123,7 +1163,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1136,9 +1176,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1153,7 +1199,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="38000"/>
             </a:srgbClr>
@@ -1161,7 +1207,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1179,7 +1225,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1204,7 +1250,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1229,7 +1275,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1254,7 +1300,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1279,7 +1325,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1304,7 +1350,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1329,7 +1375,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1354,7 +1400,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1379,7 +1425,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1404,7 +1450,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1417,9 +1463,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1433,7 +1485,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1451,7 +1503,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1480,7 +1532,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1505,7 +1557,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1530,7 +1582,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1555,7 +1607,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1580,7 +1632,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1605,7 +1657,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1630,7 +1682,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1655,7 +1707,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1680,7 +1732,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1693,39 +1745,48 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB42"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="2.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="4" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="1" customWidth="1"/>
-    <col min="5" max="5" hidden="1" width="8.83333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="1.35156" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.6719" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.8516" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.3516" style="1" customWidth="1"/>
-    <col min="10" max="11" width="11.6719" style="1" customWidth="1"/>
-    <col min="12" max="28" width="8.85156" style="1" customWidth="1"/>
-    <col min="29" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="1.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" customWidth="1"/>
+    <col min="10" max="11" width="11.7109375" style="1" customWidth="1"/>
+    <col min="12" max="29" width="8.85546875" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="8" customHeight="1">
+    <row r="1" spans="1:28" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1755,1410 +1816,1494 @@
       <c r="AA1" s="3"/>
       <c r="AB1" s="5"/>
     </row>
-    <row r="2" ht="13.65" customHeight="1">
+    <row r="2" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" t="s" s="7">
+      <c r="B2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" t="s" s="9">
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="11"/>
-    </row>
-    <row r="3" ht="13.55" customHeight="1">
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="10"/>
+    </row>
+    <row r="3" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="11"/>
-    </row>
-    <row r="4" ht="8" customHeight="1">
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="10"/>
+    </row>
+    <row r="4" spans="1:28" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="8"/>
-      <c r="AB4" s="11"/>
-    </row>
-    <row r="5" ht="14.45" customHeight="1">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="10"/>
+    </row>
+    <row r="5" spans="1:28" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" t="s" s="7">
+      <c r="B5" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" t="s" s="9">
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="8"/>
-      <c r="AA5" s="8"/>
-      <c r="AB5" s="11"/>
-    </row>
-    <row r="6" ht="8" customHeight="1">
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="10"/>
+    </row>
+    <row r="6" spans="1:28" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="11"/>
-    </row>
-    <row r="7" ht="13.65" customHeight="1">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="10"/>
+    </row>
+    <row r="7" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" t="s" s="7">
+      <c r="B7" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="12">
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="11">
         <v>3</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="8"/>
-      <c r="AA7" s="8"/>
-      <c r="AB7" s="11"/>
-    </row>
-    <row r="8" ht="8" customHeight="1">
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="10"/>
+    </row>
+    <row r="8" spans="1:28" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="8"/>
-      <c r="AA8" s="8"/>
-      <c r="AB8" s="11"/>
-    </row>
-    <row r="9" ht="13.65" customHeight="1">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="10"/>
+    </row>
+    <row r="9" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" t="s" s="7">
+      <c r="B9" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" t="s" s="9">
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="8"/>
-      <c r="AA9" s="8"/>
-      <c r="AB9" s="11"/>
-    </row>
-    <row r="10" ht="10.5" customHeight="1">
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="10"/>
+    </row>
+    <row r="10" spans="1:28" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="8"/>
-      <c r="AA10" s="8"/>
-      <c r="AB10" s="11"/>
-    </row>
-    <row r="11" ht="10.7" customHeight="1">
+      <c r="B10" s="7"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="10"/>
+    </row>
+    <row r="11" spans="1:28" ht="10.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="8"/>
-      <c r="AA11" s="8"/>
-      <c r="AB11" s="11"/>
-    </row>
-    <row r="12" ht="13.65" customHeight="1">
+      <c r="B11" s="7"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="10"/>
+    </row>
+    <row r="12" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="17"/>
-      <c r="D12" t="s" s="18">
+      <c r="B12" s="7"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" t="s" s="18">
+      <c r="E12" s="18"/>
+      <c r="F12" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="20"/>
-      <c r="H12" s="21"/>
-      <c r="I12" t="s" s="22">
+      <c r="G12" s="37"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="J12" t="s" s="22">
+      <c r="J12" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="K12" s="23"/>
-      <c r="L12" t="s" s="24">
+      <c r="K12" s="31"/>
+      <c r="L12" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="M12" t="s" s="24">
+      <c r="M12" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="N12" t="s" s="24">
+      <c r="N12" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="O12" t="s" s="24">
+      <c r="O12" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="P12" t="s" s="24">
+      <c r="P12" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="Q12" t="s" s="24">
+      <c r="Q12" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="R12" t="s" s="24">
+      <c r="R12" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="S12" t="s" s="24">
+      <c r="S12" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="T12" t="s" s="24">
+      <c r="T12" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="U12" t="s" s="24">
+      <c r="U12" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="V12" t="s" s="24">
+      <c r="V12" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="W12" t="s" s="24">
+      <c r="W12" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="X12" t="s" s="24">
+      <c r="X12" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="Y12" t="s" s="24">
+      <c r="Y12" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="Z12" s="25"/>
-      <c r="AA12" s="8"/>
-      <c r="AB12" s="11"/>
-    </row>
-    <row r="13" ht="13.65" customHeight="1">
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="10"/>
+    </row>
+    <row r="13" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="27">
+      <c r="B13" s="7"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="23">
         <v>1</v>
       </c>
-      <c r="E13" s="28"/>
-      <c r="F13" t="s" s="29">
+      <c r="E13" s="24"/>
+      <c r="F13" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="28"/>
-      <c r="W13" s="28"/>
-      <c r="X13" s="28"/>
-      <c r="Y13" s="28"/>
-      <c r="Z13" s="25"/>
-      <c r="AA13" s="8"/>
-      <c r="AB13" s="11"/>
-    </row>
-    <row r="14" ht="13.65" customHeight="1">
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24">
+        <v>7</v>
+      </c>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
+      <c r="W13" s="24"/>
+      <c r="X13" s="24"/>
+      <c r="Y13" s="24"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="10"/>
+    </row>
+    <row r="14" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="27">
+      <c r="B14" s="7"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="23">
         <v>2</v>
       </c>
-      <c r="E14" s="28"/>
-      <c r="F14" t="s" s="29">
+      <c r="E14" s="24"/>
+      <c r="F14" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="28"/>
-      <c r="V14" s="28"/>
-      <c r="W14" s="28"/>
-      <c r="X14" s="28"/>
-      <c r="Y14" s="28"/>
-      <c r="Z14" s="25"/>
-      <c r="AA14" s="8"/>
-      <c r="AB14" s="11"/>
-    </row>
-    <row r="15" ht="13.65" customHeight="1">
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24">
+        <v>10</v>
+      </c>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="24"/>
+      <c r="U14" s="24"/>
+      <c r="V14" s="24"/>
+      <c r="W14" s="24"/>
+      <c r="X14" s="24"/>
+      <c r="Y14" s="24"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="10"/>
+    </row>
+    <row r="15" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="27">
+      <c r="B15" s="7"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="23">
         <v>3</v>
       </c>
-      <c r="E15" s="28"/>
-      <c r="F15" t="s" s="29">
+      <c r="E15" s="24"/>
+      <c r="F15" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="28"/>
-      <c r="U15" s="28"/>
-      <c r="V15" s="28"/>
-      <c r="W15" s="28"/>
-      <c r="X15" s="28"/>
-      <c r="Y15" s="28"/>
-      <c r="Z15" s="25"/>
-      <c r="AA15" s="8"/>
-      <c r="AB15" s="11"/>
-    </row>
-    <row r="16" ht="13.65" customHeight="1">
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24">
+        <v>7</v>
+      </c>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="24"/>
+      <c r="U15" s="24"/>
+      <c r="V15" s="24"/>
+      <c r="W15" s="24"/>
+      <c r="X15" s="24"/>
+      <c r="Y15" s="24"/>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="10"/>
+    </row>
+    <row r="16" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="27">
+      <c r="B16" s="7"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="23">
         <v>4</v>
       </c>
-      <c r="E16" s="28"/>
-      <c r="F16" t="s" s="29">
+      <c r="E16" s="24"/>
+      <c r="F16" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="28"/>
-      <c r="U16" s="28"/>
-      <c r="V16" s="28"/>
-      <c r="W16" s="28"/>
-      <c r="X16" s="28"/>
-      <c r="Y16" s="28"/>
-      <c r="Z16" s="25"/>
-      <c r="AA16" s="8"/>
-      <c r="AB16" s="11"/>
-    </row>
-    <row r="17" ht="13.65" customHeight="1">
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24">
+        <v>7</v>
+      </c>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="24"/>
+      <c r="V16" s="24"/>
+      <c r="W16" s="24"/>
+      <c r="X16" s="24"/>
+      <c r="Y16" s="24"/>
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="10"/>
+    </row>
+    <row r="17" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="27">
+      <c r="B17" s="7"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="23">
         <v>5</v>
       </c>
-      <c r="E17" s="28"/>
-      <c r="F17" t="s" s="29">
+      <c r="E17" s="24"/>
+      <c r="F17" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="28"/>
-      <c r="U17" s="28"/>
-      <c r="V17" s="28"/>
-      <c r="W17" s="28"/>
-      <c r="X17" s="28"/>
-      <c r="Y17" s="28"/>
-      <c r="Z17" s="25"/>
-      <c r="AA17" s="8"/>
-      <c r="AB17" s="11"/>
-    </row>
-    <row r="18" ht="13.65" customHeight="1">
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24">
+        <v>9.65</v>
+      </c>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="24"/>
+      <c r="W17" s="24"/>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="24"/>
+      <c r="Z17" s="21"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="10"/>
+    </row>
+    <row r="18" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="27">
+      <c r="B18" s="7"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="23">
         <v>6</v>
       </c>
-      <c r="E18" s="28"/>
-      <c r="F18" t="s" s="29">
+      <c r="E18" s="24"/>
+      <c r="F18" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="28"/>
-      <c r="U18" s="28"/>
-      <c r="V18" s="28"/>
-      <c r="W18" s="28"/>
-      <c r="X18" s="28"/>
-      <c r="Y18" s="28"/>
-      <c r="Z18" s="25"/>
-      <c r="AA18" s="8"/>
-      <c r="AB18" s="11"/>
-    </row>
-    <row r="19" ht="13.65" customHeight="1">
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="24"/>
+      <c r="U18" s="24"/>
+      <c r="V18" s="24"/>
+      <c r="W18" s="24"/>
+      <c r="X18" s="24"/>
+      <c r="Y18" s="24"/>
+      <c r="Z18" s="21"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="10"/>
+    </row>
+    <row r="19" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="27">
+      <c r="B19" s="7"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="23">
         <v>7</v>
       </c>
-      <c r="E19" s="28"/>
-      <c r="F19" t="s" s="29">
+      <c r="E19" s="24"/>
+      <c r="F19" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="28"/>
-      <c r="U19" s="28"/>
-      <c r="V19" s="28"/>
-      <c r="W19" s="28"/>
-      <c r="X19" s="28"/>
-      <c r="Y19" s="28"/>
-      <c r="Z19" s="25"/>
-      <c r="AA19" s="8"/>
-      <c r="AB19" s="11"/>
-    </row>
-    <row r="20" ht="13.65" customHeight="1">
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24">
+        <v>7.75</v>
+      </c>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="24"/>
+      <c r="U19" s="24"/>
+      <c r="V19" s="24"/>
+      <c r="W19" s="24"/>
+      <c r="X19" s="24"/>
+      <c r="Y19" s="24"/>
+      <c r="Z19" s="21"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="10"/>
+    </row>
+    <row r="20" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="27">
+      <c r="B20" s="7"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="23">
         <v>8</v>
       </c>
-      <c r="E20" s="28"/>
-      <c r="F20" t="s" s="29">
+      <c r="E20" s="24"/>
+      <c r="F20" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="28"/>
-      <c r="U20" s="28"/>
-      <c r="V20" s="28"/>
-      <c r="W20" s="28"/>
-      <c r="X20" s="28"/>
-      <c r="Y20" s="28"/>
-      <c r="Z20" s="25"/>
-      <c r="AA20" s="8"/>
-      <c r="AB20" s="11"/>
-    </row>
-    <row r="21" ht="13.65" customHeight="1">
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24">
+        <v>7</v>
+      </c>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="24"/>
+      <c r="U20" s="24"/>
+      <c r="V20" s="24"/>
+      <c r="W20" s="24"/>
+      <c r="X20" s="24"/>
+      <c r="Y20" s="24"/>
+      <c r="Z20" s="21"/>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="10"/>
+    </row>
+    <row r="21" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="27">
+      <c r="B21" s="7"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="23">
         <v>9</v>
       </c>
-      <c r="E21" s="28"/>
-      <c r="F21" t="s" s="29">
+      <c r="E21" s="24"/>
+      <c r="F21" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="28"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="28"/>
-      <c r="U21" s="28"/>
-      <c r="V21" s="28"/>
-      <c r="W21" s="28"/>
-      <c r="X21" s="28"/>
-      <c r="Y21" s="28"/>
-      <c r="Z21" s="25"/>
-      <c r="AA21" s="8"/>
-      <c r="AB21" s="11"/>
-    </row>
-    <row r="22" ht="13.65" customHeight="1">
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24">
+        <v>10</v>
+      </c>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="24"/>
+      <c r="U21" s="24"/>
+      <c r="V21" s="24"/>
+      <c r="W21" s="24"/>
+      <c r="X21" s="24"/>
+      <c r="Y21" s="24"/>
+      <c r="Z21" s="21"/>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="10"/>
+    </row>
+    <row r="22" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="27">
+      <c r="B22" s="7"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="23">
         <v>10</v>
       </c>
-      <c r="E22" s="28"/>
-      <c r="F22" t="s" s="29">
+      <c r="E22" s="24"/>
+      <c r="F22" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="28"/>
-      <c r="S22" s="28"/>
-      <c r="T22" s="28"/>
-      <c r="U22" s="28"/>
-      <c r="V22" s="28"/>
-      <c r="W22" s="28"/>
-      <c r="X22" s="28"/>
-      <c r="Y22" s="28"/>
-      <c r="Z22" s="25"/>
-      <c r="AA22" s="8"/>
-      <c r="AB22" s="11"/>
-    </row>
-    <row r="23" ht="13.65" customHeight="1">
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="24"/>
+      <c r="T22" s="24"/>
+      <c r="U22" s="24"/>
+      <c r="V22" s="24"/>
+      <c r="W22" s="24"/>
+      <c r="X22" s="24"/>
+      <c r="Y22" s="24"/>
+      <c r="Z22" s="21"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="10"/>
+    </row>
+    <row r="23" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="27">
+      <c r="B23" s="7"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="23">
         <v>11</v>
       </c>
-      <c r="E23" s="28"/>
-      <c r="F23" t="s" s="29">
+      <c r="E23" s="24"/>
+      <c r="F23" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="28"/>
-      <c r="S23" s="28"/>
-      <c r="T23" s="28"/>
-      <c r="U23" s="28"/>
-      <c r="V23" s="28"/>
-      <c r="W23" s="28"/>
-      <c r="X23" s="28"/>
-      <c r="Y23" s="28"/>
-      <c r="Z23" s="25"/>
-      <c r="AA23" s="8"/>
-      <c r="AB23" s="11"/>
-    </row>
-    <row r="24" ht="13.65" customHeight="1">
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="24"/>
+      <c r="T23" s="24"/>
+      <c r="U23" s="24"/>
+      <c r="V23" s="24"/>
+      <c r="W23" s="24"/>
+      <c r="X23" s="24"/>
+      <c r="Y23" s="24"/>
+      <c r="Z23" s="21"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="10"/>
+    </row>
+    <row r="24" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="27">
+      <c r="B24" s="7"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="23">
         <v>12</v>
       </c>
-      <c r="E24" s="28"/>
-      <c r="F24" t="s" s="29">
+      <c r="E24" s="24"/>
+      <c r="F24" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="28"/>
-      <c r="S24" s="28"/>
-      <c r="T24" s="28"/>
-      <c r="U24" s="28"/>
-      <c r="V24" s="28"/>
-      <c r="W24" s="28"/>
-      <c r="X24" s="28"/>
-      <c r="Y24" s="28"/>
-      <c r="Z24" s="25"/>
-      <c r="AA24" s="8"/>
-      <c r="AB24" s="11"/>
-    </row>
-    <row r="25" ht="13.65" customHeight="1">
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24">
+        <v>5</v>
+      </c>
+      <c r="P24" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="24"/>
+      <c r="U24" s="24"/>
+      <c r="V24" s="24"/>
+      <c r="W24" s="24"/>
+      <c r="X24" s="24"/>
+      <c r="Y24" s="24"/>
+      <c r="Z24" s="21"/>
+      <c r="AA24" s="7"/>
+      <c r="AB24" s="10"/>
+    </row>
+    <row r="25" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="27">
+      <c r="B25" s="7"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="23">
         <v>13</v>
       </c>
-      <c r="E25" s="28"/>
-      <c r="F25" t="s" s="29">
+      <c r="E25" s="24"/>
+      <c r="F25" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="28"/>
-      <c r="R25" s="28"/>
-      <c r="S25" s="28"/>
-      <c r="T25" s="28"/>
-      <c r="U25" s="28"/>
-      <c r="V25" s="28"/>
-      <c r="W25" s="28"/>
-      <c r="X25" s="28"/>
-      <c r="Y25" s="28"/>
-      <c r="Z25" s="25"/>
-      <c r="AA25" s="8"/>
-      <c r="AB25" s="11"/>
-    </row>
-    <row r="26" ht="13.65" customHeight="1">
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24">
+        <v>10</v>
+      </c>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="24"/>
+      <c r="U25" s="24"/>
+      <c r="V25" s="24"/>
+      <c r="W25" s="24"/>
+      <c r="X25" s="24"/>
+      <c r="Y25" s="24"/>
+      <c r="Z25" s="21"/>
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="10"/>
+    </row>
+    <row r="26" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="27">
+      <c r="B26" s="7"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="23">
         <v>14</v>
       </c>
-      <c r="E26" s="28"/>
-      <c r="F26" t="s" s="29">
+      <c r="E26" s="24"/>
+      <c r="F26" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="28"/>
-      <c r="R26" s="28"/>
-      <c r="S26" s="28"/>
-      <c r="T26" s="28"/>
-      <c r="U26" s="28"/>
-      <c r="V26" s="28"/>
-      <c r="W26" s="28"/>
-      <c r="X26" s="28"/>
-      <c r="Y26" s="28"/>
-      <c r="Z26" s="25"/>
-      <c r="AA26" s="8"/>
-      <c r="AB26" s="11"/>
-    </row>
-    <row r="27" ht="13.65" customHeight="1">
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24">
+        <v>10</v>
+      </c>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="24"/>
+      <c r="T26" s="24"/>
+      <c r="U26" s="24"/>
+      <c r="V26" s="24"/>
+      <c r="W26" s="24"/>
+      <c r="X26" s="24"/>
+      <c r="Y26" s="24"/>
+      <c r="Z26" s="21"/>
+      <c r="AA26" s="7"/>
+      <c r="AB26" s="10"/>
+    </row>
+    <row r="27" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="27">
+      <c r="B27" s="7"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="23">
         <v>15</v>
       </c>
-      <c r="E27" s="28"/>
-      <c r="F27" t="s" s="29">
+      <c r="E27" s="24"/>
+      <c r="F27" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="28"/>
-      <c r="R27" s="28"/>
-      <c r="S27" s="28"/>
-      <c r="T27" s="28"/>
-      <c r="U27" s="28"/>
-      <c r="V27" s="28"/>
-      <c r="W27" s="28"/>
-      <c r="X27" s="28"/>
-      <c r="Y27" s="28"/>
-      <c r="Z27" s="25"/>
-      <c r="AA27" s="8"/>
-      <c r="AB27" s="11"/>
-    </row>
-    <row r="28" ht="13.65" customHeight="1">
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="30">
+        <v>7</v>
+      </c>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="24"/>
+      <c r="S27" s="24"/>
+      <c r="T27" s="24"/>
+      <c r="U27" s="24"/>
+      <c r="V27" s="24"/>
+      <c r="W27" s="24"/>
+      <c r="X27" s="24"/>
+      <c r="Y27" s="24"/>
+      <c r="Z27" s="21"/>
+      <c r="AA27" s="7"/>
+      <c r="AB27" s="10"/>
+    </row>
+    <row r="28" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="27">
+      <c r="B28" s="7"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="23">
         <v>16</v>
       </c>
-      <c r="E28" s="28"/>
-      <c r="F28" t="s" s="29">
+      <c r="E28" s="24"/>
+      <c r="F28" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="28"/>
-      <c r="R28" s="28"/>
-      <c r="S28" s="28"/>
-      <c r="T28" s="28"/>
-      <c r="U28" s="28"/>
-      <c r="V28" s="28"/>
-      <c r="W28" s="28"/>
-      <c r="X28" s="28"/>
-      <c r="Y28" s="28"/>
-      <c r="Z28" s="25"/>
-      <c r="AA28" s="8"/>
-      <c r="AB28" s="11"/>
-    </row>
-    <row r="29" ht="13.65" customHeight="1">
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24">
+        <v>7</v>
+      </c>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="24"/>
+      <c r="S28" s="24"/>
+      <c r="T28" s="24"/>
+      <c r="U28" s="24"/>
+      <c r="V28" s="24"/>
+      <c r="W28" s="24"/>
+      <c r="X28" s="24"/>
+      <c r="Y28" s="24"/>
+      <c r="Z28" s="21"/>
+      <c r="AA28" s="7"/>
+      <c r="AB28" s="10"/>
+    </row>
+    <row r="29" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="27">
+      <c r="B29" s="7"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="23">
         <v>17</v>
       </c>
-      <c r="E29" s="28"/>
-      <c r="F29" t="s" s="29">
+      <c r="E29" s="24"/>
+      <c r="F29" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="28"/>
-      <c r="R29" s="28"/>
-      <c r="S29" s="28"/>
-      <c r="T29" s="28"/>
-      <c r="U29" s="28"/>
-      <c r="V29" s="28"/>
-      <c r="W29" s="28"/>
-      <c r="X29" s="28"/>
-      <c r="Y29" s="28"/>
-      <c r="Z29" s="25"/>
-      <c r="AA29" s="8"/>
-      <c r="AB29" s="11"/>
-    </row>
-    <row r="30" ht="13.65" customHeight="1">
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24">
+        <v>5</v>
+      </c>
+      <c r="P29" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="24"/>
+      <c r="S29" s="24"/>
+      <c r="T29" s="24"/>
+      <c r="U29" s="24"/>
+      <c r="V29" s="24"/>
+      <c r="W29" s="24"/>
+      <c r="X29" s="24"/>
+      <c r="Y29" s="24"/>
+      <c r="Z29" s="21"/>
+      <c r="AA29" s="7"/>
+      <c r="AB29" s="10"/>
+    </row>
+    <row r="30" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="27">
+      <c r="B30" s="7"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="23">
         <v>18</v>
       </c>
-      <c r="E30" s="28"/>
-      <c r="F30" t="s" s="29">
+      <c r="E30" s="24"/>
+      <c r="F30" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="28"/>
-      <c r="R30" s="28"/>
-      <c r="S30" s="28"/>
-      <c r="T30" s="28"/>
-      <c r="U30" s="28"/>
-      <c r="V30" s="28"/>
-      <c r="W30" s="28"/>
-      <c r="X30" s="28"/>
-      <c r="Y30" s="28"/>
-      <c r="Z30" s="25"/>
-      <c r="AA30" s="8"/>
-      <c r="AB30" s="11"/>
-    </row>
-    <row r="31" ht="13.65" customHeight="1">
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="24">
+        <v>7</v>
+      </c>
+      <c r="P30" s="24"/>
+      <c r="Q30" s="24"/>
+      <c r="R30" s="24"/>
+      <c r="S30" s="24"/>
+      <c r="T30" s="24"/>
+      <c r="U30" s="24"/>
+      <c r="V30" s="24"/>
+      <c r="W30" s="24"/>
+      <c r="X30" s="24"/>
+      <c r="Y30" s="24"/>
+      <c r="Z30" s="21"/>
+      <c r="AA30" s="7"/>
+      <c r="AB30" s="10"/>
+    </row>
+    <row r="31" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="27">
+      <c r="B31" s="7"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="23">
         <v>19</v>
       </c>
-      <c r="E31" s="28"/>
-      <c r="F31" t="s" s="29">
+      <c r="E31" s="24"/>
+      <c r="F31" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="28"/>
-      <c r="P31" s="28"/>
-      <c r="Q31" s="28"/>
-      <c r="R31" s="28"/>
-      <c r="S31" s="28"/>
-      <c r="T31" s="28"/>
-      <c r="U31" s="28"/>
-      <c r="V31" s="28"/>
-      <c r="W31" s="28"/>
-      <c r="X31" s="28"/>
-      <c r="Y31" s="28"/>
-      <c r="Z31" s="25"/>
-      <c r="AA31" s="8"/>
-      <c r="AB31" s="11"/>
-    </row>
-    <row r="32" ht="13.65" customHeight="1">
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="24"/>
+      <c r="P31" s="24"/>
+      <c r="Q31" s="24"/>
+      <c r="R31" s="24"/>
+      <c r="S31" s="24"/>
+      <c r="T31" s="24"/>
+      <c r="U31" s="24"/>
+      <c r="V31" s="24"/>
+      <c r="W31" s="24"/>
+      <c r="X31" s="24"/>
+      <c r="Y31" s="24"/>
+      <c r="Z31" s="21"/>
+      <c r="AA31" s="7"/>
+      <c r="AB31" s="10"/>
+    </row>
+    <row r="32" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="27">
+      <c r="B32" s="7"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="23">
         <v>20</v>
       </c>
-      <c r="E32" s="28"/>
-      <c r="F32" t="s" s="29">
+      <c r="E32" s="24"/>
+      <c r="F32" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="28"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="28"/>
-      <c r="P32" s="28"/>
-      <c r="Q32" s="28"/>
-      <c r="R32" s="28"/>
-      <c r="S32" s="28"/>
-      <c r="T32" s="28"/>
-      <c r="U32" s="28"/>
-      <c r="V32" s="28"/>
-      <c r="W32" s="28"/>
-      <c r="X32" s="28"/>
-      <c r="Y32" s="28"/>
-      <c r="Z32" s="25"/>
-      <c r="AA32" s="8"/>
-      <c r="AB32" s="11"/>
-    </row>
-    <row r="33" ht="13.65" customHeight="1">
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="24"/>
+      <c r="O32" s="24">
+        <v>9.75</v>
+      </c>
+      <c r="P32" s="24"/>
+      <c r="Q32" s="24"/>
+      <c r="R32" s="24"/>
+      <c r="S32" s="24"/>
+      <c r="T32" s="24"/>
+      <c r="U32" s="24"/>
+      <c r="V32" s="24"/>
+      <c r="W32" s="24"/>
+      <c r="X32" s="24"/>
+      <c r="Y32" s="24"/>
+      <c r="Z32" s="21"/>
+      <c r="AA32" s="7"/>
+      <c r="AB32" s="10"/>
+    </row>
+    <row r="33" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="27">
+      <c r="B33" s="7"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="23">
         <v>21</v>
       </c>
-      <c r="E33" s="28"/>
-      <c r="F33" t="s" s="29">
+      <c r="E33" s="24"/>
+      <c r="F33" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="28"/>
-      <c r="P33" s="28"/>
-      <c r="Q33" s="28"/>
-      <c r="R33" s="28"/>
-      <c r="S33" s="28"/>
-      <c r="T33" s="28"/>
-      <c r="U33" s="28"/>
-      <c r="V33" s="28"/>
-      <c r="W33" s="28"/>
-      <c r="X33" s="28"/>
-      <c r="Y33" s="28"/>
-      <c r="Z33" s="25"/>
-      <c r="AA33" s="8"/>
-      <c r="AB33" s="11"/>
-    </row>
-    <row r="34" ht="13.65" customHeight="1">
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="24">
+        <v>4</v>
+      </c>
+      <c r="P33" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q33" s="24"/>
+      <c r="R33" s="24"/>
+      <c r="S33" s="24"/>
+      <c r="T33" s="24"/>
+      <c r="U33" s="24"/>
+      <c r="V33" s="24"/>
+      <c r="W33" s="24"/>
+      <c r="X33" s="24"/>
+      <c r="Y33" s="24"/>
+      <c r="Z33" s="21"/>
+      <c r="AA33" s="7"/>
+      <c r="AB33" s="10"/>
+    </row>
+    <row r="34" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="27">
+      <c r="B34" s="7"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="23">
         <v>22</v>
       </c>
-      <c r="E34" s="28"/>
-      <c r="F34" t="s" s="29">
+      <c r="E34" s="24"/>
+      <c r="F34" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="28"/>
-      <c r="O34" s="28"/>
-      <c r="P34" s="28"/>
-      <c r="Q34" s="28"/>
-      <c r="R34" s="28"/>
-      <c r="S34" s="28"/>
-      <c r="T34" s="28"/>
-      <c r="U34" s="28"/>
-      <c r="V34" s="28"/>
-      <c r="W34" s="28"/>
-      <c r="X34" s="28"/>
-      <c r="Y34" s="28"/>
-      <c r="Z34" s="25"/>
-      <c r="AA34" s="8"/>
-      <c r="AB34" s="11"/>
-    </row>
-    <row r="35" ht="13.65" customHeight="1">
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="P34" s="24"/>
+      <c r="Q34" s="24"/>
+      <c r="R34" s="24"/>
+      <c r="S34" s="24"/>
+      <c r="T34" s="24"/>
+      <c r="U34" s="24"/>
+      <c r="V34" s="24"/>
+      <c r="W34" s="24"/>
+      <c r="X34" s="24"/>
+      <c r="Y34" s="24"/>
+      <c r="Z34" s="21"/>
+      <c r="AA34" s="7"/>
+      <c r="AB34" s="10"/>
+    </row>
+    <row r="35" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="27">
+      <c r="B35" s="7"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="23">
         <v>23</v>
       </c>
-      <c r="E35" s="28"/>
-      <c r="F35" t="s" s="29">
+      <c r="E35" s="24"/>
+      <c r="F35" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="28"/>
-      <c r="M35" s="28"/>
-      <c r="N35" s="28"/>
-      <c r="O35" s="28"/>
-      <c r="P35" s="28"/>
-      <c r="Q35" s="28"/>
-      <c r="R35" s="28"/>
-      <c r="S35" s="28"/>
-      <c r="T35" s="28"/>
-      <c r="U35" s="28"/>
-      <c r="V35" s="28"/>
-      <c r="W35" s="28"/>
-      <c r="X35" s="28"/>
-      <c r="Y35" s="28"/>
-      <c r="Z35" s="25"/>
-      <c r="AA35" s="8"/>
-      <c r="AB35" s="11"/>
-    </row>
-    <row r="36" ht="13.65" customHeight="1">
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="24">
+        <v>9.85</v>
+      </c>
+      <c r="P35" s="24"/>
+      <c r="Q35" s="24"/>
+      <c r="R35" s="24"/>
+      <c r="S35" s="24"/>
+      <c r="T35" s="24"/>
+      <c r="U35" s="24"/>
+      <c r="V35" s="24"/>
+      <c r="W35" s="24"/>
+      <c r="X35" s="24"/>
+      <c r="Y35" s="24"/>
+      <c r="Z35" s="21"/>
+      <c r="AA35" s="7"/>
+      <c r="AB35" s="10"/>
+    </row>
+    <row r="36" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="27">
+      <c r="B36" s="7"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="23">
         <v>24</v>
       </c>
-      <c r="E36" s="28"/>
-      <c r="F36" t="s" s="29">
+      <c r="E36" s="24"/>
+      <c r="F36" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="28"/>
-      <c r="M36" s="28"/>
-      <c r="N36" s="28"/>
-      <c r="O36" s="28"/>
-      <c r="P36" s="28"/>
-      <c r="Q36" s="28"/>
-      <c r="R36" s="28"/>
-      <c r="S36" s="28"/>
-      <c r="T36" s="28"/>
-      <c r="U36" s="28"/>
-      <c r="V36" s="28"/>
-      <c r="W36" s="28"/>
-      <c r="X36" s="28"/>
-      <c r="Y36" s="28"/>
-      <c r="Z36" s="25"/>
-      <c r="AA36" s="8"/>
-      <c r="AB36" s="11"/>
-    </row>
-    <row r="37" ht="13.65" customHeight="1">
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="24"/>
+      <c r="O36" s="30">
+        <v>5</v>
+      </c>
+      <c r="P36" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q36" s="24"/>
+      <c r="R36" s="24"/>
+      <c r="S36" s="24"/>
+      <c r="T36" s="24"/>
+      <c r="U36" s="24"/>
+      <c r="V36" s="24"/>
+      <c r="W36" s="24"/>
+      <c r="X36" s="24"/>
+      <c r="Y36" s="24"/>
+      <c r="Z36" s="21"/>
+      <c r="AA36" s="7"/>
+      <c r="AB36" s="10"/>
+    </row>
+    <row r="37" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="27">
+      <c r="B37" s="7"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="23">
         <v>25</v>
       </c>
-      <c r="E37" s="28"/>
-      <c r="F37" t="s" s="29">
+      <c r="E37" s="24"/>
+      <c r="F37" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="28"/>
-      <c r="M37" s="28"/>
-      <c r="N37" s="28"/>
-      <c r="O37" s="28"/>
-      <c r="P37" s="28"/>
-      <c r="Q37" s="28"/>
-      <c r="R37" s="28"/>
-      <c r="S37" s="28"/>
-      <c r="T37" s="28"/>
-      <c r="U37" s="28"/>
-      <c r="V37" s="28"/>
-      <c r="W37" s="28"/>
-      <c r="X37" s="28"/>
-      <c r="Y37" s="28"/>
-      <c r="Z37" s="25"/>
-      <c r="AA37" s="8"/>
-      <c r="AB37" s="11"/>
-    </row>
-    <row r="38" ht="13.65" customHeight="1">
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="24"/>
+      <c r="O37" s="24">
+        <v>6</v>
+      </c>
+      <c r="P37" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q37" s="24"/>
+      <c r="R37" s="24"/>
+      <c r="S37" s="24"/>
+      <c r="T37" s="24"/>
+      <c r="U37" s="24"/>
+      <c r="V37" s="24"/>
+      <c r="W37" s="24"/>
+      <c r="X37" s="24"/>
+      <c r="Y37" s="24"/>
+      <c r="Z37" s="21"/>
+      <c r="AA37" s="7"/>
+      <c r="AB37" s="10"/>
+    </row>
+    <row r="38" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="27">
+      <c r="B38" s="7"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="23">
         <v>26</v>
       </c>
-      <c r="E38" s="28"/>
-      <c r="F38" t="s" s="29">
+      <c r="E38" s="24"/>
+      <c r="F38" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="28"/>
-      <c r="M38" s="28"/>
-      <c r="N38" s="28"/>
-      <c r="O38" s="28"/>
-      <c r="P38" s="28"/>
-      <c r="Q38" s="28"/>
-      <c r="R38" s="28"/>
-      <c r="S38" s="28"/>
-      <c r="T38" s="28"/>
-      <c r="U38" s="28"/>
-      <c r="V38" s="28"/>
-      <c r="W38" s="28"/>
-      <c r="X38" s="28"/>
-      <c r="Y38" s="28"/>
-      <c r="Z38" s="25"/>
-      <c r="AA38" s="8"/>
-      <c r="AB38" s="11"/>
-    </row>
-    <row r="39" ht="13.65" customHeight="1">
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="24"/>
+      <c r="O38" s="24">
+        <v>9</v>
+      </c>
+      <c r="P38" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q38" s="24"/>
+      <c r="R38" s="24"/>
+      <c r="S38" s="24"/>
+      <c r="T38" s="24"/>
+      <c r="U38" s="24"/>
+      <c r="V38" s="24"/>
+      <c r="W38" s="24"/>
+      <c r="X38" s="24"/>
+      <c r="Y38" s="24"/>
+      <c r="Z38" s="21"/>
+      <c r="AA38" s="7"/>
+      <c r="AB38" s="10"/>
+    </row>
+    <row r="39" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="27">
+      <c r="B39" s="7"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="23">
         <v>27</v>
       </c>
-      <c r="E39" s="28"/>
-      <c r="F39" t="s" s="29">
+      <c r="E39" s="24"/>
+      <c r="F39" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="28"/>
-      <c r="M39" s="28"/>
-      <c r="N39" s="28"/>
-      <c r="O39" s="28"/>
-      <c r="P39" s="28"/>
-      <c r="Q39" s="28"/>
-      <c r="R39" s="28"/>
-      <c r="S39" s="28"/>
-      <c r="T39" s="28"/>
-      <c r="U39" s="28"/>
-      <c r="V39" s="28"/>
-      <c r="W39" s="28"/>
-      <c r="X39" s="28"/>
-      <c r="Y39" s="28"/>
-      <c r="Z39" s="25"/>
-      <c r="AA39" s="8"/>
-      <c r="AB39" s="11"/>
-    </row>
-    <row r="40" ht="13.65" customHeight="1">
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="24"/>
+      <c r="O39" s="24">
+        <v>6</v>
+      </c>
+      <c r="P39" s="24"/>
+      <c r="Q39" s="24"/>
+      <c r="R39" s="24"/>
+      <c r="S39" s="24"/>
+      <c r="T39" s="24"/>
+      <c r="U39" s="24"/>
+      <c r="V39" s="24"/>
+      <c r="W39" s="24"/>
+      <c r="X39" s="24"/>
+      <c r="Y39" s="24"/>
+      <c r="Z39" s="21"/>
+      <c r="AA39" s="7"/>
+      <c r="AB39" s="10"/>
+    </row>
+    <row r="40" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="27">
+      <c r="B40" s="7"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="23">
         <v>28</v>
       </c>
-      <c r="E40" s="28"/>
-      <c r="F40" t="s" s="29">
+      <c r="E40" s="24"/>
+      <c r="F40" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="28"/>
-      <c r="M40" s="28"/>
-      <c r="N40" s="28"/>
-      <c r="O40" s="28"/>
-      <c r="P40" s="28"/>
-      <c r="Q40" s="28"/>
-      <c r="R40" s="28"/>
-      <c r="S40" s="28"/>
-      <c r="T40" s="28"/>
-      <c r="U40" s="28"/>
-      <c r="V40" s="28"/>
-      <c r="W40" s="28"/>
-      <c r="X40" s="28"/>
-      <c r="Y40" s="28"/>
-      <c r="Z40" s="25"/>
-      <c r="AA40" s="8"/>
-      <c r="AB40" s="11"/>
-    </row>
-    <row r="41" ht="13.65" customHeight="1">
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="24"/>
+      <c r="O40" s="24">
+        <v>7</v>
+      </c>
+      <c r="P40" s="24"/>
+      <c r="Q40" s="24"/>
+      <c r="R40" s="24"/>
+      <c r="S40" s="24"/>
+      <c r="T40" s="24"/>
+      <c r="U40" s="24"/>
+      <c r="V40" s="24"/>
+      <c r="W40" s="24"/>
+      <c r="X40" s="24"/>
+      <c r="Y40" s="24"/>
+      <c r="Z40" s="21"/>
+      <c r="AA40" s="7"/>
+      <c r="AB40" s="10"/>
+    </row>
+    <row r="41" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="27">
+      <c r="B41" s="7"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="23">
         <v>29</v>
       </c>
-      <c r="E41" s="28"/>
-      <c r="F41" t="s" s="29">
+      <c r="E41" s="24"/>
+      <c r="F41" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="28"/>
-      <c r="M41" s="28"/>
-      <c r="N41" s="28"/>
-      <c r="O41" s="28"/>
-      <c r="P41" s="28"/>
-      <c r="Q41" s="28"/>
-      <c r="R41" s="28"/>
-      <c r="S41" s="28"/>
-      <c r="T41" s="28"/>
-      <c r="U41" s="28"/>
-      <c r="V41" s="28"/>
-      <c r="W41" s="28"/>
-      <c r="X41" s="28"/>
-      <c r="Y41" s="28"/>
-      <c r="Z41" s="25"/>
-      <c r="AA41" s="8"/>
-      <c r="AB41" s="11"/>
-    </row>
-    <row r="42" ht="13.65" customHeight="1">
-      <c r="A42" s="31"/>
-      <c r="B42" s="32"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="27">
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="24"/>
+      <c r="O41" s="24"/>
+      <c r="P41" s="24"/>
+      <c r="Q41" s="24"/>
+      <c r="R41" s="24"/>
+      <c r="S41" s="24"/>
+      <c r="T41" s="24"/>
+      <c r="U41" s="24"/>
+      <c r="V41" s="24"/>
+      <c r="W41" s="24"/>
+      <c r="X41" s="24"/>
+      <c r="Y41" s="24"/>
+      <c r="Z41" s="21"/>
+      <c r="AA41" s="7"/>
+      <c r="AB41" s="10"/>
+    </row>
+    <row r="42" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="25"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="23">
         <v>30</v>
       </c>
-      <c r="E42" s="28"/>
-      <c r="F42" t="s" s="29">
+      <c r="E42" s="24"/>
+      <c r="F42" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="28"/>
-      <c r="K42" s="34"/>
-      <c r="L42" s="28"/>
-      <c r="M42" s="28"/>
-      <c r="N42" s="28"/>
-      <c r="O42" s="28"/>
-      <c r="P42" s="28"/>
-      <c r="Q42" s="28"/>
-      <c r="R42" s="28"/>
-      <c r="S42" s="28"/>
-      <c r="T42" s="28"/>
-      <c r="U42" s="28"/>
-      <c r="V42" s="28"/>
-      <c r="W42" s="28"/>
-      <c r="X42" s="28"/>
-      <c r="Y42" s="28"/>
-      <c r="Z42" s="35"/>
-      <c r="AA42" s="32"/>
-      <c r="AB42" s="36"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="32"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="24"/>
+      <c r="N42" s="24"/>
+      <c r="O42" s="24">
+        <v>7</v>
+      </c>
+      <c r="P42" s="24"/>
+      <c r="Q42" s="24"/>
+      <c r="R42" s="24"/>
+      <c r="S42" s="24"/>
+      <c r="T42" s="24"/>
+      <c r="U42" s="24"/>
+      <c r="V42" s="24"/>
+      <c r="W42" s="24"/>
+      <c r="X42" s="24"/>
+      <c r="Y42" s="24"/>
+      <c r="Z42" s="28"/>
+      <c r="AA42" s="26"/>
+      <c r="AB42" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F25:H25"/>
     <mergeCell ref="K12:K42"/>
     <mergeCell ref="B2:D3"/>
     <mergeCell ref="G2:I2"/>
@@ -3175,31 +3320,9 @@
     <mergeCell ref="F18:H18"/>
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="F42:H42"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="1" footer="1"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/Resources/30434.xlsx
+++ b/Resources/30434.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Predare\SoftwareDesignUTCN\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC07DF4-B799-4254-80B8-125B6B69AD9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE4F1B8-C517-43D9-9015-5AD8562B5EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Facultatea -</t>
   </si>
@@ -76,9 +76,6 @@
     <t>Lab 7</t>
   </si>
   <si>
-    <t>Lab 8</t>
-  </si>
-  <si>
     <t>Lab 9</t>
   </si>
   <si>
@@ -187,25 +184,13 @@
     <t>Vaida Gabriel Darius</t>
   </si>
   <si>
-    <t>no tests, unused things at least at first stage</t>
-  </si>
-  <si>
-    <t>super generic, nice! Dar incomplet</t>
-  </si>
-  <si>
-    <t>no tests at all</t>
-  </si>
-  <si>
-    <t>nothing really works</t>
-  </si>
-  <si>
     <t>wtf PR</t>
   </si>
   <si>
-    <t>NOK from a software design perspective</t>
-  </si>
-  <si>
-    <t>late raport</t>
+    <t>proj (1)</t>
+  </si>
+  <si>
+    <t>9 so far</t>
   </si>
 </sst>
 </file>
@@ -576,6 +561,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" readingOrder="1"/>
     </xf>
@@ -596,12 +587,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1767,7 +1752,7 @@
   <dimension ref="A1:AB42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1818,18 +1803,18 @@
     </row>
     <row r="2" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
       <c r="J2" s="7"/>
       <c r="K2" s="9"/>
       <c r="L2" s="7"/>
@@ -1852,9 +1837,9 @@
     </row>
     <row r="3" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -1912,18 +1897,18 @@
     </row>
     <row r="5" spans="1:28" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
       <c r="J5" s="7"/>
       <c r="K5" s="9"/>
       <c r="L5" s="7"/>
@@ -1976,11 +1961,11 @@
     </row>
     <row r="7" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="11">
@@ -2040,11 +2025,11 @@
     </row>
     <row r="9" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="8" t="s">
@@ -2140,18 +2125,18 @@
         <v>7</v>
       </c>
       <c r="E12" s="18"/>
-      <c r="F12" s="36" t="s">
+      <c r="F12" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="37"/>
-      <c r="H12" s="38"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="40"/>
       <c r="I12" s="19" t="s">
         <v>9</v>
       </c>
       <c r="J12" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="K12" s="31"/>
+      <c r="K12" s="33"/>
       <c r="L12" s="20" t="s">
         <v>11</v>
       </c>
@@ -2174,25 +2159,25 @@
         <v>17</v>
       </c>
       <c r="S12" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="T12" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="T12" s="20" t="s">
+      <c r="U12" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="U12" s="20" t="s">
+      <c r="V12" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="V12" s="20" t="s">
+      <c r="W12" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="W12" s="20" t="s">
+      <c r="X12" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="X12" s="20" t="s">
+      <c r="Y12" s="20" t="s">
         <v>23</v>
-      </c>
-      <c r="Y12" s="20" t="s">
-        <v>24</v>
       </c>
       <c r="Z12" s="21"/>
       <c r="AA12" s="7"/>
@@ -2206,14 +2191,14 @@
         <v>1</v>
       </c>
       <c r="E13" s="24"/>
-      <c r="F13" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
+      <c r="F13" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
       <c r="I13" s="24"/>
       <c r="J13" s="24"/>
-      <c r="K13" s="31"/>
+      <c r="K13" s="33"/>
       <c r="L13" s="24"/>
       <c r="M13" s="24"/>
       <c r="N13" s="24"/>
@@ -2242,14 +2227,14 @@
         <v>2</v>
       </c>
       <c r="E14" s="24"/>
-      <c r="F14" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
+      <c r="F14" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
       <c r="I14" s="24"/>
       <c r="J14" s="24"/>
-      <c r="K14" s="31"/>
+      <c r="K14" s="33"/>
       <c r="L14" s="24"/>
       <c r="M14" s="24"/>
       <c r="N14" s="24"/>
@@ -2278,14 +2263,14 @@
         <v>3</v>
       </c>
       <c r="E15" s="24"/>
-      <c r="F15" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
+      <c r="F15" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
       <c r="I15" s="24"/>
       <c r="J15" s="24"/>
-      <c r="K15" s="31"/>
+      <c r="K15" s="33"/>
       <c r="L15" s="24"/>
       <c r="M15" s="24"/>
       <c r="N15" s="24"/>
@@ -2314,14 +2299,14 @@
         <v>4</v>
       </c>
       <c r="E16" s="24"/>
-      <c r="F16" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
+      <c r="F16" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
       <c r="I16" s="24"/>
       <c r="J16" s="24"/>
-      <c r="K16" s="31"/>
+      <c r="K16" s="33"/>
       <c r="L16" s="24"/>
       <c r="M16" s="24"/>
       <c r="N16" s="24"/>
@@ -2350,14 +2335,14 @@
         <v>5</v>
       </c>
       <c r="E17" s="24"/>
-      <c r="F17" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
+      <c r="F17" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
       <c r="I17" s="24"/>
       <c r="J17" s="24"/>
-      <c r="K17" s="31"/>
+      <c r="K17" s="33"/>
       <c r="L17" s="24"/>
       <c r="M17" s="24"/>
       <c r="N17" s="24"/>
@@ -2367,7 +2352,9 @@
       <c r="P17" s="24"/>
       <c r="Q17" s="24"/>
       <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
+      <c r="S17" s="24">
+        <v>10</v>
+      </c>
       <c r="T17" s="24"/>
       <c r="U17" s="24"/>
       <c r="V17" s="24"/>
@@ -2386,14 +2373,14 @@
         <v>6</v>
       </c>
       <c r="E18" s="24"/>
-      <c r="F18" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
+      <c r="F18" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
       <c r="I18" s="24"/>
       <c r="J18" s="24"/>
-      <c r="K18" s="31"/>
+      <c r="K18" s="33"/>
       <c r="L18" s="24"/>
       <c r="M18" s="24"/>
       <c r="N18" s="24"/>
@@ -2420,14 +2407,14 @@
         <v>7</v>
       </c>
       <c r="E19" s="24"/>
-      <c r="F19" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
+      <c r="F19" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
       <c r="I19" s="24"/>
       <c r="J19" s="24"/>
-      <c r="K19" s="31"/>
+      <c r="K19" s="33"/>
       <c r="L19" s="24"/>
       <c r="M19" s="24"/>
       <c r="N19" s="24"/>
@@ -2456,14 +2443,14 @@
         <v>8</v>
       </c>
       <c r="E20" s="24"/>
-      <c r="F20" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
+      <c r="F20" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
       <c r="I20" s="24"/>
       <c r="J20" s="24"/>
-      <c r="K20" s="31"/>
+      <c r="K20" s="33"/>
       <c r="L20" s="24"/>
       <c r="M20" s="24"/>
       <c r="N20" s="24"/>
@@ -2473,7 +2460,9 @@
       <c r="P20" s="24"/>
       <c r="Q20" s="24"/>
       <c r="R20" s="24"/>
-      <c r="S20" s="24"/>
+      <c r="S20" s="24">
+        <v>10</v>
+      </c>
       <c r="T20" s="24"/>
       <c r="U20" s="24"/>
       <c r="V20" s="24"/>
@@ -2492,14 +2481,14 @@
         <v>9</v>
       </c>
       <c r="E21" s="24"/>
-      <c r="F21" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
+      <c r="F21" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
       <c r="I21" s="24"/>
       <c r="J21" s="24"/>
-      <c r="K21" s="31"/>
+      <c r="K21" s="33"/>
       <c r="L21" s="24"/>
       <c r="M21" s="24"/>
       <c r="N21" s="24"/>
@@ -2528,14 +2517,14 @@
         <v>10</v>
       </c>
       <c r="E22" s="24"/>
-      <c r="F22" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
+      <c r="F22" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
       <c r="I22" s="24"/>
       <c r="J22" s="24"/>
-      <c r="K22" s="31"/>
+      <c r="K22" s="33"/>
       <c r="L22" s="24"/>
       <c r="M22" s="24"/>
       <c r="N22" s="24"/>
@@ -2562,14 +2551,14 @@
         <v>11</v>
       </c>
       <c r="E23" s="24"/>
-      <c r="F23" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
+      <c r="F23" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
       <c r="I23" s="24"/>
       <c r="J23" s="24"/>
-      <c r="K23" s="31"/>
+      <c r="K23" s="33"/>
       <c r="L23" s="24"/>
       <c r="M23" s="24"/>
       <c r="N23" s="24"/>
@@ -2596,23 +2585,21 @@
         <v>12</v>
       </c>
       <c r="E24" s="24"/>
-      <c r="F24" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
+      <c r="F24" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
       <c r="I24" s="24"/>
       <c r="J24" s="24"/>
-      <c r="K24" s="31"/>
+      <c r="K24" s="33"/>
       <c r="L24" s="24"/>
       <c r="M24" s="24"/>
       <c r="N24" s="24"/>
       <c r="O24" s="24">
         <v>5</v>
       </c>
-      <c r="P24" s="24" t="s">
-        <v>60</v>
-      </c>
+      <c r="P24" s="24"/>
       <c r="Q24" s="24"/>
       <c r="R24" s="24"/>
       <c r="S24" s="24"/>
@@ -2634,14 +2621,14 @@
         <v>13</v>
       </c>
       <c r="E25" s="24"/>
-      <c r="F25" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
+      <c r="F25" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
       <c r="I25" s="24"/>
       <c r="J25" s="24"/>
-      <c r="K25" s="31"/>
+      <c r="K25" s="33"/>
       <c r="L25" s="24"/>
       <c r="M25" s="24"/>
       <c r="N25" s="24"/>
@@ -2670,14 +2657,14 @@
         <v>14</v>
       </c>
       <c r="E26" s="24"/>
-      <c r="F26" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
+      <c r="F26" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
       <c r="I26" s="24"/>
       <c r="J26" s="24"/>
-      <c r="K26" s="31"/>
+      <c r="K26" s="33"/>
       <c r="L26" s="24"/>
       <c r="M26" s="24"/>
       <c r="N26" s="24"/>
@@ -2706,14 +2693,14 @@
         <v>15</v>
       </c>
       <c r="E27" s="24"/>
-      <c r="F27" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
+      <c r="F27" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
       <c r="I27" s="24"/>
       <c r="J27" s="24"/>
-      <c r="K27" s="31"/>
+      <c r="K27" s="33"/>
       <c r="L27" s="24"/>
       <c r="M27" s="24"/>
       <c r="N27" s="24"/>
@@ -2742,14 +2729,14 @@
         <v>16</v>
       </c>
       <c r="E28" s="24"/>
-      <c r="F28" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
+      <c r="F28" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
       <c r="I28" s="24"/>
       <c r="J28" s="24"/>
-      <c r="K28" s="31"/>
+      <c r="K28" s="33"/>
       <c r="L28" s="24"/>
       <c r="M28" s="24"/>
       <c r="N28" s="24"/>
@@ -2778,23 +2765,21 @@
         <v>17</v>
       </c>
       <c r="E29" s="24"/>
-      <c r="F29" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
+      <c r="F29" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
       <c r="I29" s="24"/>
       <c r="J29" s="24"/>
-      <c r="K29" s="31"/>
+      <c r="K29" s="33"/>
       <c r="L29" s="24"/>
       <c r="M29" s="24"/>
       <c r="N29" s="24"/>
       <c r="O29" s="24">
         <v>5</v>
       </c>
-      <c r="P29" s="24" t="s">
-        <v>56</v>
-      </c>
+      <c r="P29" s="24"/>
       <c r="Q29" s="24"/>
       <c r="R29" s="24"/>
       <c r="S29" s="24"/>
@@ -2816,14 +2801,14 @@
         <v>18</v>
       </c>
       <c r="E30" s="24"/>
-      <c r="F30" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
+      <c r="F30" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
       <c r="I30" s="24"/>
       <c r="J30" s="24"/>
-      <c r="K30" s="31"/>
+      <c r="K30" s="33"/>
       <c r="L30" s="24"/>
       <c r="M30" s="24"/>
       <c r="N30" s="24"/>
@@ -2852,14 +2837,14 @@
         <v>19</v>
       </c>
       <c r="E31" s="24"/>
-      <c r="F31" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
+      <c r="F31" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
       <c r="I31" s="24"/>
       <c r="J31" s="24"/>
-      <c r="K31" s="31"/>
+      <c r="K31" s="33"/>
       <c r="L31" s="24"/>
       <c r="M31" s="24"/>
       <c r="N31" s="24"/>
@@ -2886,14 +2871,14 @@
         <v>20</v>
       </c>
       <c r="E32" s="24"/>
-      <c r="F32" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
+      <c r="F32" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
       <c r="I32" s="24"/>
       <c r="J32" s="24"/>
-      <c r="K32" s="31"/>
+      <c r="K32" s="33"/>
       <c r="L32" s="24"/>
       <c r="M32" s="24"/>
       <c r="N32" s="24"/>
@@ -2922,23 +2907,21 @@
         <v>21</v>
       </c>
       <c r="E33" s="24"/>
-      <c r="F33" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
+      <c r="F33" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
       <c r="I33" s="24"/>
       <c r="J33" s="24"/>
-      <c r="K33" s="31"/>
+      <c r="K33" s="33"/>
       <c r="L33" s="24"/>
       <c r="M33" s="24"/>
       <c r="N33" s="24"/>
       <c r="O33" s="24">
         <v>4</v>
       </c>
-      <c r="P33" s="24" t="s">
-        <v>58</v>
-      </c>
+      <c r="P33" s="24"/>
       <c r="Q33" s="24"/>
       <c r="R33" s="24"/>
       <c r="S33" s="24"/>
@@ -2960,19 +2943,19 @@
         <v>22</v>
       </c>
       <c r="E34" s="24"/>
-      <c r="F34" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
+      <c r="F34" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
       <c r="I34" s="24"/>
       <c r="J34" s="24"/>
-      <c r="K34" s="31"/>
+      <c r="K34" s="33"/>
       <c r="L34" s="24"/>
       <c r="M34" s="24"/>
       <c r="N34" s="24"/>
       <c r="O34" s="24" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="P34" s="24"/>
       <c r="Q34" s="24"/>
@@ -2996,14 +2979,14 @@
         <v>23</v>
       </c>
       <c r="E35" s="24"/>
-      <c r="F35" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
+      <c r="F35" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
       <c r="I35" s="24"/>
       <c r="J35" s="24"/>
-      <c r="K35" s="31"/>
+      <c r="K35" s="33"/>
       <c r="L35" s="24"/>
       <c r="M35" s="24"/>
       <c r="N35" s="24"/>
@@ -3013,7 +2996,9 @@
       <c r="P35" s="24"/>
       <c r="Q35" s="24"/>
       <c r="R35" s="24"/>
-      <c r="S35" s="24"/>
+      <c r="S35" s="24">
+        <v>10</v>
+      </c>
       <c r="T35" s="24"/>
       <c r="U35" s="24"/>
       <c r="V35" s="24"/>
@@ -3032,23 +3017,21 @@
         <v>24</v>
       </c>
       <c r="E36" s="24"/>
-      <c r="F36" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="G36" s="40"/>
-      <c r="H36" s="40"/>
+      <c r="F36" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
       <c r="I36" s="24"/>
       <c r="J36" s="24"/>
-      <c r="K36" s="31"/>
+      <c r="K36" s="33"/>
       <c r="L36" s="24"/>
       <c r="M36" s="24"/>
       <c r="N36" s="24"/>
       <c r="O36" s="30">
         <v>5</v>
       </c>
-      <c r="P36" s="24" t="s">
-        <v>55</v>
-      </c>
+      <c r="P36" s="24"/>
       <c r="Q36" s="24"/>
       <c r="R36" s="24"/>
       <c r="S36" s="24"/>
@@ -3070,23 +3053,21 @@
         <v>25</v>
       </c>
       <c r="E37" s="24"/>
-      <c r="F37" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
+      <c r="F37" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
       <c r="I37" s="24"/>
       <c r="J37" s="24"/>
-      <c r="K37" s="31"/>
+      <c r="K37" s="33"/>
       <c r="L37" s="24"/>
       <c r="M37" s="24"/>
       <c r="N37" s="24"/>
       <c r="O37" s="24">
         <v>6</v>
       </c>
-      <c r="P37" s="24" t="s">
-        <v>57</v>
-      </c>
+      <c r="P37" s="24"/>
       <c r="Q37" s="24"/>
       <c r="R37" s="24"/>
       <c r="S37" s="24"/>
@@ -3108,23 +3089,21 @@
         <v>26</v>
       </c>
       <c r="E38" s="24"/>
-      <c r="F38" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
+      <c r="F38" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
       <c r="I38" s="24"/>
       <c r="J38" s="24"/>
-      <c r="K38" s="31"/>
+      <c r="K38" s="33"/>
       <c r="L38" s="24"/>
       <c r="M38" s="24"/>
       <c r="N38" s="24"/>
       <c r="O38" s="24">
         <v>9</v>
       </c>
-      <c r="P38" s="24" t="s">
-        <v>61</v>
-      </c>
+      <c r="P38" s="24"/>
       <c r="Q38" s="24"/>
       <c r="R38" s="24"/>
       <c r="S38" s="24"/>
@@ -3146,14 +3125,14 @@
         <v>27</v>
       </c>
       <c r="E39" s="24"/>
-      <c r="F39" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
+      <c r="F39" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
       <c r="I39" s="24"/>
       <c r="J39" s="24"/>
-      <c r="K39" s="31"/>
+      <c r="K39" s="33"/>
       <c r="L39" s="24"/>
       <c r="M39" s="24"/>
       <c r="N39" s="24"/>
@@ -3163,7 +3142,9 @@
       <c r="P39" s="24"/>
       <c r="Q39" s="24"/>
       <c r="R39" s="24"/>
-      <c r="S39" s="24"/>
+      <c r="S39" s="24" t="s">
+        <v>56</v>
+      </c>
       <c r="T39" s="24"/>
       <c r="U39" s="24"/>
       <c r="V39" s="24"/>
@@ -3182,14 +3163,14 @@
         <v>28</v>
       </c>
       <c r="E40" s="24"/>
-      <c r="F40" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
+      <c r="F40" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
       <c r="I40" s="24"/>
       <c r="J40" s="24"/>
-      <c r="K40" s="31"/>
+      <c r="K40" s="33"/>
       <c r="L40" s="24"/>
       <c r="M40" s="24"/>
       <c r="N40" s="24"/>
@@ -3218,14 +3199,14 @@
         <v>29</v>
       </c>
       <c r="E41" s="24"/>
-      <c r="F41" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
+      <c r="F41" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
       <c r="I41" s="24"/>
       <c r="J41" s="24"/>
-      <c r="K41" s="31"/>
+      <c r="K41" s="33"/>
       <c r="L41" s="24"/>
       <c r="M41" s="24"/>
       <c r="N41" s="24"/>
@@ -3252,14 +3233,14 @@
         <v>30</v>
       </c>
       <c r="E42" s="24"/>
-      <c r="F42" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="G42" s="40"/>
-      <c r="H42" s="40"/>
+      <c r="F42" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
       <c r="I42" s="24"/>
       <c r="J42" s="24"/>
-      <c r="K42" s="32"/>
+      <c r="K42" s="34"/>
       <c r="L42" s="24"/>
       <c r="M42" s="24"/>
       <c r="N42" s="24"/>
@@ -3282,28 +3263,6 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F25:H25"/>
     <mergeCell ref="K12:K42"/>
     <mergeCell ref="B2:D3"/>
     <mergeCell ref="G2:I2"/>
@@ -3320,6 +3279,28 @@
     <mergeCell ref="F18:H18"/>
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="F40:H40"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="1" footer="1"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Resources/30434.xlsx
+++ b/Resources/30434.xlsx
@@ -1,26 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Predare\SoftwareDesignUTCN\Resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE4F1B8-C517-43D9-9015-5AD8562B5EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Report1" sheetId="1" r:id="rId1"/>
+    <sheet name="Report1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
   <si>
     <t>Facultatea -</t>
   </si>
@@ -76,6 +67,9 @@
     <t>Lab 7</t>
   </si>
   <si>
+    <t>proj (1)</t>
+  </si>
+  <si>
     <t>Lab 9</t>
   </si>
   <si>
@@ -112,9 +106,15 @@
     <t>Bosoanca Cosmin - Florin</t>
   </si>
   <si>
+    <t>4, no backend</t>
+  </si>
+  <si>
     <t>Bradea Maria Mihaela</t>
   </si>
   <si>
+    <t>10 (tests?)</t>
+  </si>
+  <si>
     <t>Cadar Stefan</t>
   </si>
   <si>
@@ -145,6 +145,9 @@
     <t>Mercean Dragos</t>
   </si>
   <si>
+    <t>4 (incomplete)</t>
+  </si>
+  <si>
     <t>Mesesan Mara Irina</t>
   </si>
   <si>
@@ -175,6 +178,9 @@
     <t>Stefanescu Radu</t>
   </si>
   <si>
+    <t>9 so far</t>
+  </si>
+  <si>
     <t>Tataru Mihai</t>
   </si>
   <si>
@@ -184,27 +190,34 @@
     <t>Vaida Gabriel Darius</t>
   </si>
   <si>
-    <t>wtf PR</t>
-  </si>
-  <si>
-    <t>proj (1)</t>
-  </si>
-  <si>
-    <t>9 so far</t>
+    <t>4, no tests</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
@@ -219,7 +232,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="9"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -230,7 +243,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -240,11 +253,11 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -253,7 +266,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -261,17 +274,17 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right/>
       <top/>
@@ -288,7 +301,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top/>
       <bottom/>
@@ -443,12 +456,12 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -457,7 +470,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -468,7 +481,7 @@
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,7 +494,7 @@
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,102 +505,237 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="44">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -597,85 +745,26 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFAAAAAA"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFD3D3D3"/>
-      <rgbColor rgb="FFFFE4B5"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffd3d3d3"/>
+      <rgbColor rgb="ffffe4b5"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -801,7 +890,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -810,7 +899,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -819,9 +908,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -893,7 +982,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -901,7 +990,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -919,7 +1008,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -928,10 +1017,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -948,7 +1037,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -973,7 +1062,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -998,7 +1087,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1023,7 +1112,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1048,7 +1137,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1073,7 +1162,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1098,7 +1187,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1123,7 +1212,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1148,7 +1237,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1161,15 +1250,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1184,15 +1267,15 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
+              <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1210,7 +1293,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1235,7 +1318,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1260,7 +1343,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1285,7 +1368,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1310,7 +1393,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1335,7 +1418,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1360,7 +1443,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1385,7 +1468,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1410,7 +1493,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1435,7 +1518,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1448,15 +1531,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1470,7 +1547,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1488,7 +1565,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1497,10 +1574,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1517,7 +1594,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1542,7 +1619,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1567,7 +1644,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1592,7 +1669,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1617,7 +1694,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1642,7 +1719,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1667,7 +1744,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1692,7 +1769,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1717,7 +1794,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1730,48 +1807,39 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB42"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:AB43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="1.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="2.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="4" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="1.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" customWidth="1"/>
-    <col min="10" max="11" width="11.7109375" style="1" customWidth="1"/>
-    <col min="12" max="29" width="8.85546875" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="8.85546875" style="1"/>
+    <col min="4" max="4" width="10.5" style="1" customWidth="1"/>
+    <col min="5" max="5" hidden="1" width="8.83333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="1.35156" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.6719" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.8516" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.3516" style="1" customWidth="1"/>
+    <col min="10" max="11" width="11.6719" style="1" customWidth="1"/>
+    <col min="12" max="28" width="8.85156" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="8.1" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1782,7 +1850,7 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
-      <c r="K1" s="4"/>
+      <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
@@ -1799,24 +1867,24 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
-      <c r="AB1" s="5"/>
-    </row>
-    <row r="2" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="35" t="s">
+      <c r="AB1" s="4"/>
+    </row>
+    <row r="2" ht="13.7" customHeight="1">
+      <c r="A2" s="5"/>
+      <c r="B2" t="s" s="6">
         <v>0</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="37" t="s">
+      <c r="G2" t="s" s="8">
         <v>1</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="9"/>
+      <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
@@ -1833,20 +1901,20 @@
       <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
       <c r="AA2" s="7"/>
-      <c r="AB2" s="10"/>
-    </row>
-    <row r="3" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
+      <c r="AB2" s="9"/>
+    </row>
+    <row r="3" ht="13.5" customHeight="1">
+      <c r="A3" s="5"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
-      <c r="K3" s="9"/>
+      <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
@@ -1863,10 +1931,10 @@
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
       <c r="AA3" s="7"/>
-      <c r="AB3" s="10"/>
-    </row>
-    <row r="4" spans="1:28" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
+      <c r="AB3" s="9"/>
+    </row>
+    <row r="4" ht="8.1" customHeight="1">
+      <c r="A4" s="5"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -1876,7 +1944,7 @@
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="9"/>
+      <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
@@ -1893,24 +1961,24 @@
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
       <c r="AA4" s="7"/>
-      <c r="AB4" s="10"/>
-    </row>
-    <row r="5" spans="1:28" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="35" t="s">
+      <c r="AB4" s="9"/>
+    </row>
+    <row r="5" ht="14.45" customHeight="1">
+      <c r="A5" s="5"/>
+      <c r="B5" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="37" t="s">
+      <c r="G5" t="s" s="8">
         <v>3</v>
       </c>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
       <c r="J5" s="7"/>
-      <c r="K5" s="9"/>
+      <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
@@ -1927,10 +1995,10 @@
       <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
       <c r="AA5" s="7"/>
-      <c r="AB5" s="10"/>
-    </row>
-    <row r="6" spans="1:28" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
+      <c r="AB5" s="9"/>
+    </row>
+    <row r="6" ht="8.1" customHeight="1">
+      <c r="A6" s="5"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -1940,7 +2008,7 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
-      <c r="K6" s="9"/>
+      <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
@@ -1957,24 +2025,24 @@
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
-      <c r="AB6" s="10"/>
-    </row>
-    <row r="7" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="35" t="s">
+      <c r="AB6" s="9"/>
+    </row>
+    <row r="7" ht="13.7" customHeight="1">
+      <c r="A7" s="5"/>
+      <c r="B7" t="s" s="6">
         <v>4</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <v>3</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
-      <c r="K7" s="9"/>
+      <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
@@ -1991,10 +2059,10 @@
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
       <c r="AA7" s="7"/>
-      <c r="AB7" s="10"/>
-    </row>
-    <row r="8" spans="1:28" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
+      <c r="AB7" s="9"/>
+    </row>
+    <row r="8" ht="8.1" customHeight="1">
+      <c r="A8" s="5"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -2004,7 +2072,7 @@
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
-      <c r="K8" s="9"/>
+      <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
@@ -2021,24 +2089,24 @@
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
       <c r="AA8" s="7"/>
-      <c r="AB8" s="10"/>
-    </row>
-    <row r="9" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="35" t="s">
+      <c r="AB8" s="9"/>
+    </row>
+    <row r="9" ht="13.7" customHeight="1">
+      <c r="A9" s="5"/>
+      <c r="B9" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="8" t="s">
+      <c r="G9" t="s" s="8">
         <v>6</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
-      <c r="K9" s="9"/>
+      <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
@@ -2055,20 +2123,20 @@
       <c r="Y9" s="7"/>
       <c r="Z9" s="7"/>
       <c r="AA9" s="7"/>
-      <c r="AB9" s="10"/>
-    </row>
-    <row r="10" spans="1:28" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
+      <c r="AB9" s="9"/>
+    </row>
+    <row r="10" ht="10.5" customHeight="1">
+      <c r="A10" s="5"/>
       <c r="B10" s="7"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
       <c r="J10" s="7"/>
-      <c r="K10" s="9"/>
+      <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
@@ -2085,1184 +2153,1294 @@
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
       <c r="AA10" s="7"/>
-      <c r="AB10" s="10"/>
-    </row>
-    <row r="11" spans="1:28" ht="10.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
+      <c r="AB10" s="9"/>
+    </row>
+    <row r="11" ht="10.7" customHeight="1">
+      <c r="A11" s="5"/>
       <c r="B11" s="7"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
       <c r="Z11" s="7"/>
       <c r="AA11" s="7"/>
-      <c r="AB11" s="10"/>
-    </row>
-    <row r="12" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
+      <c r="AB11" s="9"/>
+    </row>
+    <row r="12" ht="13.7" customHeight="1">
+      <c r="A12" s="5"/>
       <c r="B12" s="7"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17" t="s">
+      <c r="C12" s="15"/>
+      <c r="D12" t="s" s="16">
         <v>7</v>
       </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="38" t="s">
+      <c r="E12" s="17"/>
+      <c r="F12" t="s" s="16">
         <v>8</v>
       </c>
-      <c r="G12" s="39"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="19" t="s">
+      <c r="G12" s="18"/>
+      <c r="H12" s="19"/>
+      <c r="I12" t="s" s="20">
         <v>9</v>
       </c>
-      <c r="J12" s="19" t="s">
+      <c r="J12" t="s" s="20">
         <v>10</v>
       </c>
-      <c r="K12" s="33"/>
-      <c r="L12" s="20" t="s">
+      <c r="K12" s="21"/>
+      <c r="L12" t="s" s="22">
         <v>11</v>
       </c>
-      <c r="M12" s="20" t="s">
+      <c r="M12" t="s" s="22">
         <v>12</v>
       </c>
-      <c r="N12" s="20" t="s">
+      <c r="N12" t="s" s="22">
         <v>13</v>
       </c>
-      <c r="O12" s="20" t="s">
+      <c r="O12" t="s" s="22">
         <v>14</v>
       </c>
-      <c r="P12" s="20" t="s">
+      <c r="P12" t="s" s="22">
         <v>15</v>
       </c>
-      <c r="Q12" s="20" t="s">
+      <c r="Q12" t="s" s="22">
         <v>16</v>
       </c>
-      <c r="R12" s="20" t="s">
+      <c r="R12" t="s" s="22">
         <v>17</v>
       </c>
-      <c r="S12" s="20" t="s">
+      <c r="S12" t="s" s="22">
+        <v>18</v>
+      </c>
+      <c r="T12" t="s" s="22">
+        <v>19</v>
+      </c>
+      <c r="U12" t="s" s="22">
+        <v>20</v>
+      </c>
+      <c r="V12" t="s" s="22">
+        <v>21</v>
+      </c>
+      <c r="W12" t="s" s="22">
+        <v>22</v>
+      </c>
+      <c r="X12" t="s" s="22">
+        <v>23</v>
+      </c>
+      <c r="Y12" t="s" s="22">
+        <v>24</v>
+      </c>
+      <c r="Z12" s="23"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="9"/>
+    </row>
+    <row r="13" ht="13.7" customHeight="1">
+      <c r="A13" s="5"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="25">
+        <v>1</v>
+      </c>
+      <c r="E13" s="26"/>
+      <c r="F13" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="29">
+        <v>7</v>
+      </c>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="23"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="9"/>
+    </row>
+    <row r="14" ht="13.7" customHeight="1">
+      <c r="A14" s="5"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="25">
+        <v>2</v>
+      </c>
+      <c r="E14" s="26"/>
+      <c r="F14" t="s" s="27">
+        <v>26</v>
+      </c>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="29">
+        <v>10</v>
+      </c>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="29">
+        <v>10</v>
+      </c>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="23"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="9"/>
+    </row>
+    <row r="15" ht="13.7" customHeight="1">
+      <c r="A15" s="5"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="25">
+        <v>3</v>
+      </c>
+      <c r="E15" s="26"/>
+      <c r="F15" t="s" s="27">
+        <v>27</v>
+      </c>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="29">
+        <v>7</v>
+      </c>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="29">
+        <v>10</v>
+      </c>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="23"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="9"/>
+    </row>
+    <row r="16" ht="13.65" customHeight="1">
+      <c r="A16" s="5"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="25">
+        <v>4</v>
+      </c>
+      <c r="E16" s="26"/>
+      <c r="F16" t="s" s="27">
+        <v>28</v>
+      </c>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="29">
+        <v>7</v>
+      </c>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="29">
+        <v>10</v>
+      </c>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="26"/>
+      <c r="Z16" s="23"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="9"/>
+    </row>
+    <row r="17" ht="13.7" customHeight="1">
+      <c r="A17" s="5"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="25">
+        <v>5</v>
+      </c>
+      <c r="E17" s="26"/>
+      <c r="F17" t="s" s="27">
+        <v>29</v>
+      </c>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="29">
+        <v>9.65</v>
+      </c>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="29">
+        <v>10</v>
+      </c>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="26"/>
+      <c r="W17" s="26"/>
+      <c r="X17" s="26"/>
+      <c r="Y17" s="26"/>
+      <c r="Z17" s="23"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="9"/>
+    </row>
+    <row r="18" ht="13.7" customHeight="1">
+      <c r="A18" s="5"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="25">
+        <v>6</v>
+      </c>
+      <c r="E18" s="26"/>
+      <c r="F18" t="s" s="27">
+        <v>30</v>
+      </c>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" t="s" s="30">
+        <v>31</v>
+      </c>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="26"/>
+      <c r="X18" s="26"/>
+      <c r="Y18" s="26"/>
+      <c r="Z18" s="23"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="9"/>
+    </row>
+    <row r="19" ht="13.7" customHeight="1">
+      <c r="A19" s="5"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="25">
+        <v>7</v>
+      </c>
+      <c r="E19" s="26"/>
+      <c r="F19" t="s" s="27">
+        <v>32</v>
+      </c>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="29">
+        <v>7.75</v>
+      </c>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" t="s" s="30">
+        <v>33</v>
+      </c>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="26"/>
+      <c r="W19" s="26"/>
+      <c r="X19" s="26"/>
+      <c r="Y19" s="26"/>
+      <c r="Z19" s="23"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="9"/>
+    </row>
+    <row r="20" ht="13.7" customHeight="1">
+      <c r="A20" s="5"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="25">
+        <v>8</v>
+      </c>
+      <c r="E20" s="26"/>
+      <c r="F20" t="s" s="27">
+        <v>34</v>
+      </c>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="29">
+        <v>7</v>
+      </c>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="29">
+        <v>10</v>
+      </c>
+      <c r="T20" s="26"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="26"/>
+      <c r="W20" s="26"/>
+      <c r="X20" s="26"/>
+      <c r="Y20" s="26"/>
+      <c r="Z20" s="23"/>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="9"/>
+    </row>
+    <row r="21" ht="13.7" customHeight="1">
+      <c r="A21" s="5"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="25">
+        <v>9</v>
+      </c>
+      <c r="E21" s="26"/>
+      <c r="F21" t="s" s="27">
+        <v>35</v>
+      </c>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="29">
+        <v>10</v>
+      </c>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="29">
+        <v>10</v>
+      </c>
+      <c r="T21" s="26"/>
+      <c r="U21" s="26"/>
+      <c r="V21" s="26"/>
+      <c r="W21" s="26"/>
+      <c r="X21" s="26"/>
+      <c r="Y21" s="26"/>
+      <c r="Z21" s="23"/>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="9"/>
+    </row>
+    <row r="22" ht="13.7" customHeight="1">
+      <c r="A22" s="5"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="25">
+        <v>10</v>
+      </c>
+      <c r="E22" s="26"/>
+      <c r="F22" t="s" s="27">
+        <v>36</v>
+      </c>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="26"/>
+      <c r="W22" s="26"/>
+      <c r="X22" s="26"/>
+      <c r="Y22" s="26"/>
+      <c r="Z22" s="23"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="9"/>
+    </row>
+    <row r="23" ht="13.7" customHeight="1">
+      <c r="A23" s="5"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="25">
+        <v>11</v>
+      </c>
+      <c r="E23" s="26"/>
+      <c r="F23" t="s" s="27">
+        <v>37</v>
+      </c>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="26"/>
+      <c r="W23" s="26"/>
+      <c r="X23" s="26"/>
+      <c r="Y23" s="26"/>
+      <c r="Z23" s="23"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="9"/>
+    </row>
+    <row r="24" ht="13.7" customHeight="1">
+      <c r="A24" s="5"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="25">
+        <v>12</v>
+      </c>
+      <c r="E24" s="26"/>
+      <c r="F24" t="s" s="27">
+        <v>38</v>
+      </c>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="29">
+        <v>5</v>
+      </c>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="29">
+        <v>10</v>
+      </c>
+      <c r="T24" s="26"/>
+      <c r="U24" s="26"/>
+      <c r="V24" s="26"/>
+      <c r="W24" s="26"/>
+      <c r="X24" s="26"/>
+      <c r="Y24" s="26"/>
+      <c r="Z24" s="23"/>
+      <c r="AA24" s="7"/>
+      <c r="AB24" s="9"/>
+    </row>
+    <row r="25" ht="13.7" customHeight="1">
+      <c r="A25" s="5"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="25">
+        <v>13</v>
+      </c>
+      <c r="E25" s="26"/>
+      <c r="F25" t="s" s="27">
+        <v>39</v>
+      </c>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="29">
+        <v>10</v>
+      </c>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="26"/>
+      <c r="V25" s="26"/>
+      <c r="W25" s="26"/>
+      <c r="X25" s="26"/>
+      <c r="Y25" s="26"/>
+      <c r="Z25" s="23"/>
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="9"/>
+    </row>
+    <row r="26" ht="13.7" customHeight="1">
+      <c r="A26" s="5"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="25">
+        <v>14</v>
+      </c>
+      <c r="E26" s="26"/>
+      <c r="F26" t="s" s="27">
+        <v>40</v>
+      </c>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="29">
+        <v>10</v>
+      </c>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="26"/>
+      <c r="S26" s="29">
+        <v>10</v>
+      </c>
+      <c r="T26" s="26"/>
+      <c r="U26" s="26"/>
+      <c r="V26" s="26"/>
+      <c r="W26" s="26"/>
+      <c r="X26" s="26"/>
+      <c r="Y26" s="26"/>
+      <c r="Z26" s="23"/>
+      <c r="AA26" s="7"/>
+      <c r="AB26" s="9"/>
+    </row>
+    <row r="27" ht="13.7" customHeight="1">
+      <c r="A27" s="5"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="25">
+        <v>15</v>
+      </c>
+      <c r="E27" s="26"/>
+      <c r="F27" t="s" s="27">
+        <v>41</v>
+      </c>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="29">
+        <v>7</v>
+      </c>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="29">
+        <v>10</v>
+      </c>
+      <c r="T27" s="26"/>
+      <c r="U27" s="26"/>
+      <c r="V27" s="26"/>
+      <c r="W27" s="26"/>
+      <c r="X27" s="26"/>
+      <c r="Y27" s="26"/>
+      <c r="Z27" s="23"/>
+      <c r="AA27" s="7"/>
+      <c r="AB27" s="9"/>
+    </row>
+    <row r="28" ht="13.7" customHeight="1">
+      <c r="A28" s="5"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="25">
+        <v>16</v>
+      </c>
+      <c r="E28" s="26"/>
+      <c r="F28" t="s" s="27">
+        <v>42</v>
+      </c>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="29">
+        <v>7</v>
+      </c>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="26"/>
+      <c r="U28" s="26"/>
+      <c r="V28" s="26"/>
+      <c r="W28" s="26"/>
+      <c r="X28" s="26"/>
+      <c r="Y28" s="26"/>
+      <c r="Z28" s="23"/>
+      <c r="AA28" s="7"/>
+      <c r="AB28" s="9"/>
+    </row>
+    <row r="29" ht="13.7" customHeight="1">
+      <c r="A29" s="5"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="25">
+        <v>17</v>
+      </c>
+      <c r="E29" s="26"/>
+      <c r="F29" t="s" s="27">
+        <v>43</v>
+      </c>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="29">
+        <v>5</v>
+      </c>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26"/>
+      <c r="S29" t="s" s="30">
+        <v>44</v>
+      </c>
+      <c r="T29" s="26"/>
+      <c r="U29" s="26"/>
+      <c r="V29" s="26"/>
+      <c r="W29" s="26"/>
+      <c r="X29" s="26"/>
+      <c r="Y29" s="26"/>
+      <c r="Z29" s="23"/>
+      <c r="AA29" s="7"/>
+      <c r="AB29" s="9"/>
+    </row>
+    <row r="30" ht="13.7" customHeight="1">
+      <c r="A30" s="5"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="25">
+        <v>18</v>
+      </c>
+      <c r="E30" s="26"/>
+      <c r="F30" t="s" s="27">
+        <v>45</v>
+      </c>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="29">
+        <v>7</v>
+      </c>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="26"/>
+      <c r="S30" s="29">
+        <v>10</v>
+      </c>
+      <c r="T30" s="26"/>
+      <c r="U30" s="26"/>
+      <c r="V30" s="26"/>
+      <c r="W30" s="26"/>
+      <c r="X30" s="26"/>
+      <c r="Y30" s="26"/>
+      <c r="Z30" s="23"/>
+      <c r="AA30" s="7"/>
+      <c r="AB30" s="9"/>
+    </row>
+    <row r="31" ht="13.7" customHeight="1">
+      <c r="A31" s="5"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="25">
+        <v>19</v>
+      </c>
+      <c r="E31" s="26"/>
+      <c r="F31" t="s" s="27">
+        <v>46</v>
+      </c>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="26"/>
+      <c r="S31" s="26"/>
+      <c r="T31" s="26"/>
+      <c r="U31" s="26"/>
+      <c r="V31" s="26"/>
+      <c r="W31" s="26"/>
+      <c r="X31" s="26"/>
+      <c r="Y31" s="26"/>
+      <c r="Z31" s="23"/>
+      <c r="AA31" s="7"/>
+      <c r="AB31" s="9"/>
+    </row>
+    <row r="32" ht="13.7" customHeight="1">
+      <c r="A32" s="5"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="25">
+        <v>20</v>
+      </c>
+      <c r="E32" s="26"/>
+      <c r="F32" t="s" s="27">
+        <v>47</v>
+      </c>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="29">
+        <v>9.75</v>
+      </c>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="26"/>
+      <c r="S32" s="26"/>
+      <c r="T32" s="26"/>
+      <c r="U32" s="26"/>
+      <c r="V32" s="26"/>
+      <c r="W32" s="26"/>
+      <c r="X32" s="26"/>
+      <c r="Y32" s="26"/>
+      <c r="Z32" s="23"/>
+      <c r="AA32" s="7"/>
+      <c r="AB32" s="9"/>
+    </row>
+    <row r="33" ht="13.7" customHeight="1">
+      <c r="A33" s="5"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="25">
+        <v>21</v>
+      </c>
+      <c r="E33" s="26"/>
+      <c r="F33" t="s" s="27">
+        <v>48</v>
+      </c>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="29">
+        <v>5</v>
+      </c>
+      <c r="M33" s="29">
+        <v>5</v>
+      </c>
+      <c r="N33" s="29">
+        <v>5</v>
+      </c>
+      <c r="O33" s="29">
+        <v>5</v>
+      </c>
+      <c r="P33" s="29">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="29">
+        <v>5</v>
+      </c>
+      <c r="R33" s="29">
+        <v>5</v>
+      </c>
+      <c r="S33" s="29">
+        <v>5</v>
+      </c>
+      <c r="T33" s="29">
+        <v>5</v>
+      </c>
+      <c r="U33" s="29">
+        <v>5</v>
+      </c>
+      <c r="V33" s="29">
+        <v>5</v>
+      </c>
+      <c r="W33" s="29">
+        <v>5</v>
+      </c>
+      <c r="X33" s="29">
+        <v>5</v>
+      </c>
+      <c r="Y33" s="29">
+        <v>5</v>
+      </c>
+      <c r="Z33" s="23"/>
+      <c r="AA33" s="7"/>
+      <c r="AB33" s="9"/>
+    </row>
+    <row r="34" ht="13.7" customHeight="1">
+      <c r="A34" s="5"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="25">
+        <v>22</v>
+      </c>
+      <c r="E34" s="26"/>
+      <c r="F34" t="s" s="27">
+        <v>49</v>
+      </c>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="29">
+        <v>5</v>
+      </c>
+      <c r="M34" s="29">
+        <v>5</v>
+      </c>
+      <c r="N34" s="29">
+        <v>5</v>
+      </c>
+      <c r="O34" s="29">
+        <v>5</v>
+      </c>
+      <c r="P34" s="29">
+        <v>5</v>
+      </c>
+      <c r="Q34" s="29">
+        <v>5</v>
+      </c>
+      <c r="R34" s="29">
+        <v>5</v>
+      </c>
+      <c r="S34" s="29">
+        <v>5</v>
+      </c>
+      <c r="T34" s="29">
+        <v>5</v>
+      </c>
+      <c r="U34" s="29">
+        <v>5</v>
+      </c>
+      <c r="V34" s="29">
+        <v>5</v>
+      </c>
+      <c r="W34" s="29">
+        <v>5</v>
+      </c>
+      <c r="X34" s="29">
+        <v>5</v>
+      </c>
+      <c r="Y34" s="29">
+        <v>5</v>
+      </c>
+      <c r="Z34" s="23"/>
+      <c r="AA34" s="7"/>
+      <c r="AB34" s="9"/>
+    </row>
+    <row r="35" ht="13.7" customHeight="1">
+      <c r="A35" s="5"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="25">
+        <v>23</v>
+      </c>
+      <c r="E35" s="26"/>
+      <c r="F35" t="s" s="27">
+        <v>50</v>
+      </c>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="29">
+        <v>9.85</v>
+      </c>
+      <c r="P35" s="26"/>
+      <c r="Q35" s="26"/>
+      <c r="R35" s="26"/>
+      <c r="S35" s="29">
+        <v>10</v>
+      </c>
+      <c r="T35" s="26"/>
+      <c r="U35" s="26"/>
+      <c r="V35" s="26"/>
+      <c r="W35" s="26"/>
+      <c r="X35" s="26"/>
+      <c r="Y35" s="26"/>
+      <c r="Z35" s="23"/>
+      <c r="AA35" s="7"/>
+      <c r="AB35" s="9"/>
+    </row>
+    <row r="36" ht="13.7" customHeight="1">
+      <c r="A36" s="5"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="25">
+        <v>24</v>
+      </c>
+      <c r="E36" s="26"/>
+      <c r="F36" t="s" s="27">
+        <v>51</v>
+      </c>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="29">
+        <v>5</v>
+      </c>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="26"/>
+      <c r="R36" s="26"/>
+      <c r="S36" s="26"/>
+      <c r="T36" s="26"/>
+      <c r="U36" s="26"/>
+      <c r="V36" s="26"/>
+      <c r="W36" s="26"/>
+      <c r="X36" s="26"/>
+      <c r="Y36" s="26"/>
+      <c r="Z36" s="23"/>
+      <c r="AA36" s="7"/>
+      <c r="AB36" s="9"/>
+    </row>
+    <row r="37" ht="13.7" customHeight="1">
+      <c r="A37" s="5"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="25">
+        <v>25</v>
+      </c>
+      <c r="E37" s="26"/>
+      <c r="F37" t="s" s="27">
+        <v>52</v>
+      </c>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="29">
+        <v>6</v>
+      </c>
+      <c r="P37" s="26"/>
+      <c r="Q37" s="26"/>
+      <c r="R37" s="26"/>
+      <c r="S37" s="29">
+        <v>10</v>
+      </c>
+      <c r="T37" s="26"/>
+      <c r="U37" s="26"/>
+      <c r="V37" s="26"/>
+      <c r="W37" s="26"/>
+      <c r="X37" s="26"/>
+      <c r="Y37" s="26"/>
+      <c r="Z37" s="23"/>
+      <c r="AA37" s="7"/>
+      <c r="AB37" s="9"/>
+    </row>
+    <row r="38" ht="13.7" customHeight="1">
+      <c r="A38" s="5"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="25">
+        <v>26</v>
+      </c>
+      <c r="E38" s="26"/>
+      <c r="F38" t="s" s="27">
+        <v>53</v>
+      </c>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="29">
+        <v>9</v>
+      </c>
+      <c r="P38" s="26"/>
+      <c r="Q38" s="26"/>
+      <c r="R38" s="26"/>
+      <c r="S38" s="26"/>
+      <c r="T38" s="26"/>
+      <c r="U38" s="26"/>
+      <c r="V38" s="26"/>
+      <c r="W38" s="26"/>
+      <c r="X38" s="26"/>
+      <c r="Y38" s="26"/>
+      <c r="Z38" s="23"/>
+      <c r="AA38" s="7"/>
+      <c r="AB38" s="9"/>
+    </row>
+    <row r="39" ht="13.7" customHeight="1">
+      <c r="A39" s="5"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="25">
+        <v>27</v>
+      </c>
+      <c r="E39" s="26"/>
+      <c r="F39" t="s" s="27">
+        <v>54</v>
+      </c>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="29">
+        <v>6</v>
+      </c>
+      <c r="P39" s="26"/>
+      <c r="Q39" s="26"/>
+      <c r="R39" s="26"/>
+      <c r="S39" t="s" s="30">
         <v>55</v>
       </c>
-      <c r="T12" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="U12" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="V12" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="W12" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="X12" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y12" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z12" s="21"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="10"/>
-    </row>
-    <row r="13" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="23">
-        <v>1</v>
-      </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24">
+      <c r="T39" s="26"/>
+      <c r="U39" s="26"/>
+      <c r="V39" s="26"/>
+      <c r="W39" s="26"/>
+      <c r="X39" s="26"/>
+      <c r="Y39" s="26"/>
+      <c r="Z39" s="23"/>
+      <c r="AA39" s="7"/>
+      <c r="AB39" s="9"/>
+    </row>
+    <row r="40" ht="13.7" customHeight="1">
+      <c r="A40" s="5"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="25">
+        <v>28</v>
+      </c>
+      <c r="E40" s="26"/>
+      <c r="F40" t="s" s="27">
+        <v>56</v>
+      </c>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="26"/>
+      <c r="O40" s="29">
         <v>7</v>
       </c>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="24"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="24"/>
-      <c r="Y13" s="24"/>
-      <c r="Z13" s="21"/>
-      <c r="AA13" s="7"/>
-      <c r="AB13" s="10"/>
-    </row>
-    <row r="14" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23">
-        <v>2</v>
-      </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24">
+      <c r="P40" s="26"/>
+      <c r="Q40" s="26"/>
+      <c r="R40" s="26"/>
+      <c r="S40" s="29">
         <v>10</v>
       </c>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="24"/>
-      <c r="U14" s="24"/>
-      <c r="V14" s="24"/>
-      <c r="W14" s="24"/>
-      <c r="X14" s="24"/>
-      <c r="Y14" s="24"/>
-      <c r="Z14" s="21"/>
-      <c r="AA14" s="7"/>
-      <c r="AB14" s="10"/>
-    </row>
-    <row r="15" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="23">
-        <v>3</v>
-      </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24">
+      <c r="T40" s="26"/>
+      <c r="U40" s="26"/>
+      <c r="V40" s="26"/>
+      <c r="W40" s="26"/>
+      <c r="X40" s="26"/>
+      <c r="Y40" s="26"/>
+      <c r="Z40" s="23"/>
+      <c r="AA40" s="7"/>
+      <c r="AB40" s="9"/>
+    </row>
+    <row r="41" ht="13.7" customHeight="1">
+      <c r="A41" s="5"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="25">
+        <v>29</v>
+      </c>
+      <c r="E41" s="26"/>
+      <c r="F41" t="s" s="27">
+        <v>57</v>
+      </c>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="26"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="26"/>
+      <c r="P41" s="26"/>
+      <c r="Q41" s="26"/>
+      <c r="R41" s="26"/>
+      <c r="S41" s="26"/>
+      <c r="T41" s="26"/>
+      <c r="U41" s="26"/>
+      <c r="V41" s="26"/>
+      <c r="W41" s="26"/>
+      <c r="X41" s="26"/>
+      <c r="Y41" s="26"/>
+      <c r="Z41" s="23"/>
+      <c r="AA41" s="7"/>
+      <c r="AB41" s="9"/>
+    </row>
+    <row r="42" ht="13.7" customHeight="1">
+      <c r="A42" s="31"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="25">
+        <v>30</v>
+      </c>
+      <c r="E42" s="26"/>
+      <c r="F42" t="s" s="27">
+        <v>58</v>
+      </c>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="34"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="26"/>
+      <c r="N42" s="26"/>
+      <c r="O42" s="29">
         <v>7</v>
       </c>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="24"/>
-      <c r="V15" s="24"/>
-      <c r="W15" s="24"/>
-      <c r="X15" s="24"/>
-      <c r="Y15" s="24"/>
-      <c r="Z15" s="21"/>
-      <c r="AA15" s="7"/>
-      <c r="AB15" s="10"/>
-    </row>
-    <row r="16" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="23">
-        <v>4</v>
-      </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24">
-        <v>7</v>
-      </c>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="24"/>
-      <c r="U16" s="24"/>
-      <c r="V16" s="24"/>
-      <c r="W16" s="24"/>
-      <c r="X16" s="24"/>
-      <c r="Y16" s="24"/>
-      <c r="Z16" s="21"/>
-      <c r="AA16" s="7"/>
-      <c r="AB16" s="10"/>
-    </row>
-    <row r="17" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="23">
-        <v>5</v>
-      </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24">
-        <v>9.65</v>
-      </c>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24">
-        <v>10</v>
-      </c>
-      <c r="T17" s="24"/>
-      <c r="U17" s="24"/>
-      <c r="V17" s="24"/>
-      <c r="W17" s="24"/>
-      <c r="X17" s="24"/>
-      <c r="Y17" s="24"/>
-      <c r="Z17" s="21"/>
-      <c r="AA17" s="7"/>
-      <c r="AB17" s="10"/>
-    </row>
-    <row r="18" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="23">
-        <v>6</v>
-      </c>
-      <c r="E18" s="24"/>
-      <c r="F18" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="24"/>
-      <c r="T18" s="24"/>
-      <c r="U18" s="24"/>
-      <c r="V18" s="24"/>
-      <c r="W18" s="24"/>
-      <c r="X18" s="24"/>
-      <c r="Y18" s="24"/>
-      <c r="Z18" s="21"/>
-      <c r="AA18" s="7"/>
-      <c r="AB18" s="10"/>
-    </row>
-    <row r="19" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="23">
-        <v>7</v>
-      </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24">
-        <v>7.75</v>
-      </c>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="24"/>
-      <c r="T19" s="24"/>
-      <c r="U19" s="24"/>
-      <c r="V19" s="24"/>
-      <c r="W19" s="24"/>
-      <c r="X19" s="24"/>
-      <c r="Y19" s="24"/>
-      <c r="Z19" s="21"/>
-      <c r="AA19" s="7"/>
-      <c r="AB19" s="10"/>
-    </row>
-    <row r="20" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="23">
-        <v>8</v>
-      </c>
-      <c r="E20" s="24"/>
-      <c r="F20" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24">
-        <v>7</v>
-      </c>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="24">
-        <v>10</v>
-      </c>
-      <c r="T20" s="24"/>
-      <c r="U20" s="24"/>
-      <c r="V20" s="24"/>
-      <c r="W20" s="24"/>
-      <c r="X20" s="24"/>
-      <c r="Y20" s="24"/>
-      <c r="Z20" s="21"/>
-      <c r="AA20" s="7"/>
-      <c r="AB20" s="10"/>
-    </row>
-    <row r="21" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="23">
-        <v>9</v>
-      </c>
-      <c r="E21" s="24"/>
-      <c r="F21" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24">
-        <v>10</v>
-      </c>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="24"/>
-      <c r="U21" s="24"/>
-      <c r="V21" s="24"/>
-      <c r="W21" s="24"/>
-      <c r="X21" s="24"/>
-      <c r="Y21" s="24"/>
-      <c r="Z21" s="21"/>
-      <c r="AA21" s="7"/>
-      <c r="AB21" s="10"/>
-    </row>
-    <row r="22" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="23">
-        <v>10</v>
-      </c>
-      <c r="E22" s="24"/>
-      <c r="F22" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="24"/>
-      <c r="V22" s="24"/>
-      <c r="W22" s="24"/>
-      <c r="X22" s="24"/>
-      <c r="Y22" s="24"/>
-      <c r="Z22" s="21"/>
-      <c r="AA22" s="7"/>
-      <c r="AB22" s="10"/>
-    </row>
-    <row r="23" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="23">
-        <v>11</v>
-      </c>
-      <c r="E23" s="24"/>
-      <c r="F23" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="24"/>
-      <c r="U23" s="24"/>
-      <c r="V23" s="24"/>
-      <c r="W23" s="24"/>
-      <c r="X23" s="24"/>
-      <c r="Y23" s="24"/>
-      <c r="Z23" s="21"/>
-      <c r="AA23" s="7"/>
-      <c r="AB23" s="10"/>
-    </row>
-    <row r="24" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="23">
-        <v>12</v>
-      </c>
-      <c r="E24" s="24"/>
-      <c r="F24" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24">
-        <v>5</v>
-      </c>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="24"/>
-      <c r="S24" s="24"/>
-      <c r="T24" s="24"/>
-      <c r="U24" s="24"/>
-      <c r="V24" s="24"/>
-      <c r="W24" s="24"/>
-      <c r="X24" s="24"/>
-      <c r="Y24" s="24"/>
-      <c r="Z24" s="21"/>
-      <c r="AA24" s="7"/>
-      <c r="AB24" s="10"/>
-    </row>
-    <row r="25" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="23">
-        <v>13</v>
-      </c>
-      <c r="E25" s="24"/>
-      <c r="F25" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24">
-        <v>10</v>
-      </c>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
-      <c r="S25" s="24"/>
-      <c r="T25" s="24"/>
-      <c r="U25" s="24"/>
-      <c r="V25" s="24"/>
-      <c r="W25" s="24"/>
-      <c r="X25" s="24"/>
-      <c r="Y25" s="24"/>
-      <c r="Z25" s="21"/>
-      <c r="AA25" s="7"/>
-      <c r="AB25" s="10"/>
-    </row>
-    <row r="26" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="23">
-        <v>14</v>
-      </c>
-      <c r="E26" s="24"/>
-      <c r="F26" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24">
-        <v>10</v>
-      </c>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="24"/>
-      <c r="S26" s="24"/>
-      <c r="T26" s="24"/>
-      <c r="U26" s="24"/>
-      <c r="V26" s="24"/>
-      <c r="W26" s="24"/>
-      <c r="X26" s="24"/>
-      <c r="Y26" s="24"/>
-      <c r="Z26" s="21"/>
-      <c r="AA26" s="7"/>
-      <c r="AB26" s="10"/>
-    </row>
-    <row r="27" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="23">
-        <v>15</v>
-      </c>
-      <c r="E27" s="24"/>
-      <c r="F27" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="30">
-        <v>7</v>
-      </c>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="24"/>
-      <c r="S27" s="24"/>
-      <c r="T27" s="24"/>
-      <c r="U27" s="24"/>
-      <c r="V27" s="24"/>
-      <c r="W27" s="24"/>
-      <c r="X27" s="24"/>
-      <c r="Y27" s="24"/>
-      <c r="Z27" s="21"/>
-      <c r="AA27" s="7"/>
-      <c r="AB27" s="10"/>
-    </row>
-    <row r="28" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="23">
-        <v>16</v>
-      </c>
-      <c r="E28" s="24"/>
-      <c r="F28" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24">
-        <v>7</v>
-      </c>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="24"/>
-      <c r="S28" s="24"/>
-      <c r="T28" s="24"/>
-      <c r="U28" s="24"/>
-      <c r="V28" s="24"/>
-      <c r="W28" s="24"/>
-      <c r="X28" s="24"/>
-      <c r="Y28" s="24"/>
-      <c r="Z28" s="21"/>
-      <c r="AA28" s="7"/>
-      <c r="AB28" s="10"/>
-    </row>
-    <row r="29" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="23">
-        <v>17</v>
-      </c>
-      <c r="E29" s="24"/>
-      <c r="F29" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="24">
-        <v>5</v>
-      </c>
-      <c r="P29" s="24"/>
-      <c r="Q29" s="24"/>
-      <c r="R29" s="24"/>
-      <c r="S29" s="24"/>
-      <c r="T29" s="24"/>
-      <c r="U29" s="24"/>
-      <c r="V29" s="24"/>
-      <c r="W29" s="24"/>
-      <c r="X29" s="24"/>
-      <c r="Y29" s="24"/>
-      <c r="Z29" s="21"/>
-      <c r="AA29" s="7"/>
-      <c r="AB29" s="10"/>
-    </row>
-    <row r="30" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="23">
-        <v>18</v>
-      </c>
-      <c r="E30" s="24"/>
-      <c r="F30" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="24"/>
-      <c r="O30" s="24">
-        <v>7</v>
-      </c>
-      <c r="P30" s="24"/>
-      <c r="Q30" s="24"/>
-      <c r="R30" s="24"/>
-      <c r="S30" s="24"/>
-      <c r="T30" s="24"/>
-      <c r="U30" s="24"/>
-      <c r="V30" s="24"/>
-      <c r="W30" s="24"/>
-      <c r="X30" s="24"/>
-      <c r="Y30" s="24"/>
-      <c r="Z30" s="21"/>
-      <c r="AA30" s="7"/>
-      <c r="AB30" s="10"/>
-    </row>
-    <row r="31" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="23">
-        <v>19</v>
-      </c>
-      <c r="E31" s="24"/>
-      <c r="F31" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="24"/>
-      <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
-      <c r="R31" s="24"/>
-      <c r="S31" s="24"/>
-      <c r="T31" s="24"/>
-      <c r="U31" s="24"/>
-      <c r="V31" s="24"/>
-      <c r="W31" s="24"/>
-      <c r="X31" s="24"/>
-      <c r="Y31" s="24"/>
-      <c r="Z31" s="21"/>
-      <c r="AA31" s="7"/>
-      <c r="AB31" s="10"/>
-    </row>
-    <row r="32" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="23">
-        <v>20</v>
-      </c>
-      <c r="E32" s="24"/>
-      <c r="F32" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="24"/>
-      <c r="O32" s="24">
-        <v>9.75</v>
-      </c>
-      <c r="P32" s="24"/>
-      <c r="Q32" s="24"/>
-      <c r="R32" s="24"/>
-      <c r="S32" s="24"/>
-      <c r="T32" s="24"/>
-      <c r="U32" s="24"/>
-      <c r="V32" s="24"/>
-      <c r="W32" s="24"/>
-      <c r="X32" s="24"/>
-      <c r="Y32" s="24"/>
-      <c r="Z32" s="21"/>
-      <c r="AA32" s="7"/>
-      <c r="AB32" s="10"/>
-    </row>
-    <row r="33" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="23">
-        <v>21</v>
-      </c>
-      <c r="E33" s="24"/>
-      <c r="F33" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="24"/>
-      <c r="O33" s="24">
-        <v>4</v>
-      </c>
-      <c r="P33" s="24"/>
-      <c r="Q33" s="24"/>
-      <c r="R33" s="24"/>
-      <c r="S33" s="24"/>
-      <c r="T33" s="24"/>
-      <c r="U33" s="24"/>
-      <c r="V33" s="24"/>
-      <c r="W33" s="24"/>
-      <c r="X33" s="24"/>
-      <c r="Y33" s="24"/>
-      <c r="Z33" s="21"/>
-      <c r="AA33" s="7"/>
-      <c r="AB33" s="10"/>
-    </row>
-    <row r="34" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="23">
-        <v>22</v>
-      </c>
-      <c r="E34" s="24"/>
-      <c r="F34" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="24"/>
-      <c r="O34" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="P34" s="24"/>
-      <c r="Q34" s="24"/>
-      <c r="R34" s="24"/>
-      <c r="S34" s="24"/>
-      <c r="T34" s="24"/>
-      <c r="U34" s="24"/>
-      <c r="V34" s="24"/>
-      <c r="W34" s="24"/>
-      <c r="X34" s="24"/>
-      <c r="Y34" s="24"/>
-      <c r="Z34" s="21"/>
-      <c r="AA34" s="7"/>
-      <c r="AB34" s="10"/>
-    </row>
-    <row r="35" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="23">
-        <v>23</v>
-      </c>
-      <c r="E35" s="24"/>
-      <c r="F35" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="33"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="24"/>
-      <c r="N35" s="24"/>
-      <c r="O35" s="24">
-        <v>9.85</v>
-      </c>
-      <c r="P35" s="24"/>
-      <c r="Q35" s="24"/>
-      <c r="R35" s="24"/>
-      <c r="S35" s="24">
-        <v>10</v>
-      </c>
-      <c r="T35" s="24"/>
-      <c r="U35" s="24"/>
-      <c r="V35" s="24"/>
-      <c r="W35" s="24"/>
-      <c r="X35" s="24"/>
-      <c r="Y35" s="24"/>
-      <c r="Z35" s="21"/>
-      <c r="AA35" s="7"/>
-      <c r="AB35" s="10"/>
-    </row>
-    <row r="36" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="23">
-        <v>24</v>
-      </c>
-      <c r="E36" s="24"/>
-      <c r="F36" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="24"/>
-      <c r="M36" s="24"/>
-      <c r="N36" s="24"/>
-      <c r="O36" s="30">
-        <v>5</v>
-      </c>
-      <c r="P36" s="24"/>
-      <c r="Q36" s="24"/>
-      <c r="R36" s="24"/>
-      <c r="S36" s="24"/>
-      <c r="T36" s="24"/>
-      <c r="U36" s="24"/>
-      <c r="V36" s="24"/>
-      <c r="W36" s="24"/>
-      <c r="X36" s="24"/>
-      <c r="Y36" s="24"/>
-      <c r="Z36" s="21"/>
-      <c r="AA36" s="7"/>
-      <c r="AB36" s="10"/>
-    </row>
-    <row r="37" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="23">
-        <v>25</v>
-      </c>
-      <c r="E37" s="24"/>
-      <c r="F37" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="24"/>
-      <c r="N37" s="24"/>
-      <c r="O37" s="24">
-        <v>6</v>
-      </c>
-      <c r="P37" s="24"/>
-      <c r="Q37" s="24"/>
-      <c r="R37" s="24"/>
-      <c r="S37" s="24"/>
-      <c r="T37" s="24"/>
-      <c r="U37" s="24"/>
-      <c r="V37" s="24"/>
-      <c r="W37" s="24"/>
-      <c r="X37" s="24"/>
-      <c r="Y37" s="24"/>
-      <c r="Z37" s="21"/>
-      <c r="AA37" s="7"/>
-      <c r="AB37" s="10"/>
-    </row>
-    <row r="38" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="23">
-        <v>26</v>
-      </c>
-      <c r="E38" s="24"/>
-      <c r="F38" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="33"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="24"/>
-      <c r="N38" s="24"/>
-      <c r="O38" s="24">
-        <v>9</v>
-      </c>
-      <c r="P38" s="24"/>
-      <c r="Q38" s="24"/>
-      <c r="R38" s="24"/>
-      <c r="S38" s="24"/>
-      <c r="T38" s="24"/>
-      <c r="U38" s="24"/>
-      <c r="V38" s="24"/>
-      <c r="W38" s="24"/>
-      <c r="X38" s="24"/>
-      <c r="Y38" s="24"/>
-      <c r="Z38" s="21"/>
-      <c r="AA38" s="7"/>
-      <c r="AB38" s="10"/>
-    </row>
-    <row r="39" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="23">
-        <v>27</v>
-      </c>
-      <c r="E39" s="24"/>
-      <c r="F39" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="33"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="24"/>
-      <c r="N39" s="24"/>
-      <c r="O39" s="24">
-        <v>6</v>
-      </c>
-      <c r="P39" s="24"/>
-      <c r="Q39" s="24"/>
-      <c r="R39" s="24"/>
-      <c r="S39" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="T39" s="24"/>
-      <c r="U39" s="24"/>
-      <c r="V39" s="24"/>
-      <c r="W39" s="24"/>
-      <c r="X39" s="24"/>
-      <c r="Y39" s="24"/>
-      <c r="Z39" s="21"/>
-      <c r="AA39" s="7"/>
-      <c r="AB39" s="10"/>
-    </row>
-    <row r="40" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="23">
-        <v>28</v>
-      </c>
-      <c r="E40" s="24"/>
-      <c r="F40" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="G40" s="32"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="33"/>
-      <c r="L40" s="24"/>
-      <c r="M40" s="24"/>
-      <c r="N40" s="24"/>
-      <c r="O40" s="24">
-        <v>7</v>
-      </c>
-      <c r="P40" s="24"/>
-      <c r="Q40" s="24"/>
-      <c r="R40" s="24"/>
-      <c r="S40" s="24"/>
-      <c r="T40" s="24"/>
-      <c r="U40" s="24"/>
-      <c r="V40" s="24"/>
-      <c r="W40" s="24"/>
-      <c r="X40" s="24"/>
-      <c r="Y40" s="24"/>
-      <c r="Z40" s="21"/>
-      <c r="AA40" s="7"/>
-      <c r="AB40" s="10"/>
-    </row>
-    <row r="41" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="23">
-        <v>29</v>
-      </c>
-      <c r="E41" s="24"/>
-      <c r="F41" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="G41" s="32"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24"/>
-      <c r="K41" s="33"/>
-      <c r="L41" s="24"/>
-      <c r="M41" s="24"/>
-      <c r="N41" s="24"/>
-      <c r="O41" s="24"/>
-      <c r="P41" s="24"/>
-      <c r="Q41" s="24"/>
-      <c r="R41" s="24"/>
-      <c r="S41" s="24"/>
-      <c r="T41" s="24"/>
-      <c r="U41" s="24"/>
-      <c r="V41" s="24"/>
-      <c r="W41" s="24"/>
-      <c r="X41" s="24"/>
-      <c r="Y41" s="24"/>
-      <c r="Z41" s="21"/>
-      <c r="AA41" s="7"/>
-      <c r="AB41" s="10"/>
-    </row>
-    <row r="42" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="25"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="23">
-        <v>30</v>
-      </c>
-      <c r="E42" s="24"/>
-      <c r="F42" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="24"/>
-      <c r="K42" s="34"/>
-      <c r="L42" s="24"/>
-      <c r="M42" s="24"/>
-      <c r="N42" s="24"/>
-      <c r="O42" s="24">
-        <v>7</v>
-      </c>
-      <c r="P42" s="24"/>
-      <c r="Q42" s="24"/>
-      <c r="R42" s="24"/>
-      <c r="S42" s="24"/>
-      <c r="T42" s="24"/>
-      <c r="U42" s="24"/>
-      <c r="V42" s="24"/>
-      <c r="W42" s="24"/>
-      <c r="X42" s="24"/>
-      <c r="Y42" s="24"/>
-      <c r="Z42" s="28"/>
-      <c r="AA42" s="26"/>
-      <c r="AB42" s="29"/>
+      <c r="P42" s="26"/>
+      <c r="Q42" s="26"/>
+      <c r="R42" s="26"/>
+      <c r="S42" t="s" s="30">
+        <v>59</v>
+      </c>
+      <c r="T42" s="26"/>
+      <c r="U42" s="26"/>
+      <c r="V42" s="26"/>
+      <c r="W42" s="26"/>
+      <c r="X42" s="26"/>
+      <c r="Y42" s="26"/>
+      <c r="Z42" s="35"/>
+      <c r="AA42" s="32"/>
+      <c r="AB42" s="36"/>
+    </row>
+    <row r="43" ht="13.7" customHeight="1">
+      <c r="A43" s="37"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="41"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="26"/>
+      <c r="N43" s="26"/>
+      <c r="O43" s="26"/>
+      <c r="P43" s="26"/>
+      <c r="Q43" s="26"/>
+      <c r="R43" s="26"/>
+      <c r="S43" s="26"/>
+      <c r="T43" s="26"/>
+      <c r="U43" s="26"/>
+      <c r="V43" s="26"/>
+      <c r="W43" s="26"/>
+      <c r="X43" s="26"/>
+      <c r="Y43" s="26"/>
+      <c r="Z43" s="42"/>
+      <c r="AA43" s="38"/>
+      <c r="AB43" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="39">
     <mergeCell ref="K12:K42"/>
     <mergeCell ref="B2:D3"/>
     <mergeCell ref="G2:I2"/>
@@ -3301,9 +3479,10 @@
     <mergeCell ref="F38:H38"/>
     <mergeCell ref="F39:H39"/>
     <mergeCell ref="F40:H40"/>
+    <mergeCell ref="F43:H43"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="1" footer="1"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/Resources/30434.xlsx
+++ b/Resources/30434.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
   <si>
     <t>Facultatea -</t>
   </si>
@@ -88,10 +88,16 @@
     <t>Lab 14</t>
   </si>
   <si>
+    <t>Extra p</t>
+  </si>
+  <si>
     <t>Baias Ioan Nicolae</t>
   </si>
   <si>
     <t>Balas Andrei Ioan</t>
+  </si>
+  <si>
+    <t>0.5</t>
   </si>
   <si>
     <t>Baraian Tudor-Stefan</t>
@@ -578,7 +584,7 @@
       </left>
       <right/>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
@@ -2181,7 +2187,7 @@
       <c r="W11" s="11"/>
       <c r="X11" s="11"/>
       <c r="Y11" s="11"/>
-      <c r="Z11" s="7"/>
+      <c r="Z11" s="11"/>
       <c r="AA11" s="7"/>
       <c r="AB11" s="9"/>
     </row>
@@ -2247,8 +2253,10 @@
       <c r="Y12" t="s" s="22">
         <v>24</v>
       </c>
-      <c r="Z12" s="23"/>
-      <c r="AA12" s="7"/>
+      <c r="Z12" t="s" s="22">
+        <v>25</v>
+      </c>
+      <c r="AA12" s="23"/>
       <c r="AB12" s="9"/>
     </row>
     <row r="13" ht="13.7" customHeight="1">
@@ -2260,7 +2268,7 @@
       </c>
       <c r="E13" s="26"/>
       <c r="F13" t="s" s="27">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
@@ -2283,8 +2291,8 @@
       <c r="W13" s="26"/>
       <c r="X13" s="26"/>
       <c r="Y13" s="26"/>
-      <c r="Z13" s="23"/>
-      <c r="AA13" s="7"/>
+      <c r="Z13" s="26"/>
+      <c r="AA13" s="23"/>
       <c r="AB13" s="9"/>
     </row>
     <row r="14" ht="13.7" customHeight="1">
@@ -2296,7 +2304,7 @@
       </c>
       <c r="E14" s="26"/>
       <c r="F14" t="s" s="27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
@@ -2321,8 +2329,10 @@
       <c r="W14" s="26"/>
       <c r="X14" s="26"/>
       <c r="Y14" s="26"/>
-      <c r="Z14" s="23"/>
-      <c r="AA14" s="7"/>
+      <c r="Z14" t="s" s="30">
+        <v>28</v>
+      </c>
+      <c r="AA14" s="23"/>
       <c r="AB14" s="9"/>
     </row>
     <row r="15" ht="13.7" customHeight="1">
@@ -2334,7 +2344,7 @@
       </c>
       <c r="E15" s="26"/>
       <c r="F15" t="s" s="27">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G15" s="28"/>
       <c r="H15" s="28"/>
@@ -2359,8 +2369,8 @@
       <c r="W15" s="26"/>
       <c r="X15" s="26"/>
       <c r="Y15" s="26"/>
-      <c r="Z15" s="23"/>
-      <c r="AA15" s="7"/>
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="23"/>
       <c r="AB15" s="9"/>
     </row>
     <row r="16" ht="13.65" customHeight="1">
@@ -2372,7 +2382,7 @@
       </c>
       <c r="E16" s="26"/>
       <c r="F16" t="s" s="27">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
@@ -2397,8 +2407,10 @@
       <c r="W16" s="26"/>
       <c r="X16" s="26"/>
       <c r="Y16" s="26"/>
-      <c r="Z16" s="23"/>
-      <c r="AA16" s="7"/>
+      <c r="Z16" t="s" s="30">
+        <v>28</v>
+      </c>
+      <c r="AA16" s="23"/>
       <c r="AB16" s="9"/>
     </row>
     <row r="17" ht="13.7" customHeight="1">
@@ -2410,7 +2422,7 @@
       </c>
       <c r="E17" s="26"/>
       <c r="F17" t="s" s="27">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G17" s="28"/>
       <c r="H17" s="28"/>
@@ -2435,8 +2447,8 @@
       <c r="W17" s="26"/>
       <c r="X17" s="26"/>
       <c r="Y17" s="26"/>
-      <c r="Z17" s="23"/>
-      <c r="AA17" s="7"/>
+      <c r="Z17" s="26"/>
+      <c r="AA17" s="23"/>
       <c r="AB17" s="9"/>
     </row>
     <row r="18" ht="13.7" customHeight="1">
@@ -2448,7 +2460,7 @@
       </c>
       <c r="E18" s="26"/>
       <c r="F18" t="s" s="27">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
@@ -2463,7 +2475,7 @@
       <c r="Q18" s="26"/>
       <c r="R18" s="26"/>
       <c r="S18" t="s" s="30">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T18" s="26"/>
       <c r="U18" s="26"/>
@@ -2471,8 +2483,8 @@
       <c r="W18" s="26"/>
       <c r="X18" s="26"/>
       <c r="Y18" s="26"/>
-      <c r="Z18" s="23"/>
-      <c r="AA18" s="7"/>
+      <c r="Z18" s="26"/>
+      <c r="AA18" s="23"/>
       <c r="AB18" s="9"/>
     </row>
     <row r="19" ht="13.7" customHeight="1">
@@ -2484,7 +2496,7 @@
       </c>
       <c r="E19" s="26"/>
       <c r="F19" t="s" s="27">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G19" s="28"/>
       <c r="H19" s="28"/>
@@ -2501,7 +2513,7 @@
       <c r="Q19" s="26"/>
       <c r="R19" s="26"/>
       <c r="S19" t="s" s="30">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T19" s="26"/>
       <c r="U19" s="26"/>
@@ -2509,8 +2521,10 @@
       <c r="W19" s="26"/>
       <c r="X19" s="26"/>
       <c r="Y19" s="26"/>
-      <c r="Z19" s="23"/>
-      <c r="AA19" s="7"/>
+      <c r="Z19" t="s" s="30">
+        <v>28</v>
+      </c>
+      <c r="AA19" s="23"/>
       <c r="AB19" s="9"/>
     </row>
     <row r="20" ht="13.7" customHeight="1">
@@ -2522,7 +2536,7 @@
       </c>
       <c r="E20" s="26"/>
       <c r="F20" t="s" s="27">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G20" s="28"/>
       <c r="H20" s="28"/>
@@ -2547,8 +2561,10 @@
       <c r="W20" s="26"/>
       <c r="X20" s="26"/>
       <c r="Y20" s="26"/>
-      <c r="Z20" s="23"/>
-      <c r="AA20" s="7"/>
+      <c r="Z20" t="s" s="30">
+        <v>28</v>
+      </c>
+      <c r="AA20" s="23"/>
       <c r="AB20" s="9"/>
     </row>
     <row r="21" ht="13.7" customHeight="1">
@@ -2560,7 +2576,7 @@
       </c>
       <c r="E21" s="26"/>
       <c r="F21" t="s" s="27">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G21" s="28"/>
       <c r="H21" s="28"/>
@@ -2585,8 +2601,10 @@
       <c r="W21" s="26"/>
       <c r="X21" s="26"/>
       <c r="Y21" s="26"/>
-      <c r="Z21" s="23"/>
-      <c r="AA21" s="7"/>
+      <c r="Z21" t="s" s="30">
+        <v>28</v>
+      </c>
+      <c r="AA21" s="23"/>
       <c r="AB21" s="9"/>
     </row>
     <row r="22" ht="13.7" customHeight="1">
@@ -2598,7 +2616,7 @@
       </c>
       <c r="E22" s="26"/>
       <c r="F22" t="s" s="27">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G22" s="28"/>
       <c r="H22" s="28"/>
@@ -2619,8 +2637,8 @@
       <c r="W22" s="26"/>
       <c r="X22" s="26"/>
       <c r="Y22" s="26"/>
-      <c r="Z22" s="23"/>
-      <c r="AA22" s="7"/>
+      <c r="Z22" s="26"/>
+      <c r="AA22" s="23"/>
       <c r="AB22" s="9"/>
     </row>
     <row r="23" ht="13.7" customHeight="1">
@@ -2632,7 +2650,7 @@
       </c>
       <c r="E23" s="26"/>
       <c r="F23" t="s" s="27">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G23" s="28"/>
       <c r="H23" s="28"/>
@@ -2653,8 +2671,8 @@
       <c r="W23" s="26"/>
       <c r="X23" s="26"/>
       <c r="Y23" s="26"/>
-      <c r="Z23" s="23"/>
-      <c r="AA23" s="7"/>
+      <c r="Z23" s="26"/>
+      <c r="AA23" s="23"/>
       <c r="AB23" s="9"/>
     </row>
     <row r="24" ht="13.7" customHeight="1">
@@ -2666,7 +2684,7 @@
       </c>
       <c r="E24" s="26"/>
       <c r="F24" t="s" s="27">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G24" s="28"/>
       <c r="H24" s="28"/>
@@ -2691,8 +2709,10 @@
       <c r="W24" s="26"/>
       <c r="X24" s="26"/>
       <c r="Y24" s="26"/>
-      <c r="Z24" s="23"/>
-      <c r="AA24" s="7"/>
+      <c r="Z24" t="s" s="30">
+        <v>28</v>
+      </c>
+      <c r="AA24" s="23"/>
       <c r="AB24" s="9"/>
     </row>
     <row r="25" ht="13.7" customHeight="1">
@@ -2704,7 +2724,7 @@
       </c>
       <c r="E25" s="26"/>
       <c r="F25" t="s" s="27">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G25" s="28"/>
       <c r="H25" s="28"/>
@@ -2727,8 +2747,8 @@
       <c r="W25" s="26"/>
       <c r="X25" s="26"/>
       <c r="Y25" s="26"/>
-      <c r="Z25" s="23"/>
-      <c r="AA25" s="7"/>
+      <c r="Z25" s="26"/>
+      <c r="AA25" s="23"/>
       <c r="AB25" s="9"/>
     </row>
     <row r="26" ht="13.7" customHeight="1">
@@ -2740,7 +2760,7 @@
       </c>
       <c r="E26" s="26"/>
       <c r="F26" t="s" s="27">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G26" s="28"/>
       <c r="H26" s="28"/>
@@ -2765,8 +2785,8 @@
       <c r="W26" s="26"/>
       <c r="X26" s="26"/>
       <c r="Y26" s="26"/>
-      <c r="Z26" s="23"/>
-      <c r="AA26" s="7"/>
+      <c r="Z26" s="26"/>
+      <c r="AA26" s="23"/>
       <c r="AB26" s="9"/>
     </row>
     <row r="27" ht="13.7" customHeight="1">
@@ -2778,7 +2798,7 @@
       </c>
       <c r="E27" s="26"/>
       <c r="F27" t="s" s="27">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G27" s="28"/>
       <c r="H27" s="28"/>
@@ -2803,8 +2823,10 @@
       <c r="W27" s="26"/>
       <c r="X27" s="26"/>
       <c r="Y27" s="26"/>
-      <c r="Z27" s="23"/>
-      <c r="AA27" s="7"/>
+      <c r="Z27" t="s" s="30">
+        <v>28</v>
+      </c>
+      <c r="AA27" s="23"/>
       <c r="AB27" s="9"/>
     </row>
     <row r="28" ht="13.7" customHeight="1">
@@ -2816,7 +2838,7 @@
       </c>
       <c r="E28" s="26"/>
       <c r="F28" t="s" s="27">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G28" s="28"/>
       <c r="H28" s="28"/>
@@ -2839,8 +2861,8 @@
       <c r="W28" s="26"/>
       <c r="X28" s="26"/>
       <c r="Y28" s="26"/>
-      <c r="Z28" s="23"/>
-      <c r="AA28" s="7"/>
+      <c r="Z28" s="26"/>
+      <c r="AA28" s="23"/>
       <c r="AB28" s="9"/>
     </row>
     <row r="29" ht="13.7" customHeight="1">
@@ -2852,7 +2874,7 @@
       </c>
       <c r="E29" s="26"/>
       <c r="F29" t="s" s="27">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G29" s="28"/>
       <c r="H29" s="28"/>
@@ -2869,7 +2891,7 @@
       <c r="Q29" s="26"/>
       <c r="R29" s="26"/>
       <c r="S29" t="s" s="30">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T29" s="26"/>
       <c r="U29" s="26"/>
@@ -2877,8 +2899,8 @@
       <c r="W29" s="26"/>
       <c r="X29" s="26"/>
       <c r="Y29" s="26"/>
-      <c r="Z29" s="23"/>
-      <c r="AA29" s="7"/>
+      <c r="Z29" s="26"/>
+      <c r="AA29" s="23"/>
       <c r="AB29" s="9"/>
     </row>
     <row r="30" ht="13.7" customHeight="1">
@@ -2890,7 +2912,7 @@
       </c>
       <c r="E30" s="26"/>
       <c r="F30" t="s" s="27">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G30" s="28"/>
       <c r="H30" s="28"/>
@@ -2915,8 +2937,8 @@
       <c r="W30" s="26"/>
       <c r="X30" s="26"/>
       <c r="Y30" s="26"/>
-      <c r="Z30" s="23"/>
-      <c r="AA30" s="7"/>
+      <c r="Z30" s="26"/>
+      <c r="AA30" s="23"/>
       <c r="AB30" s="9"/>
     </row>
     <row r="31" ht="13.7" customHeight="1">
@@ -2928,7 +2950,7 @@
       </c>
       <c r="E31" s="26"/>
       <c r="F31" t="s" s="27">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G31" s="28"/>
       <c r="H31" s="28"/>
@@ -2949,8 +2971,8 @@
       <c r="W31" s="26"/>
       <c r="X31" s="26"/>
       <c r="Y31" s="26"/>
-      <c r="Z31" s="23"/>
-      <c r="AA31" s="7"/>
+      <c r="Z31" s="26"/>
+      <c r="AA31" s="23"/>
       <c r="AB31" s="9"/>
     </row>
     <row r="32" ht="13.7" customHeight="1">
@@ -2962,7 +2984,7 @@
       </c>
       <c r="E32" s="26"/>
       <c r="F32" t="s" s="27">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G32" s="28"/>
       <c r="H32" s="28"/>
@@ -2985,8 +3007,10 @@
       <c r="W32" s="26"/>
       <c r="X32" s="26"/>
       <c r="Y32" s="26"/>
-      <c r="Z32" s="23"/>
-      <c r="AA32" s="7"/>
+      <c r="Z32" t="s" s="30">
+        <v>28</v>
+      </c>
+      <c r="AA32" s="23"/>
       <c r="AB32" s="9"/>
     </row>
     <row r="33" ht="13.7" customHeight="1">
@@ -2998,7 +3022,7 @@
       </c>
       <c r="E33" s="26"/>
       <c r="F33" t="s" s="27">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G33" s="28"/>
       <c r="H33" s="28"/>
@@ -3047,8 +3071,8 @@
       <c r="Y33" s="29">
         <v>5</v>
       </c>
-      <c r="Z33" s="23"/>
-      <c r="AA33" s="7"/>
+      <c r="Z33" s="26"/>
+      <c r="AA33" s="23"/>
       <c r="AB33" s="9"/>
     </row>
     <row r="34" ht="13.7" customHeight="1">
@@ -3060,7 +3084,7 @@
       </c>
       <c r="E34" s="26"/>
       <c r="F34" t="s" s="27">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G34" s="28"/>
       <c r="H34" s="28"/>
@@ -3109,8 +3133,8 @@
       <c r="Y34" s="29">
         <v>5</v>
       </c>
-      <c r="Z34" s="23"/>
-      <c r="AA34" s="7"/>
+      <c r="Z34" s="26"/>
+      <c r="AA34" s="23"/>
       <c r="AB34" s="9"/>
     </row>
     <row r="35" ht="13.7" customHeight="1">
@@ -3122,7 +3146,7 @@
       </c>
       <c r="E35" s="26"/>
       <c r="F35" t="s" s="27">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G35" s="28"/>
       <c r="H35" s="28"/>
@@ -3147,8 +3171,8 @@
       <c r="W35" s="26"/>
       <c r="X35" s="26"/>
       <c r="Y35" s="26"/>
-      <c r="Z35" s="23"/>
-      <c r="AA35" s="7"/>
+      <c r="Z35" s="26"/>
+      <c r="AA35" s="23"/>
       <c r="AB35" s="9"/>
     </row>
     <row r="36" ht="13.7" customHeight="1">
@@ -3160,7 +3184,7 @@
       </c>
       <c r="E36" s="26"/>
       <c r="F36" t="s" s="27">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G36" s="28"/>
       <c r="H36" s="28"/>
@@ -3183,8 +3207,10 @@
       <c r="W36" s="26"/>
       <c r="X36" s="26"/>
       <c r="Y36" s="26"/>
-      <c r="Z36" s="23"/>
-      <c r="AA36" s="7"/>
+      <c r="Z36" t="s" s="30">
+        <v>28</v>
+      </c>
+      <c r="AA36" s="23"/>
       <c r="AB36" s="9"/>
     </row>
     <row r="37" ht="13.7" customHeight="1">
@@ -3196,7 +3222,7 @@
       </c>
       <c r="E37" s="26"/>
       <c r="F37" t="s" s="27">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G37" s="28"/>
       <c r="H37" s="28"/>
@@ -3221,8 +3247,8 @@
       <c r="W37" s="26"/>
       <c r="X37" s="26"/>
       <c r="Y37" s="26"/>
-      <c r="Z37" s="23"/>
-      <c r="AA37" s="7"/>
+      <c r="Z37" s="26"/>
+      <c r="AA37" s="23"/>
       <c r="AB37" s="9"/>
     </row>
     <row r="38" ht="13.7" customHeight="1">
@@ -3234,7 +3260,7 @@
       </c>
       <c r="E38" s="26"/>
       <c r="F38" t="s" s="27">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G38" s="28"/>
       <c r="H38" s="28"/>
@@ -3257,8 +3283,8 @@
       <c r="W38" s="26"/>
       <c r="X38" s="26"/>
       <c r="Y38" s="26"/>
-      <c r="Z38" s="23"/>
-      <c r="AA38" s="7"/>
+      <c r="Z38" s="26"/>
+      <c r="AA38" s="23"/>
       <c r="AB38" s="9"/>
     </row>
     <row r="39" ht="13.7" customHeight="1">
@@ -3270,7 +3296,7 @@
       </c>
       <c r="E39" s="26"/>
       <c r="F39" t="s" s="27">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G39" s="28"/>
       <c r="H39" s="28"/>
@@ -3287,7 +3313,7 @@
       <c r="Q39" s="26"/>
       <c r="R39" s="26"/>
       <c r="S39" t="s" s="30">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T39" s="26"/>
       <c r="U39" s="26"/>
@@ -3295,8 +3321,8 @@
       <c r="W39" s="26"/>
       <c r="X39" s="26"/>
       <c r="Y39" s="26"/>
-      <c r="Z39" s="23"/>
-      <c r="AA39" s="7"/>
+      <c r="Z39" s="26"/>
+      <c r="AA39" s="23"/>
       <c r="AB39" s="9"/>
     </row>
     <row r="40" ht="13.7" customHeight="1">
@@ -3308,7 +3334,7 @@
       </c>
       <c r="E40" s="26"/>
       <c r="F40" t="s" s="27">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G40" s="28"/>
       <c r="H40" s="28"/>
@@ -3333,8 +3359,8 @@
       <c r="W40" s="26"/>
       <c r="X40" s="26"/>
       <c r="Y40" s="26"/>
-      <c r="Z40" s="23"/>
-      <c r="AA40" s="7"/>
+      <c r="Z40" s="26"/>
+      <c r="AA40" s="23"/>
       <c r="AB40" s="9"/>
     </row>
     <row r="41" ht="13.7" customHeight="1">
@@ -3346,7 +3372,7 @@
       </c>
       <c r="E41" s="26"/>
       <c r="F41" t="s" s="27">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G41" s="28"/>
       <c r="H41" s="28"/>
@@ -3367,8 +3393,10 @@
       <c r="W41" s="26"/>
       <c r="X41" s="26"/>
       <c r="Y41" s="26"/>
-      <c r="Z41" s="23"/>
-      <c r="AA41" s="7"/>
+      <c r="Z41" t="s" s="30">
+        <v>28</v>
+      </c>
+      <c r="AA41" s="23"/>
       <c r="AB41" s="9"/>
     </row>
     <row r="42" ht="13.7" customHeight="1">
@@ -3380,7 +3408,7 @@
       </c>
       <c r="E42" s="26"/>
       <c r="F42" t="s" s="27">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G42" s="28"/>
       <c r="H42" s="28"/>
@@ -3397,7 +3425,7 @@
       <c r="Q42" s="26"/>
       <c r="R42" s="26"/>
       <c r="S42" t="s" s="30">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T42" s="26"/>
       <c r="U42" s="26"/>
@@ -3405,8 +3433,8 @@
       <c r="W42" s="26"/>
       <c r="X42" s="26"/>
       <c r="Y42" s="26"/>
-      <c r="Z42" s="35"/>
-      <c r="AA42" s="32"/>
+      <c r="Z42" s="26"/>
+      <c r="AA42" s="35"/>
       <c r="AB42" s="36"/>
     </row>
     <row r="43" ht="13.7" customHeight="1">

--- a/Resources/30434.xlsx
+++ b/Resources/30434.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63">
   <si>
     <t>Facultatea -</t>
   </si>
@@ -181,6 +181,9 @@
     <t>Soponar Darius Cristian</t>
   </si>
   <si>
+    <t>???</t>
+  </si>
+  <si>
     <t>Stefanescu Radu</t>
   </si>
   <si>
@@ -196,7 +199,7 @@
     <t>Vaida Gabriel Darius</t>
   </si>
   <si>
-    <t>4, no tests</t>
+    <t>10</t>
   </si>
 </sst>
 </file>
@@ -2623,21 +2626,51 @@
       <c r="I22" s="26"/>
       <c r="J22" s="26"/>
       <c r="K22" s="21"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="26"/>
-      <c r="S22" s="26"/>
-      <c r="T22" s="26"/>
-      <c r="U22" s="26"/>
-      <c r="V22" s="26"/>
-      <c r="W22" s="26"/>
-      <c r="X22" s="26"/>
-      <c r="Y22" s="26"/>
-      <c r="Z22" s="26"/>
+      <c r="L22" s="29">
+        <v>5</v>
+      </c>
+      <c r="M22" s="29">
+        <v>5</v>
+      </c>
+      <c r="N22" s="29">
+        <v>5</v>
+      </c>
+      <c r="O22" s="29">
+        <v>5</v>
+      </c>
+      <c r="P22" s="29">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="29">
+        <v>5</v>
+      </c>
+      <c r="R22" s="29">
+        <v>5</v>
+      </c>
+      <c r="S22" s="29">
+        <v>5</v>
+      </c>
+      <c r="T22" s="29">
+        <v>5</v>
+      </c>
+      <c r="U22" s="29">
+        <v>5</v>
+      </c>
+      <c r="V22" s="29">
+        <v>5</v>
+      </c>
+      <c r="W22" s="29">
+        <v>5</v>
+      </c>
+      <c r="X22" s="29">
+        <v>5</v>
+      </c>
+      <c r="Y22" s="29">
+        <v>5</v>
+      </c>
+      <c r="Z22" s="29">
+        <v>5</v>
+      </c>
       <c r="AA22" s="23"/>
       <c r="AB22" s="9"/>
     </row>
@@ -2657,21 +2690,51 @@
       <c r="I23" s="26"/>
       <c r="J23" s="26"/>
       <c r="K23" s="21"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="26"/>
-      <c r="S23" s="26"/>
-      <c r="T23" s="26"/>
-      <c r="U23" s="26"/>
-      <c r="V23" s="26"/>
-      <c r="W23" s="26"/>
-      <c r="X23" s="26"/>
-      <c r="Y23" s="26"/>
-      <c r="Z23" s="26"/>
+      <c r="L23" s="29">
+        <v>5</v>
+      </c>
+      <c r="M23" s="29">
+        <v>5</v>
+      </c>
+      <c r="N23" s="29">
+        <v>5</v>
+      </c>
+      <c r="O23" s="29">
+        <v>5</v>
+      </c>
+      <c r="P23" s="29">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="29">
+        <v>5</v>
+      </c>
+      <c r="R23" s="29">
+        <v>5</v>
+      </c>
+      <c r="S23" s="29">
+        <v>5</v>
+      </c>
+      <c r="T23" s="29">
+        <v>5</v>
+      </c>
+      <c r="U23" s="29">
+        <v>5</v>
+      </c>
+      <c r="V23" s="29">
+        <v>5</v>
+      </c>
+      <c r="W23" s="29">
+        <v>5</v>
+      </c>
+      <c r="X23" s="29">
+        <v>5</v>
+      </c>
+      <c r="Y23" s="29">
+        <v>5</v>
+      </c>
+      <c r="Z23" s="29">
+        <v>5</v>
+      </c>
       <c r="AA23" s="23"/>
       <c r="AB23" s="9"/>
     </row>
@@ -2845,23 +2908,51 @@
       <c r="I28" s="26"/>
       <c r="J28" s="26"/>
       <c r="K28" s="21"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="26"/>
+      <c r="L28" s="29">
+        <v>5</v>
+      </c>
+      <c r="M28" s="29">
+        <v>5</v>
+      </c>
+      <c r="N28" s="29">
+        <v>5</v>
+      </c>
       <c r="O28" s="29">
-        <v>7</v>
-      </c>
-      <c r="P28" s="26"/>
-      <c r="Q28" s="26"/>
-      <c r="R28" s="26"/>
-      <c r="S28" s="26"/>
-      <c r="T28" s="26"/>
-      <c r="U28" s="26"/>
-      <c r="V28" s="26"/>
-      <c r="W28" s="26"/>
-      <c r="X28" s="26"/>
-      <c r="Y28" s="26"/>
-      <c r="Z28" s="26"/>
+        <v>5</v>
+      </c>
+      <c r="P28" s="29">
+        <v>5</v>
+      </c>
+      <c r="Q28" s="29">
+        <v>5</v>
+      </c>
+      <c r="R28" s="29">
+        <v>5</v>
+      </c>
+      <c r="S28" s="29">
+        <v>5</v>
+      </c>
+      <c r="T28" s="29">
+        <v>5</v>
+      </c>
+      <c r="U28" s="29">
+        <v>5</v>
+      </c>
+      <c r="V28" s="29">
+        <v>5</v>
+      </c>
+      <c r="W28" s="29">
+        <v>5</v>
+      </c>
+      <c r="X28" s="29">
+        <v>5</v>
+      </c>
+      <c r="Y28" s="29">
+        <v>5</v>
+      </c>
+      <c r="Z28" s="29">
+        <v>5</v>
+      </c>
       <c r="AA28" s="23"/>
       <c r="AB28" s="9"/>
     </row>
@@ -2964,7 +3055,9 @@
       <c r="P31" s="26"/>
       <c r="Q31" s="26"/>
       <c r="R31" s="26"/>
-      <c r="S31" s="26"/>
+      <c r="S31" s="29">
+        <v>10</v>
+      </c>
       <c r="T31" s="26"/>
       <c r="U31" s="26"/>
       <c r="V31" s="26"/>
@@ -3000,7 +3093,9 @@
       <c r="P32" s="26"/>
       <c r="Q32" s="26"/>
       <c r="R32" s="26"/>
-      <c r="S32" s="26"/>
+      <c r="S32" s="29">
+        <v>10</v>
+      </c>
       <c r="T32" s="26"/>
       <c r="U32" s="26"/>
       <c r="V32" s="26"/>
@@ -3200,7 +3295,9 @@
       <c r="P36" s="26"/>
       <c r="Q36" s="26"/>
       <c r="R36" s="26"/>
-      <c r="S36" s="26"/>
+      <c r="S36" s="29">
+        <v>7</v>
+      </c>
       <c r="T36" s="26"/>
       <c r="U36" s="26"/>
       <c r="V36" s="26"/>
@@ -3276,7 +3373,9 @@
       <c r="P38" s="26"/>
       <c r="Q38" s="26"/>
       <c r="R38" s="26"/>
-      <c r="S38" s="26"/>
+      <c r="S38" t="s" s="30">
+        <v>56</v>
+      </c>
       <c r="T38" s="26"/>
       <c r="U38" s="26"/>
       <c r="V38" s="26"/>
@@ -3296,7 +3395,7 @@
       </c>
       <c r="E39" s="26"/>
       <c r="F39" t="s" s="27">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G39" s="28"/>
       <c r="H39" s="28"/>
@@ -3313,7 +3412,7 @@
       <c r="Q39" s="26"/>
       <c r="R39" s="26"/>
       <c r="S39" t="s" s="30">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T39" s="26"/>
       <c r="U39" s="26"/>
@@ -3334,7 +3433,7 @@
       </c>
       <c r="E40" s="26"/>
       <c r="F40" t="s" s="27">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G40" s="28"/>
       <c r="H40" s="28"/>
@@ -3372,7 +3471,7 @@
       </c>
       <c r="E41" s="26"/>
       <c r="F41" t="s" s="27">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G41" s="28"/>
       <c r="H41" s="28"/>
@@ -3382,7 +3481,9 @@
       <c r="L41" s="26"/>
       <c r="M41" s="26"/>
       <c r="N41" s="26"/>
-      <c r="O41" s="26"/>
+      <c r="O41" s="29">
+        <v>10</v>
+      </c>
       <c r="P41" s="26"/>
       <c r="Q41" s="26"/>
       <c r="R41" s="26"/>
@@ -3408,7 +3509,7 @@
       </c>
       <c r="E42" s="26"/>
       <c r="F42" t="s" s="27">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G42" s="28"/>
       <c r="H42" s="28"/>
@@ -3425,7 +3526,7 @@
       <c r="Q42" s="26"/>
       <c r="R42" s="26"/>
       <c r="S42" t="s" s="30">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T42" s="26"/>
       <c r="U42" s="26"/>

--- a/Resources/30434.xlsx
+++ b/Resources/30434.xlsx
@@ -139,6 +139,9 @@
     <t>Giurgiu Anca-Maria</t>
   </si>
   <si>
+    <t>???</t>
+  </si>
+  <si>
     <t>Giuroiu Tudor</t>
   </si>
   <si>
@@ -179,9 +182,6 @@
   </si>
   <si>
     <t>Soponar Darius Cristian</t>
-  </si>
-  <si>
-    <t>???</t>
   </si>
   <si>
     <t>Stefanescu Radu</t>
@@ -2803,7 +2803,9 @@
       <c r="P25" s="26"/>
       <c r="Q25" s="26"/>
       <c r="R25" s="26"/>
-      <c r="S25" s="26"/>
+      <c r="S25" t="s" s="30">
+        <v>42</v>
+      </c>
       <c r="T25" s="26"/>
       <c r="U25" s="26"/>
       <c r="V25" s="26"/>
@@ -2823,7 +2825,7 @@
       </c>
       <c r="E26" s="26"/>
       <c r="F26" t="s" s="27">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G26" s="28"/>
       <c r="H26" s="28"/>
@@ -2861,7 +2863,7 @@
       </c>
       <c r="E27" s="26"/>
       <c r="F27" t="s" s="27">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G27" s="28"/>
       <c r="H27" s="28"/>
@@ -2901,7 +2903,7 @@
       </c>
       <c r="E28" s="26"/>
       <c r="F28" t="s" s="27">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G28" s="28"/>
       <c r="H28" s="28"/>
@@ -2965,7 +2967,7 @@
       </c>
       <c r="E29" s="26"/>
       <c r="F29" t="s" s="27">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G29" s="28"/>
       <c r="H29" s="28"/>
@@ -2982,7 +2984,7 @@
       <c r="Q29" s="26"/>
       <c r="R29" s="26"/>
       <c r="S29" t="s" s="30">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T29" s="26"/>
       <c r="U29" s="26"/>
@@ -3003,7 +3005,7 @@
       </c>
       <c r="E30" s="26"/>
       <c r="F30" t="s" s="27">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G30" s="28"/>
       <c r="H30" s="28"/>
@@ -3041,7 +3043,7 @@
       </c>
       <c r="E31" s="26"/>
       <c r="F31" t="s" s="27">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G31" s="28"/>
       <c r="H31" s="28"/>
@@ -3077,7 +3079,7 @@
       </c>
       <c r="E32" s="26"/>
       <c r="F32" t="s" s="27">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G32" s="28"/>
       <c r="H32" s="28"/>
@@ -3117,7 +3119,7 @@
       </c>
       <c r="E33" s="26"/>
       <c r="F33" t="s" s="27">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G33" s="28"/>
       <c r="H33" s="28"/>
@@ -3179,7 +3181,7 @@
       </c>
       <c r="E34" s="26"/>
       <c r="F34" t="s" s="27">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G34" s="28"/>
       <c r="H34" s="28"/>
@@ -3241,7 +3243,7 @@
       </c>
       <c r="E35" s="26"/>
       <c r="F35" t="s" s="27">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G35" s="28"/>
       <c r="H35" s="28"/>
@@ -3279,7 +3281,7 @@
       </c>
       <c r="E36" s="26"/>
       <c r="F36" t="s" s="27">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G36" s="28"/>
       <c r="H36" s="28"/>
@@ -3319,7 +3321,7 @@
       </c>
       <c r="E37" s="26"/>
       <c r="F37" t="s" s="27">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G37" s="28"/>
       <c r="H37" s="28"/>
@@ -3357,7 +3359,7 @@
       </c>
       <c r="E38" s="26"/>
       <c r="F38" t="s" s="27">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G38" s="28"/>
       <c r="H38" s="28"/>
@@ -3374,7 +3376,7 @@
       <c r="Q38" s="26"/>
       <c r="R38" s="26"/>
       <c r="S38" t="s" s="30">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="T38" s="26"/>
       <c r="U38" s="26"/>
@@ -3487,7 +3489,9 @@
       <c r="P41" s="26"/>
       <c r="Q41" s="26"/>
       <c r="R41" s="26"/>
-      <c r="S41" s="26"/>
+      <c r="S41" s="29">
+        <v>10</v>
+      </c>
       <c r="T41" s="26"/>
       <c r="U41" s="26"/>
       <c r="V41" s="26"/>

--- a/Resources/30434.xlsx
+++ b/Resources/30434.xlsx
@@ -2287,7 +2287,9 @@
       <c r="P13" s="26"/>
       <c r="Q13" s="26"/>
       <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
+      <c r="S13" s="29">
+        <v>10</v>
+      </c>
       <c r="T13" s="26"/>
       <c r="U13" s="26"/>
       <c r="V13" s="26"/>

--- a/Resources/30434.xlsx
+++ b/Resources/30434.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
   <si>
     <t>Facultatea -</t>
   </si>
@@ -85,7 +85,7 @@
     <t>Lab 13</t>
   </si>
   <si>
-    <t>Lab 14</t>
+    <t>proj (2)</t>
   </si>
   <si>
     <t>Extra p</t>
@@ -97,7 +97,7 @@
     <t>Balas Andrei Ioan</t>
   </si>
   <si>
-    <t>0.5</t>
+    <t>0,5</t>
   </si>
   <si>
     <t>Baraian Tudor-Stefan</t>
@@ -112,13 +112,16 @@
     <t>Bosoanca Cosmin - Florin</t>
   </si>
   <si>
+    <t>ABS</t>
+  </si>
+  <si>
     <t>4, no backend</t>
   </si>
   <si>
     <t>Bradea Maria Mihaela</t>
   </si>
   <si>
-    <t>10 (tests?)</t>
+    <t>10</t>
   </si>
   <si>
     <t>Cadar Stefan</t>
@@ -139,9 +142,6 @@
     <t>Giurgiu Anca-Maria</t>
   </si>
   <si>
-    <t>???</t>
-  </si>
-  <si>
     <t>Giuroiu Tudor</t>
   </si>
   <si>
@@ -154,7 +154,7 @@
     <t>Mercean Dragos</t>
   </si>
   <si>
-    <t>4 (incomplete)</t>
+    <t>4</t>
   </si>
   <si>
     <t>Mesesan Mara Irina</t>
@@ -187,7 +187,7 @@
     <t>Stefanescu Radu</t>
   </si>
   <si>
-    <t>9 so far</t>
+    <t>9</t>
   </si>
   <si>
     <t>Tataru Mihai</t>
@@ -197,17 +197,15 @@
   </si>
   <si>
     <t>Vaida Gabriel Darius</t>
-  </si>
-  <si>
-    <t>10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="59" formatCode="0.0"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -613,7 +611,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -700,6 +698,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
@@ -2275,19 +2276,24 @@
       </c>
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
+      <c r="I13" s="29">
+        <f>(O13+J13+S13)/3+Z13</f>
+        <v>9</v>
+      </c>
+      <c r="J13" s="30">
+        <v>10</v>
+      </c>
       <c r="K13" s="21"/>
       <c r="L13" s="26"/>
       <c r="M13" s="26"/>
       <c r="N13" s="26"/>
-      <c r="O13" s="29">
+      <c r="O13" s="30">
         <v>7</v>
       </c>
       <c r="P13" s="26"/>
       <c r="Q13" s="26"/>
       <c r="R13" s="26"/>
-      <c r="S13" s="29">
+      <c r="S13" s="30">
         <v>10</v>
       </c>
       <c r="T13" s="26"/>
@@ -2313,19 +2319,23 @@
       </c>
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
+      <c r="I14" s="29">
+        <v>10</v>
+      </c>
+      <c r="J14" s="30">
+        <v>10</v>
+      </c>
       <c r="K14" s="21"/>
       <c r="L14" s="26"/>
       <c r="M14" s="26"/>
       <c r="N14" s="26"/>
-      <c r="O14" s="29">
+      <c r="O14" s="30">
         <v>10</v>
       </c>
       <c r="P14" s="26"/>
       <c r="Q14" s="26"/>
       <c r="R14" s="26"/>
-      <c r="S14" s="29">
+      <c r="S14" s="30">
         <v>10</v>
       </c>
       <c r="T14" s="26"/>
@@ -2334,7 +2344,7 @@
       <c r="W14" s="26"/>
       <c r="X14" s="26"/>
       <c r="Y14" s="26"/>
-      <c r="Z14" t="s" s="30">
+      <c r="Z14" t="s" s="31">
         <v>28</v>
       </c>
       <c r="AA14" s="23"/>
@@ -2353,19 +2363,24 @@
       </c>
       <c r="G15" s="28"/>
       <c r="H15" s="28"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
+      <c r="I15" s="29">
+        <f>(O15+J15+S15)/3+Z15</f>
+        <v>9</v>
+      </c>
+      <c r="J15" s="30">
+        <v>10</v>
+      </c>
       <c r="K15" s="21"/>
       <c r="L15" s="26"/>
       <c r="M15" s="26"/>
       <c r="N15" s="26"/>
-      <c r="O15" s="29">
+      <c r="O15" s="30">
         <v>7</v>
       </c>
       <c r="P15" s="26"/>
       <c r="Q15" s="26"/>
       <c r="R15" s="26"/>
-      <c r="S15" s="29">
+      <c r="S15" s="30">
         <v>10</v>
       </c>
       <c r="T15" s="26"/>
@@ -2391,19 +2406,24 @@
       </c>
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
+      <c r="I16" s="29">
+        <f>(O16+J16+S16)/3+Z16</f>
+        <v>9.5</v>
+      </c>
+      <c r="J16" s="30">
+        <v>10</v>
+      </c>
       <c r="K16" s="21"/>
       <c r="L16" s="26"/>
       <c r="M16" s="26"/>
       <c r="N16" s="26"/>
-      <c r="O16" s="29">
+      <c r="O16" s="30">
         <v>7</v>
       </c>
       <c r="P16" s="26"/>
       <c r="Q16" s="26"/>
       <c r="R16" s="26"/>
-      <c r="S16" s="29">
+      <c r="S16" s="30">
         <v>10</v>
       </c>
       <c r="T16" s="26"/>
@@ -2412,7 +2432,7 @@
       <c r="W16" s="26"/>
       <c r="X16" s="26"/>
       <c r="Y16" s="26"/>
-      <c r="Z16" t="s" s="30">
+      <c r="Z16" t="s" s="31">
         <v>28</v>
       </c>
       <c r="AA16" s="23"/>
@@ -2431,19 +2451,24 @@
       </c>
       <c r="G17" s="28"/>
       <c r="H17" s="28"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
+      <c r="I17" s="29">
+        <f>(O17+J17+S17)/3+Z17</f>
+        <v>9.883333333333329</v>
+      </c>
+      <c r="J17" s="30">
+        <v>10</v>
+      </c>
       <c r="K17" s="21"/>
       <c r="L17" s="26"/>
       <c r="M17" s="26"/>
       <c r="N17" s="26"/>
-      <c r="O17" s="29">
+      <c r="O17" s="30">
         <v>9.65</v>
       </c>
       <c r="P17" s="26"/>
       <c r="Q17" s="26"/>
       <c r="R17" s="26"/>
-      <c r="S17" s="29">
+      <c r="S17" s="30">
         <v>10</v>
       </c>
       <c r="T17" s="26"/>
@@ -2469,8 +2494,12 @@
       </c>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
+      <c r="I18" t="s" s="31">
+        <v>33</v>
+      </c>
+      <c r="J18" t="s" s="31">
+        <v>33</v>
+      </c>
       <c r="K18" s="21"/>
       <c r="L18" s="26"/>
       <c r="M18" s="26"/>
@@ -2479,8 +2508,8 @@
       <c r="P18" s="26"/>
       <c r="Q18" s="26"/>
       <c r="R18" s="26"/>
-      <c r="S18" t="s" s="30">
-        <v>33</v>
+      <c r="S18" t="s" s="31">
+        <v>34</v>
       </c>
       <c r="T18" s="26"/>
       <c r="U18" s="26"/>
@@ -2501,24 +2530,29 @@
       </c>
       <c r="E19" s="26"/>
       <c r="F19" t="s" s="27">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G19" s="28"/>
       <c r="H19" s="28"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
+      <c r="I19" s="29">
+        <f>(O19+J19+S19)/3+Z19</f>
+        <v>9.75</v>
+      </c>
+      <c r="J19" s="30">
+        <v>10</v>
+      </c>
       <c r="K19" s="21"/>
       <c r="L19" s="26"/>
       <c r="M19" s="26"/>
       <c r="N19" s="26"/>
-      <c r="O19" s="29">
+      <c r="O19" s="30">
         <v>7.75</v>
       </c>
       <c r="P19" s="26"/>
       <c r="Q19" s="26"/>
       <c r="R19" s="26"/>
-      <c r="S19" t="s" s="30">
-        <v>35</v>
+      <c r="S19" t="s" s="31">
+        <v>36</v>
       </c>
       <c r="T19" s="26"/>
       <c r="U19" s="26"/>
@@ -2526,7 +2560,7 @@
       <c r="W19" s="26"/>
       <c r="X19" s="26"/>
       <c r="Y19" s="26"/>
-      <c r="Z19" t="s" s="30">
+      <c r="Z19" t="s" s="31">
         <v>28</v>
       </c>
       <c r="AA19" s="23"/>
@@ -2541,23 +2575,28 @@
       </c>
       <c r="E20" s="26"/>
       <c r="F20" t="s" s="27">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G20" s="28"/>
       <c r="H20" s="28"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
+      <c r="I20" s="29">
+        <f>(O20+J20+S20)/3+Z20</f>
+        <v>9.5</v>
+      </c>
+      <c r="J20" s="30">
+        <v>10</v>
+      </c>
       <c r="K20" s="21"/>
       <c r="L20" s="26"/>
       <c r="M20" s="26"/>
       <c r="N20" s="26"/>
-      <c r="O20" s="29">
+      <c r="O20" s="30">
         <v>7</v>
       </c>
       <c r="P20" s="26"/>
       <c r="Q20" s="26"/>
       <c r="R20" s="26"/>
-      <c r="S20" s="29">
+      <c r="S20" s="30">
         <v>10</v>
       </c>
       <c r="T20" s="26"/>
@@ -2566,7 +2605,7 @@
       <c r="W20" s="26"/>
       <c r="X20" s="26"/>
       <c r="Y20" s="26"/>
-      <c r="Z20" t="s" s="30">
+      <c r="Z20" t="s" s="31">
         <v>28</v>
       </c>
       <c r="AA20" s="23"/>
@@ -2581,23 +2620,27 @@
       </c>
       <c r="E21" s="26"/>
       <c r="F21" t="s" s="27">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G21" s="28"/>
       <c r="H21" s="28"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
+      <c r="I21" s="29">
+        <v>10</v>
+      </c>
+      <c r="J21" s="30">
+        <v>10</v>
+      </c>
       <c r="K21" s="21"/>
       <c r="L21" s="26"/>
       <c r="M21" s="26"/>
       <c r="N21" s="26"/>
-      <c r="O21" s="29">
+      <c r="O21" s="30">
         <v>10</v>
       </c>
       <c r="P21" s="26"/>
       <c r="Q21" s="26"/>
       <c r="R21" s="26"/>
-      <c r="S21" s="29">
+      <c r="S21" s="30">
         <v>10</v>
       </c>
       <c r="T21" s="26"/>
@@ -2606,7 +2649,7 @@
       <c r="W21" s="26"/>
       <c r="X21" s="26"/>
       <c r="Y21" s="26"/>
-      <c r="Z21" t="s" s="30">
+      <c r="Z21" t="s" s="31">
         <v>28</v>
       </c>
       <c r="AA21" s="23"/>
@@ -2621,57 +2664,62 @@
       </c>
       <c r="E22" s="26"/>
       <c r="F22" t="s" s="27">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G22" s="28"/>
       <c r="H22" s="28"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
+      <c r="I22" s="29">
+        <f>(O22+J22+S22)/3+Z22</f>
+        <v>5</v>
+      </c>
+      <c r="J22" s="30">
+        <v>5</v>
+      </c>
       <c r="K22" s="21"/>
-      <c r="L22" s="29">
-        <v>5</v>
-      </c>
-      <c r="M22" s="29">
-        <v>5</v>
-      </c>
-      <c r="N22" s="29">
-        <v>5</v>
-      </c>
-      <c r="O22" s="29">
-        <v>5</v>
-      </c>
-      <c r="P22" s="29">
-        <v>5</v>
-      </c>
-      <c r="Q22" s="29">
-        <v>5</v>
-      </c>
-      <c r="R22" s="29">
-        <v>5</v>
-      </c>
-      <c r="S22" s="29">
-        <v>5</v>
-      </c>
-      <c r="T22" s="29">
-        <v>5</v>
-      </c>
-      <c r="U22" s="29">
-        <v>5</v>
-      </c>
-      <c r="V22" s="29">
-        <v>5</v>
-      </c>
-      <c r="W22" s="29">
-        <v>5</v>
-      </c>
-      <c r="X22" s="29">
-        <v>5</v>
-      </c>
-      <c r="Y22" s="29">
-        <v>5</v>
-      </c>
-      <c r="Z22" s="29">
-        <v>5</v>
+      <c r="L22" s="30">
+        <v>5</v>
+      </c>
+      <c r="M22" s="30">
+        <v>5</v>
+      </c>
+      <c r="N22" s="30">
+        <v>5</v>
+      </c>
+      <c r="O22" s="30">
+        <v>5</v>
+      </c>
+      <c r="P22" s="30">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="30">
+        <v>5</v>
+      </c>
+      <c r="R22" s="30">
+        <v>5</v>
+      </c>
+      <c r="S22" s="30">
+        <v>5</v>
+      </c>
+      <c r="T22" s="30">
+        <v>5</v>
+      </c>
+      <c r="U22" s="30">
+        <v>5</v>
+      </c>
+      <c r="V22" s="30">
+        <v>5</v>
+      </c>
+      <c r="W22" s="30">
+        <v>5</v>
+      </c>
+      <c r="X22" s="30">
+        <v>5</v>
+      </c>
+      <c r="Y22" s="30">
+        <v>5</v>
+      </c>
+      <c r="Z22" s="30">
+        <v>0</v>
       </c>
       <c r="AA22" s="23"/>
       <c r="AB22" s="9"/>
@@ -2685,57 +2733,62 @@
       </c>
       <c r="E23" s="26"/>
       <c r="F23" t="s" s="27">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G23" s="28"/>
       <c r="H23" s="28"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
+      <c r="I23" s="29">
+        <f>(O23+J23+S23)/3+Z23</f>
+        <v>5</v>
+      </c>
+      <c r="J23" s="30">
+        <v>5</v>
+      </c>
       <c r="K23" s="21"/>
-      <c r="L23" s="29">
-        <v>5</v>
-      </c>
-      <c r="M23" s="29">
-        <v>5</v>
-      </c>
-      <c r="N23" s="29">
-        <v>5</v>
-      </c>
-      <c r="O23" s="29">
-        <v>5</v>
-      </c>
-      <c r="P23" s="29">
-        <v>5</v>
-      </c>
-      <c r="Q23" s="29">
-        <v>5</v>
-      </c>
-      <c r="R23" s="29">
-        <v>5</v>
-      </c>
-      <c r="S23" s="29">
-        <v>5</v>
-      </c>
-      <c r="T23" s="29">
-        <v>5</v>
-      </c>
-      <c r="U23" s="29">
-        <v>5</v>
-      </c>
-      <c r="V23" s="29">
-        <v>5</v>
-      </c>
-      <c r="W23" s="29">
-        <v>5</v>
-      </c>
-      <c r="X23" s="29">
-        <v>5</v>
-      </c>
-      <c r="Y23" s="29">
-        <v>5</v>
-      </c>
-      <c r="Z23" s="29">
-        <v>5</v>
+      <c r="L23" s="30">
+        <v>5</v>
+      </c>
+      <c r="M23" s="30">
+        <v>5</v>
+      </c>
+      <c r="N23" s="30">
+        <v>5</v>
+      </c>
+      <c r="O23" s="30">
+        <v>5</v>
+      </c>
+      <c r="P23" s="30">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="30">
+        <v>5</v>
+      </c>
+      <c r="R23" s="30">
+        <v>5</v>
+      </c>
+      <c r="S23" s="30">
+        <v>5</v>
+      </c>
+      <c r="T23" s="30">
+        <v>5</v>
+      </c>
+      <c r="U23" s="30">
+        <v>5</v>
+      </c>
+      <c r="V23" s="30">
+        <v>5</v>
+      </c>
+      <c r="W23" s="30">
+        <v>5</v>
+      </c>
+      <c r="X23" s="30">
+        <v>5</v>
+      </c>
+      <c r="Y23" s="30">
+        <v>5</v>
+      </c>
+      <c r="Z23" s="30">
+        <v>0</v>
       </c>
       <c r="AA23" s="23"/>
       <c r="AB23" s="9"/>
@@ -2749,23 +2802,28 @@
       </c>
       <c r="E24" s="26"/>
       <c r="F24" t="s" s="27">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G24" s="28"/>
       <c r="H24" s="28"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
+      <c r="I24" s="29">
+        <f>(O24+J24+S24)/3+Z24</f>
+        <v>8.83333333333333</v>
+      </c>
+      <c r="J24" s="30">
+        <v>10</v>
+      </c>
       <c r="K24" s="21"/>
       <c r="L24" s="26"/>
       <c r="M24" s="26"/>
       <c r="N24" s="26"/>
-      <c r="O24" s="29">
+      <c r="O24" s="30">
         <v>5</v>
       </c>
       <c r="P24" s="26"/>
       <c r="Q24" s="26"/>
       <c r="R24" s="26"/>
-      <c r="S24" s="29">
+      <c r="S24" s="30">
         <v>10</v>
       </c>
       <c r="T24" s="26"/>
@@ -2774,7 +2832,7 @@
       <c r="W24" s="26"/>
       <c r="X24" s="26"/>
       <c r="Y24" s="26"/>
-      <c r="Z24" t="s" s="30">
+      <c r="Z24" t="s" s="31">
         <v>28</v>
       </c>
       <c r="AA24" s="23"/>
@@ -2789,24 +2847,29 @@
       </c>
       <c r="E25" s="26"/>
       <c r="F25" t="s" s="27">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G25" s="28"/>
       <c r="H25" s="28"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
+      <c r="I25" s="29">
+        <f>(O25+J25+S25)/3+Z25</f>
+        <v>9.66666666666667</v>
+      </c>
+      <c r="J25" s="30">
+        <v>9</v>
+      </c>
       <c r="K25" s="21"/>
       <c r="L25" s="26"/>
       <c r="M25" s="26"/>
       <c r="N25" s="26"/>
-      <c r="O25" s="29">
+      <c r="O25" s="30">
         <v>10</v>
       </c>
       <c r="P25" s="26"/>
       <c r="Q25" s="26"/>
       <c r="R25" s="26"/>
-      <c r="S25" t="s" s="30">
-        <v>42</v>
+      <c r="S25" t="s" s="31">
+        <v>36</v>
       </c>
       <c r="T25" s="26"/>
       <c r="U25" s="26"/>
@@ -2831,19 +2894,23 @@
       </c>
       <c r="G26" s="28"/>
       <c r="H26" s="28"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
+      <c r="I26" s="29">
+        <v>10</v>
+      </c>
+      <c r="J26" s="30">
+        <v>10</v>
+      </c>
       <c r="K26" s="21"/>
       <c r="L26" s="26"/>
       <c r="M26" s="26"/>
       <c r="N26" s="26"/>
-      <c r="O26" s="29">
+      <c r="O26" s="30">
         <v>10</v>
       </c>
       <c r="P26" s="26"/>
       <c r="Q26" s="26"/>
       <c r="R26" s="26"/>
-      <c r="S26" s="29">
+      <c r="S26" s="30">
         <v>10</v>
       </c>
       <c r="T26" s="26"/>
@@ -2869,19 +2936,24 @@
       </c>
       <c r="G27" s="28"/>
       <c r="H27" s="28"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
+      <c r="I27" s="29">
+        <f>(O27+J27+S27)/3+Z27</f>
+        <v>9.5</v>
+      </c>
+      <c r="J27" s="30">
+        <v>10</v>
+      </c>
       <c r="K27" s="21"/>
       <c r="L27" s="26"/>
       <c r="M27" s="26"/>
       <c r="N27" s="26"/>
-      <c r="O27" s="29">
+      <c r="O27" s="30">
         <v>7</v>
       </c>
       <c r="P27" s="26"/>
       <c r="Q27" s="26"/>
       <c r="R27" s="26"/>
-      <c r="S27" s="29">
+      <c r="S27" s="30">
         <v>10</v>
       </c>
       <c r="T27" s="26"/>
@@ -2890,7 +2962,7 @@
       <c r="W27" s="26"/>
       <c r="X27" s="26"/>
       <c r="Y27" s="26"/>
-      <c r="Z27" t="s" s="30">
+      <c r="Z27" t="s" s="31">
         <v>28</v>
       </c>
       <c r="AA27" s="23"/>
@@ -2909,53 +2981,58 @@
       </c>
       <c r="G28" s="28"/>
       <c r="H28" s="28"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
+      <c r="I28" s="29">
+        <f>(O28+J28+S28)/3+Z28</f>
+        <v>5</v>
+      </c>
+      <c r="J28" s="30">
+        <v>5</v>
+      </c>
       <c r="K28" s="21"/>
-      <c r="L28" s="29">
-        <v>5</v>
-      </c>
-      <c r="M28" s="29">
-        <v>5</v>
-      </c>
-      <c r="N28" s="29">
-        <v>5</v>
-      </c>
-      <c r="O28" s="29">
-        <v>5</v>
-      </c>
-      <c r="P28" s="29">
-        <v>5</v>
-      </c>
-      <c r="Q28" s="29">
-        <v>5</v>
-      </c>
-      <c r="R28" s="29">
-        <v>5</v>
-      </c>
-      <c r="S28" s="29">
-        <v>5</v>
-      </c>
-      <c r="T28" s="29">
-        <v>5</v>
-      </c>
-      <c r="U28" s="29">
-        <v>5</v>
-      </c>
-      <c r="V28" s="29">
-        <v>5</v>
-      </c>
-      <c r="W28" s="29">
-        <v>5</v>
-      </c>
-      <c r="X28" s="29">
-        <v>5</v>
-      </c>
-      <c r="Y28" s="29">
-        <v>5</v>
-      </c>
-      <c r="Z28" s="29">
-        <v>5</v>
+      <c r="L28" s="30">
+        <v>5</v>
+      </c>
+      <c r="M28" s="30">
+        <v>5</v>
+      </c>
+      <c r="N28" s="30">
+        <v>5</v>
+      </c>
+      <c r="O28" s="30">
+        <v>5</v>
+      </c>
+      <c r="P28" s="30">
+        <v>5</v>
+      </c>
+      <c r="Q28" s="30">
+        <v>5</v>
+      </c>
+      <c r="R28" s="30">
+        <v>5</v>
+      </c>
+      <c r="S28" s="30">
+        <v>5</v>
+      </c>
+      <c r="T28" s="30">
+        <v>5</v>
+      </c>
+      <c r="U28" s="30">
+        <v>5</v>
+      </c>
+      <c r="V28" s="30">
+        <v>5</v>
+      </c>
+      <c r="W28" s="30">
+        <v>5</v>
+      </c>
+      <c r="X28" s="30">
+        <v>5</v>
+      </c>
+      <c r="Y28" s="30">
+        <v>5</v>
+      </c>
+      <c r="Z28" s="30">
+        <v>0</v>
       </c>
       <c r="AA28" s="23"/>
       <c r="AB28" s="9"/>
@@ -2973,19 +3050,24 @@
       </c>
       <c r="G29" s="28"/>
       <c r="H29" s="28"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
+      <c r="I29" s="29">
+        <f>(O29+J29+S29)/3+Z29</f>
+        <v>5.33333333333333</v>
+      </c>
+      <c r="J29" s="30">
+        <v>7</v>
+      </c>
       <c r="K29" s="21"/>
       <c r="L29" s="26"/>
       <c r="M29" s="26"/>
       <c r="N29" s="26"/>
-      <c r="O29" s="29">
+      <c r="O29" s="30">
         <v>5</v>
       </c>
       <c r="P29" s="26"/>
       <c r="Q29" s="26"/>
       <c r="R29" s="26"/>
-      <c r="S29" t="s" s="30">
+      <c r="S29" t="s" s="31">
         <v>47</v>
       </c>
       <c r="T29" s="26"/>
@@ -3011,19 +3093,24 @@
       </c>
       <c r="G30" s="28"/>
       <c r="H30" s="28"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
+      <c r="I30" s="29">
+        <f>(O30+J30+S30)/3+Z30</f>
+        <v>8.33333333333333</v>
+      </c>
+      <c r="J30" s="30">
+        <v>8</v>
+      </c>
       <c r="K30" s="21"/>
       <c r="L30" s="26"/>
       <c r="M30" s="26"/>
       <c r="N30" s="26"/>
-      <c r="O30" s="29">
+      <c r="O30" s="30">
         <v>7</v>
       </c>
       <c r="P30" s="26"/>
       <c r="Q30" s="26"/>
       <c r="R30" s="26"/>
-      <c r="S30" s="29">
+      <c r="S30" s="30">
         <v>10</v>
       </c>
       <c r="T30" s="26"/>
@@ -3049,8 +3136,13 @@
       </c>
       <c r="G31" s="28"/>
       <c r="H31" s="28"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
+      <c r="I31" s="29">
+        <f>(O31+J31+S31)/3+Z31</f>
+        <v>6</v>
+      </c>
+      <c r="J31" s="30">
+        <v>8</v>
+      </c>
       <c r="K31" s="21"/>
       <c r="L31" s="26"/>
       <c r="M31" s="26"/>
@@ -3059,7 +3151,7 @@
       <c r="P31" s="26"/>
       <c r="Q31" s="26"/>
       <c r="R31" s="26"/>
-      <c r="S31" s="29">
+      <c r="S31" s="30">
         <v>10</v>
       </c>
       <c r="T31" s="26"/>
@@ -3085,19 +3177,23 @@
       </c>
       <c r="G32" s="28"/>
       <c r="H32" s="28"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
+      <c r="I32" s="29">
+        <v>10</v>
+      </c>
+      <c r="J32" s="30">
+        <v>10</v>
+      </c>
       <c r="K32" s="21"/>
       <c r="L32" s="26"/>
       <c r="M32" s="26"/>
       <c r="N32" s="26"/>
-      <c r="O32" s="29">
+      <c r="O32" s="30">
         <v>9.75</v>
       </c>
       <c r="P32" s="26"/>
       <c r="Q32" s="26"/>
       <c r="R32" s="26"/>
-      <c r="S32" s="29">
+      <c r="S32" s="30">
         <v>10</v>
       </c>
       <c r="T32" s="26"/>
@@ -3106,7 +3202,7 @@
       <c r="W32" s="26"/>
       <c r="X32" s="26"/>
       <c r="Y32" s="26"/>
-      <c r="Z32" t="s" s="30">
+      <c r="Z32" t="s" s="31">
         <v>28</v>
       </c>
       <c r="AA32" s="23"/>
@@ -3125,49 +3221,54 @@
       </c>
       <c r="G33" s="28"/>
       <c r="H33" s="28"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
+      <c r="I33" s="29">
+        <f>(O33+J33+S33)/3+Z33</f>
+        <v>5</v>
+      </c>
+      <c r="J33" s="30">
+        <v>5</v>
+      </c>
       <c r="K33" s="21"/>
-      <c r="L33" s="29">
-        <v>5</v>
-      </c>
-      <c r="M33" s="29">
-        <v>5</v>
-      </c>
-      <c r="N33" s="29">
-        <v>5</v>
-      </c>
-      <c r="O33" s="29">
-        <v>5</v>
-      </c>
-      <c r="P33" s="29">
-        <v>5</v>
-      </c>
-      <c r="Q33" s="29">
-        <v>5</v>
-      </c>
-      <c r="R33" s="29">
-        <v>5</v>
-      </c>
-      <c r="S33" s="29">
-        <v>5</v>
-      </c>
-      <c r="T33" s="29">
-        <v>5</v>
-      </c>
-      <c r="U33" s="29">
-        <v>5</v>
-      </c>
-      <c r="V33" s="29">
-        <v>5</v>
-      </c>
-      <c r="W33" s="29">
-        <v>5</v>
-      </c>
-      <c r="X33" s="29">
-        <v>5</v>
-      </c>
-      <c r="Y33" s="29">
+      <c r="L33" s="30">
+        <v>5</v>
+      </c>
+      <c r="M33" s="30">
+        <v>5</v>
+      </c>
+      <c r="N33" s="30">
+        <v>5</v>
+      </c>
+      <c r="O33" s="30">
+        <v>5</v>
+      </c>
+      <c r="P33" s="30">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="30">
+        <v>5</v>
+      </c>
+      <c r="R33" s="30">
+        <v>5</v>
+      </c>
+      <c r="S33" s="30">
+        <v>5</v>
+      </c>
+      <c r="T33" s="30">
+        <v>5</v>
+      </c>
+      <c r="U33" s="30">
+        <v>5</v>
+      </c>
+      <c r="V33" s="30">
+        <v>5</v>
+      </c>
+      <c r="W33" s="30">
+        <v>5</v>
+      </c>
+      <c r="X33" s="30">
+        <v>5</v>
+      </c>
+      <c r="Y33" s="30">
         <v>5</v>
       </c>
       <c r="Z33" s="26"/>
@@ -3187,49 +3288,54 @@
       </c>
       <c r="G34" s="28"/>
       <c r="H34" s="28"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
+      <c r="I34" s="29">
+        <f>(O34+J34+S34)/3+Z34</f>
+        <v>5</v>
+      </c>
+      <c r="J34" s="30">
+        <v>5</v>
+      </c>
       <c r="K34" s="21"/>
-      <c r="L34" s="29">
-        <v>5</v>
-      </c>
-      <c r="M34" s="29">
-        <v>5</v>
-      </c>
-      <c r="N34" s="29">
-        <v>5</v>
-      </c>
-      <c r="O34" s="29">
-        <v>5</v>
-      </c>
-      <c r="P34" s="29">
-        <v>5</v>
-      </c>
-      <c r="Q34" s="29">
-        <v>5</v>
-      </c>
-      <c r="R34" s="29">
-        <v>5</v>
-      </c>
-      <c r="S34" s="29">
-        <v>5</v>
-      </c>
-      <c r="T34" s="29">
-        <v>5</v>
-      </c>
-      <c r="U34" s="29">
-        <v>5</v>
-      </c>
-      <c r="V34" s="29">
-        <v>5</v>
-      </c>
-      <c r="W34" s="29">
-        <v>5</v>
-      </c>
-      <c r="X34" s="29">
-        <v>5</v>
-      </c>
-      <c r="Y34" s="29">
+      <c r="L34" s="30">
+        <v>5</v>
+      </c>
+      <c r="M34" s="30">
+        <v>5</v>
+      </c>
+      <c r="N34" s="30">
+        <v>5</v>
+      </c>
+      <c r="O34" s="30">
+        <v>5</v>
+      </c>
+      <c r="P34" s="30">
+        <v>5</v>
+      </c>
+      <c r="Q34" s="30">
+        <v>5</v>
+      </c>
+      <c r="R34" s="30">
+        <v>5</v>
+      </c>
+      <c r="S34" s="30">
+        <v>5</v>
+      </c>
+      <c r="T34" s="30">
+        <v>5</v>
+      </c>
+      <c r="U34" s="30">
+        <v>5</v>
+      </c>
+      <c r="V34" s="30">
+        <v>5</v>
+      </c>
+      <c r="W34" s="30">
+        <v>5</v>
+      </c>
+      <c r="X34" s="30">
+        <v>5</v>
+      </c>
+      <c r="Y34" s="30">
         <v>5</v>
       </c>
       <c r="Z34" s="26"/>
@@ -3249,19 +3355,24 @@
       </c>
       <c r="G35" s="28"/>
       <c r="H35" s="28"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
+      <c r="I35" s="29">
+        <f>(O35+J35+S35)/3+Z35</f>
+        <v>9.949999999999999</v>
+      </c>
+      <c r="J35" s="30">
+        <v>10</v>
+      </c>
       <c r="K35" s="21"/>
       <c r="L35" s="26"/>
       <c r="M35" s="26"/>
       <c r="N35" s="26"/>
-      <c r="O35" s="29">
+      <c r="O35" s="30">
         <v>9.85</v>
       </c>
       <c r="P35" s="26"/>
       <c r="Q35" s="26"/>
       <c r="R35" s="26"/>
-      <c r="S35" s="29">
+      <c r="S35" s="30">
         <v>10</v>
       </c>
       <c r="T35" s="26"/>
@@ -3287,19 +3398,24 @@
       </c>
       <c r="G36" s="28"/>
       <c r="H36" s="28"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
+      <c r="I36" s="29">
+        <f>(O36+J36+S36)/3+Z36</f>
+        <v>7.83333333333333</v>
+      </c>
+      <c r="J36" s="30">
+        <v>10</v>
+      </c>
       <c r="K36" s="21"/>
       <c r="L36" s="26"/>
       <c r="M36" s="26"/>
       <c r="N36" s="26"/>
-      <c r="O36" s="29">
+      <c r="O36" s="30">
         <v>5</v>
       </c>
       <c r="P36" s="26"/>
       <c r="Q36" s="26"/>
       <c r="R36" s="26"/>
-      <c r="S36" s="29">
+      <c r="S36" s="30">
         <v>7</v>
       </c>
       <c r="T36" s="26"/>
@@ -3308,7 +3424,7 @@
       <c r="W36" s="26"/>
       <c r="X36" s="26"/>
       <c r="Y36" s="26"/>
-      <c r="Z36" t="s" s="30">
+      <c r="Z36" t="s" s="31">
         <v>28</v>
       </c>
       <c r="AA36" s="23"/>
@@ -3327,19 +3443,24 @@
       </c>
       <c r="G37" s="28"/>
       <c r="H37" s="28"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
+      <c r="I37" s="29">
+        <f>(O37+J37+S37)/3+Z37</f>
+        <v>8.33333333333333</v>
+      </c>
+      <c r="J37" s="30">
+        <v>9</v>
+      </c>
       <c r="K37" s="21"/>
       <c r="L37" s="26"/>
       <c r="M37" s="26"/>
       <c r="N37" s="26"/>
-      <c r="O37" s="29">
+      <c r="O37" s="30">
         <v>6</v>
       </c>
       <c r="P37" s="26"/>
       <c r="Q37" s="26"/>
       <c r="R37" s="26"/>
-      <c r="S37" s="29">
+      <c r="S37" s="30">
         <v>10</v>
       </c>
       <c r="T37" s="26"/>
@@ -3365,20 +3486,25 @@
       </c>
       <c r="G38" s="28"/>
       <c r="H38" s="28"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="26"/>
+      <c r="I38" s="29">
+        <f>(O38+J38+S38)/3+Z38</f>
+        <v>9</v>
+      </c>
+      <c r="J38" s="30">
+        <v>8</v>
+      </c>
       <c r="K38" s="21"/>
       <c r="L38" s="26"/>
       <c r="M38" s="26"/>
       <c r="N38" s="26"/>
-      <c r="O38" s="29">
+      <c r="O38" s="30">
         <v>9</v>
       </c>
       <c r="P38" s="26"/>
       <c r="Q38" s="26"/>
       <c r="R38" s="26"/>
-      <c r="S38" t="s" s="30">
-        <v>42</v>
+      <c r="S38" t="s" s="31">
+        <v>36</v>
       </c>
       <c r="T38" s="26"/>
       <c r="U38" s="26"/>
@@ -3403,19 +3529,24 @@
       </c>
       <c r="G39" s="28"/>
       <c r="H39" s="28"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
+      <c r="I39" s="29">
+        <f>(O39+J39+S39)/3+Z39</f>
+        <v>8.33333333333333</v>
+      </c>
+      <c r="J39" s="30">
+        <v>10</v>
+      </c>
       <c r="K39" s="21"/>
       <c r="L39" s="26"/>
       <c r="M39" s="26"/>
       <c r="N39" s="26"/>
-      <c r="O39" s="29">
+      <c r="O39" s="30">
         <v>6</v>
       </c>
       <c r="P39" s="26"/>
       <c r="Q39" s="26"/>
       <c r="R39" s="26"/>
-      <c r="S39" t="s" s="30">
+      <c r="S39" t="s" s="31">
         <v>58</v>
       </c>
       <c r="T39" s="26"/>
@@ -3441,19 +3572,24 @@
       </c>
       <c r="G40" s="28"/>
       <c r="H40" s="28"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="26"/>
+      <c r="I40" s="29">
+        <f>(O40+J40+S40)/3+Z40</f>
+        <v>9</v>
+      </c>
+      <c r="J40" s="30">
+        <v>10</v>
+      </c>
       <c r="K40" s="21"/>
       <c r="L40" s="26"/>
       <c r="M40" s="26"/>
       <c r="N40" s="26"/>
-      <c r="O40" s="29">
+      <c r="O40" s="30">
         <v>7</v>
       </c>
       <c r="P40" s="26"/>
       <c r="Q40" s="26"/>
       <c r="R40" s="26"/>
-      <c r="S40" s="29">
+      <c r="S40" s="30">
         <v>10</v>
       </c>
       <c r="T40" s="26"/>
@@ -3479,19 +3615,23 @@
       </c>
       <c r="G41" s="28"/>
       <c r="H41" s="28"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="26"/>
+      <c r="I41" s="29">
+        <v>10</v>
+      </c>
+      <c r="J41" s="30">
+        <v>10</v>
+      </c>
       <c r="K41" s="21"/>
       <c r="L41" s="26"/>
       <c r="M41" s="26"/>
       <c r="N41" s="26"/>
-      <c r="O41" s="29">
+      <c r="O41" s="30">
         <v>10</v>
       </c>
       <c r="P41" s="26"/>
       <c r="Q41" s="26"/>
       <c r="R41" s="26"/>
-      <c r="S41" s="29">
+      <c r="S41" s="30">
         <v>10</v>
       </c>
       <c r="T41" s="26"/>
@@ -3500,16 +3640,16 @@
       <c r="W41" s="26"/>
       <c r="X41" s="26"/>
       <c r="Y41" s="26"/>
-      <c r="Z41" t="s" s="30">
+      <c r="Z41" t="s" s="31">
         <v>28</v>
       </c>
       <c r="AA41" s="23"/>
       <c r="AB41" s="9"/>
     </row>
     <row r="42" ht="13.7" customHeight="1">
-      <c r="A42" s="31"/>
-      <c r="B42" s="32"/>
-      <c r="C42" s="33"/>
+      <c r="A42" s="32"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="34"/>
       <c r="D42" s="25">
         <v>30</v>
       </c>
@@ -3519,20 +3659,25 @@
       </c>
       <c r="G42" s="28"/>
       <c r="H42" s="28"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="34"/>
+      <c r="I42" s="29">
+        <f>(O42+J42+S42)/3+Z42</f>
+        <v>8.33333333333333</v>
+      </c>
+      <c r="J42" s="30">
+        <v>8</v>
+      </c>
+      <c r="K42" s="35"/>
       <c r="L42" s="26"/>
       <c r="M42" s="26"/>
       <c r="N42" s="26"/>
-      <c r="O42" s="29">
+      <c r="O42" s="30">
         <v>7</v>
       </c>
       <c r="P42" s="26"/>
       <c r="Q42" s="26"/>
       <c r="R42" s="26"/>
-      <c r="S42" t="s" s="30">
-        <v>62</v>
+      <c r="S42" t="s" s="31">
+        <v>36</v>
       </c>
       <c r="T42" s="26"/>
       <c r="U42" s="26"/>
@@ -3541,21 +3686,21 @@
       <c r="X42" s="26"/>
       <c r="Y42" s="26"/>
       <c r="Z42" s="26"/>
-      <c r="AA42" s="35"/>
-      <c r="AB42" s="36"/>
+      <c r="AA42" s="36"/>
+      <c r="AB42" s="37"/>
     </row>
     <row r="43" ht="13.7" customHeight="1">
-      <c r="A43" s="37"/>
-      <c r="B43" s="38"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="40"/>
+      <c r="A43" s="38"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="41"/>
       <c r="E43" s="26"/>
       <c r="F43" s="27"/>
       <c r="G43" s="26"/>
       <c r="H43" s="26"/>
       <c r="I43" s="26"/>
       <c r="J43" s="26"/>
-      <c r="K43" s="41"/>
+      <c r="K43" s="42"/>
       <c r="L43" s="26"/>
       <c r="M43" s="26"/>
       <c r="N43" s="26"/>
@@ -3570,9 +3715,9 @@
       <c r="W43" s="26"/>
       <c r="X43" s="26"/>
       <c r="Y43" s="26"/>
-      <c r="Z43" s="42"/>
-      <c r="AA43" s="38"/>
-      <c r="AB43" s="43"/>
+      <c r="Z43" s="43"/>
+      <c r="AA43" s="39"/>
+      <c r="AB43" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="39">
